--- a/model_position_data.xlsx
+++ b/model_position_data.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="66">
   <si>
     <t>content marketing</t>
   </si>
@@ -24,9 +24,6 @@
     <t>local seo</t>
   </si>
   <si>
-    <t>social media</t>
-  </si>
-  <si>
     <t>CRM</t>
   </si>
   <si>
@@ -100,6 +97,123 @@
   </si>
   <si>
     <t>Backlink Analysis</t>
+  </si>
+  <si>
+    <t>Local SEO</t>
+  </si>
+  <si>
+    <t>Content Marketing</t>
+  </si>
+  <si>
+    <t>Hosting</t>
+  </si>
+  <si>
+    <t>NAP</t>
+  </si>
+  <si>
+    <t>Website Content</t>
+  </si>
+  <si>
+    <t>Citations</t>
+  </si>
+  <si>
+    <t>Google +</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>line_id</t>
+  </si>
+  <si>
+    <t>line_position</t>
+  </si>
+  <si>
+    <t>point_x</t>
+  </si>
+  <si>
+    <t>point_y</t>
+  </si>
+  <si>
+    <t>text_x</t>
+  </si>
+  <si>
+    <t>text_y</t>
+  </si>
+  <si>
+    <t>junction_id</t>
+  </si>
+  <si>
+    <t>junction_position</t>
+  </si>
+  <si>
+    <t>SEO Strategy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INSERT INTO `tbl_entity_stop`(`id`,`name`, `line_id`, `line_position`, `point_x`, `point_y`, `text_x`, `text_y`, `junction_id`, `junction_position`) VALUES </t>
+  </si>
+  <si>
+    <t>SEO Reporting</t>
+  </si>
+  <si>
+    <t>Social Media</t>
+  </si>
+  <si>
+    <t>Strategy</t>
+  </si>
+  <si>
+    <t>Campaign Planning</t>
+  </si>
+  <si>
+    <t>Audience</t>
+  </si>
+  <si>
+    <t>Online Sales</t>
+  </si>
+  <si>
+    <t>Social Insights</t>
+  </si>
+  <si>
+    <t>Conversation</t>
+  </si>
+  <si>
+    <t>Amplification</t>
+  </si>
+  <si>
+    <t>Applause</t>
+  </si>
+  <si>
+    <t>ROI</t>
+  </si>
+  <si>
+    <t>Social Analytics</t>
+  </si>
+  <si>
+    <t>Slideshare</t>
+  </si>
+  <si>
+    <t>Instagram</t>
+  </si>
+  <si>
+    <t>Flickr</t>
+  </si>
+  <si>
+    <t>Pinterest</t>
+  </si>
+  <si>
+    <t>Facebook</t>
+  </si>
+  <si>
+    <t>YouTube</t>
+  </si>
+  <si>
+    <t>LinkedIn</t>
+  </si>
+  <si>
+    <t>Twitter</t>
   </si>
 </sst>
 </file>
@@ -436,7 +550,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F71"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="B64" sqref="B64"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -659,15 +775,15 @@
         <v>590</v>
       </c>
       <c r="D11" s="1">
-        <f>B11/1000</f>
+        <f t="shared" ref="D11:E17" si="2">B11/1000</f>
         <v>0.65500000000000003</v>
       </c>
       <c r="E11" s="1">
-        <f>C11/1000</f>
+        <f t="shared" si="2"/>
         <v>0.59</v>
       </c>
       <c r="F11" s="1" t="str">
-        <f>"["&amp;D11&amp;","&amp;E11&amp;"],"</f>
+        <f t="shared" ref="F11:F17" si="3">"["&amp;D11&amp;","&amp;E11&amp;"],"</f>
         <v>[0.655,0.59],</v>
       </c>
     </row>
@@ -679,15 +795,15 @@
         <v>485</v>
       </c>
       <c r="D12" s="1">
-        <f>B12/1000</f>
+        <f t="shared" si="2"/>
         <v>0.65500000000000003</v>
       </c>
       <c r="E12" s="1">
-        <f>C12/1000</f>
+        <f t="shared" si="2"/>
         <v>0.48499999999999999</v>
       </c>
       <c r="F12" s="1" t="str">
-        <f>"["&amp;D12&amp;","&amp;E12&amp;"],"</f>
+        <f t="shared" si="3"/>
         <v>[0.655,0.485],</v>
       </c>
     </row>
@@ -699,15 +815,15 @@
         <v>485</v>
       </c>
       <c r="D13" s="1">
-        <f>B13/1000</f>
+        <f t="shared" si="2"/>
         <v>0.48499999999999999</v>
       </c>
       <c r="E13" s="1">
-        <f>C13/1000</f>
+        <f t="shared" si="2"/>
         <v>0.48499999999999999</v>
       </c>
       <c r="F13" s="1" t="str">
-        <f>"["&amp;D13&amp;","&amp;E13&amp;"],"</f>
+        <f t="shared" si="3"/>
         <v>[0.485,0.485],</v>
       </c>
     </row>
@@ -719,15 +835,15 @@
         <v>475</v>
       </c>
       <c r="D14" s="1">
-        <f>B14/1000</f>
+        <f t="shared" si="2"/>
         <v>0.48499999999999999</v>
       </c>
       <c r="E14" s="1">
-        <f>C14/1000</f>
+        <f t="shared" si="2"/>
         <v>0.47499999999999998</v>
       </c>
       <c r="F14" s="1" t="str">
-        <f>"["&amp;D14&amp;","&amp;E14&amp;"],"</f>
+        <f t="shared" si="3"/>
         <v>[0.485,0.475],</v>
       </c>
     </row>
@@ -739,15 +855,15 @@
         <v>475</v>
       </c>
       <c r="D15" s="1">
-        <f>B15/1000</f>
+        <f t="shared" si="2"/>
         <v>0.34499999999999997</v>
       </c>
       <c r="E15" s="1">
-        <f>C15/1000</f>
+        <f t="shared" si="2"/>
         <v>0.47499999999999998</v>
       </c>
       <c r="F15" s="1" t="str">
-        <f>"["&amp;D15&amp;","&amp;E15&amp;"],"</f>
+        <f t="shared" si="3"/>
         <v>[0.345,0.475],</v>
       </c>
     </row>
@@ -759,15 +875,15 @@
         <v>325</v>
       </c>
       <c r="D16" s="1">
-        <f>B16/1000</f>
+        <f t="shared" si="2"/>
         <v>0.34499999999999997</v>
       </c>
       <c r="E16" s="1">
-        <f>C16/1000</f>
+        <f t="shared" si="2"/>
         <v>0.32500000000000001</v>
       </c>
       <c r="F16" s="1" t="str">
-        <f>"["&amp;D16&amp;","&amp;E16&amp;"],"</f>
+        <f t="shared" si="3"/>
         <v>[0.345,0.325],</v>
       </c>
     </row>
@@ -779,21 +895,21 @@
         <v>325</v>
       </c>
       <c r="D17" s="1">
-        <f>B17/1000</f>
+        <f t="shared" si="2"/>
         <v>0.44</v>
       </c>
       <c r="E17" s="1">
-        <f>C17/1000</f>
+        <f t="shared" si="2"/>
         <v>0.32500000000000001</v>
       </c>
       <c r="F17" s="1" t="str">
-        <f>"["&amp;D17&amp;","&amp;E17&amp;"],"</f>
+        <f t="shared" si="3"/>
         <v>[0.44,0.325],</v>
       </c>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="1" t="s">
-        <v>2</v>
+      <c r="A18" t="s">
+        <v>47</v>
       </c>
       <c r="B18" s="1">
         <v>550</v>
@@ -802,15 +918,15 @@
         <v>105</v>
       </c>
       <c r="D18" s="1">
-        <f t="shared" ref="D18" si="2">B18/1000</f>
+        <f t="shared" ref="D18" si="4">B18/1000</f>
         <v>0.55000000000000004</v>
       </c>
       <c r="E18" s="1">
-        <f t="shared" ref="E18" si="3">C18/1000</f>
+        <f t="shared" ref="E18" si="5">C18/1000</f>
         <v>0.105</v>
       </c>
       <c r="F18" s="1" t="str">
-        <f t="shared" ref="F18" si="4">"["&amp;D18&amp;","&amp;E18&amp;"],"</f>
+        <f t="shared" ref="F18" si="6">"["&amp;D18&amp;","&amp;E18&amp;"],"</f>
         <v>[0.55,0.105],</v>
       </c>
     </row>
@@ -822,15 +938,15 @@
         <v>420</v>
       </c>
       <c r="D19" s="1">
-        <f t="shared" ref="D19:D25" si="5">B19/1000</f>
+        <f t="shared" ref="D19:D25" si="7">B19/1000</f>
         <v>0.55000000000000004</v>
       </c>
       <c r="E19" s="1">
-        <f t="shared" ref="E19:E25" si="6">C19/1000</f>
+        <f t="shared" ref="E19:E25" si="8">C19/1000</f>
         <v>0.42</v>
       </c>
       <c r="F19" s="1" t="str">
-        <f t="shared" ref="F19:F25" si="7">"["&amp;D19&amp;","&amp;E19&amp;"],"</f>
+        <f t="shared" ref="F19:F25" si="9">"["&amp;D19&amp;","&amp;E19&amp;"],"</f>
         <v>[0.55,0.42],</v>
       </c>
     </row>
@@ -842,15 +958,15 @@
         <v>420</v>
       </c>
       <c r="D20" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.63500000000000001</v>
       </c>
       <c r="E20" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.42</v>
       </c>
       <c r="F20" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>[0.635,0.42],</v>
       </c>
     </row>
@@ -862,15 +978,15 @@
         <v>465</v>
       </c>
       <c r="D21" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.63500000000000001</v>
       </c>
       <c r="E21" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.46500000000000002</v>
       </c>
       <c r="F21" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>[0.635,0.465],</v>
       </c>
     </row>
@@ -882,15 +998,15 @@
         <v>465</v>
       </c>
       <c r="D22" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.67500000000000004</v>
       </c>
       <c r="E22" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.46500000000000002</v>
       </c>
       <c r="F22" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>[0.675,0.465],</v>
       </c>
     </row>
@@ -902,15 +1018,15 @@
         <v>475</v>
       </c>
       <c r="D23" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.68500000000000005</v>
       </c>
       <c r="E23" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.47499999999999998</v>
       </c>
       <c r="F23" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>[0.685,0.475],</v>
       </c>
     </row>
@@ -922,15 +1038,15 @@
         <v>475</v>
       </c>
       <c r="D24" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.745</v>
       </c>
       <c r="E24" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.47499999999999998</v>
       </c>
       <c r="F24" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>[0.745,0.475],</v>
       </c>
     </row>
@@ -942,21 +1058,21 @@
         <v>640</v>
       </c>
       <c r="D25" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.745</v>
       </c>
       <c r="E25" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.64</v>
       </c>
       <c r="F25" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>[0.745,0.64],</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B26" s="1">
         <v>735</v>
@@ -965,15 +1081,15 @@
         <v>125</v>
       </c>
       <c r="D26" s="1">
-        <f t="shared" ref="D26:D29" si="8">B26/1000</f>
+        <f t="shared" ref="D26:D29" si="10">B26/1000</f>
         <v>0.73499999999999999</v>
       </c>
       <c r="E26" s="1">
-        <f t="shared" ref="E26:E29" si="9">C26/1000</f>
+        <f t="shared" ref="E26:E29" si="11">C26/1000</f>
         <v>0.125</v>
       </c>
       <c r="F26" s="1" t="str">
-        <f t="shared" ref="F26:F29" si="10">"["&amp;D26&amp;","&amp;E26&amp;"],"</f>
+        <f t="shared" ref="F26:F29" si="12">"["&amp;D26&amp;","&amp;E26&amp;"],"</f>
         <v>[0.735,0.125],</v>
       </c>
     </row>
@@ -985,15 +1101,15 @@
         <v>305</v>
       </c>
       <c r="D27" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.63500000000000001</v>
       </c>
       <c r="E27" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.30499999999999999</v>
       </c>
       <c r="F27" s="1" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>[0.635,0.305],</v>
       </c>
     </row>
@@ -1005,15 +1121,15 @@
         <v>420</v>
       </c>
       <c r="D28" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.63500000000000001</v>
       </c>
       <c r="E28" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.42</v>
       </c>
       <c r="F28" s="1" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>[0.635,0.42],</v>
       </c>
     </row>
@@ -1025,21 +1141,21 @@
         <v>420</v>
       </c>
       <c r="D29" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.89500000000000002</v>
       </c>
       <c r="E29" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.42</v>
       </c>
       <c r="F29" s="1" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>[0.895,0.42],</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B30" s="1">
         <v>865</v>
@@ -1048,15 +1164,15 @@
         <v>330</v>
       </c>
       <c r="D30" s="1">
-        <f t="shared" ref="D30:D32" si="11">B30/1000</f>
+        <f t="shared" ref="D30:D32" si="13">B30/1000</f>
         <v>0.86499999999999999</v>
       </c>
       <c r="E30" s="1">
-        <f t="shared" ref="E30:E32" si="12">C30/1000</f>
+        <f t="shared" ref="E30:E32" si="14">C30/1000</f>
         <v>0.33</v>
       </c>
       <c r="F30" s="1" t="str">
-        <f t="shared" ref="F30:F32" si="13">"["&amp;D30&amp;","&amp;E30&amp;"],"</f>
+        <f t="shared" ref="F30:F32" si="15">"["&amp;D30&amp;","&amp;E30&amp;"],"</f>
         <v>[0.865,0.33],</v>
       </c>
     </row>
@@ -1068,15 +1184,15 @@
         <v>320</v>
       </c>
       <c r="D31" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0.83499999999999996</v>
       </c>
       <c r="E31" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.32</v>
       </c>
       <c r="F31" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>[0.835,0.32],</v>
       </c>
     </row>
@@ -1088,21 +1204,21 @@
         <v>170</v>
       </c>
       <c r="D32" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0.83499999999999996</v>
       </c>
       <c r="E32" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.17</v>
       </c>
       <c r="F32" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>[0.835,0.17],</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B33" s="1">
         <v>835</v>
@@ -1111,15 +1227,15 @@
         <v>170</v>
       </c>
       <c r="D33" s="1">
-        <f t="shared" ref="D33:D37" si="14">B33/1000</f>
+        <f t="shared" ref="D33:D37" si="16">B33/1000</f>
         <v>0.83499999999999996</v>
       </c>
       <c r="E33" s="1">
-        <f t="shared" ref="E33:E37" si="15">C33/1000</f>
+        <f t="shared" ref="E33:E37" si="17">C33/1000</f>
         <v>0.17</v>
       </c>
       <c r="F33" s="1" t="str">
-        <f t="shared" ref="F33:F37" si="16">"["&amp;D33&amp;","&amp;E33&amp;"],"</f>
+        <f t="shared" ref="F33:F37" si="18">"["&amp;D33&amp;","&amp;E33&amp;"],"</f>
         <v>[0.835,0.17],</v>
       </c>
     </row>
@@ -1131,15 +1247,15 @@
         <v>325</v>
       </c>
       <c r="D34" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0.72</v>
       </c>
       <c r="E34" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0.32500000000000001</v>
       </c>
       <c r="F34" s="1" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>[0.72,0.325],</v>
       </c>
     </row>
@@ -1151,15 +1267,15 @@
         <v>325</v>
       </c>
       <c r="D35" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0.57999999999999996</v>
       </c>
       <c r="E35" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0.32500000000000001</v>
       </c>
       <c r="F35" s="1" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>[0.58,0.325],</v>
       </c>
     </row>
@@ -1171,15 +1287,15 @@
         <v>380</v>
       </c>
       <c r="D36" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0.57999999999999996</v>
       </c>
       <c r="E36" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0.38</v>
       </c>
       <c r="F36" s="1" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>[0.58,0.38],</v>
       </c>
     </row>
@@ -1191,21 +1307,21 @@
         <v>420</v>
       </c>
       <c r="D37" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0.63500000000000001</v>
       </c>
       <c r="E37" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0.42</v>
       </c>
       <c r="F37" s="1" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>[0.635,0.42],</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B38" s="1">
         <v>260</v>
@@ -1214,15 +1330,15 @@
         <v>145</v>
       </c>
       <c r="D38" s="1">
-        <f t="shared" ref="D38:D46" si="17">B38/1000</f>
+        <f t="shared" ref="D38:D46" si="19">B38/1000</f>
         <v>0.26</v>
       </c>
       <c r="E38" s="1">
-        <f t="shared" ref="E38:E46" si="18">C38/1000</f>
+        <f t="shared" ref="E38:E46" si="20">C38/1000</f>
         <v>0.14499999999999999</v>
       </c>
       <c r="F38" s="1" t="str">
-        <f t="shared" ref="F38:F46" si="19">"["&amp;D38&amp;","&amp;E38&amp;"],"</f>
+        <f t="shared" ref="F38:F46" si="21">"["&amp;D38&amp;","&amp;E38&amp;"],"</f>
         <v>[0.26,0.145],</v>
       </c>
     </row>
@@ -1234,15 +1350,15 @@
         <v>180</v>
       </c>
       <c r="D39" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0.26</v>
       </c>
       <c r="E39" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>0.18</v>
       </c>
       <c r="F39" s="1" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>[0.26,0.18],</v>
       </c>
     </row>
@@ -1254,15 +1370,15 @@
         <v>180</v>
       </c>
       <c r="D40" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0.44500000000000001</v>
       </c>
       <c r="E40" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>0.18</v>
       </c>
       <c r="F40" s="1" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>[0.445,0.18],</v>
       </c>
     </row>
@@ -1274,15 +1390,15 @@
         <v>325</v>
       </c>
       <c r="D41" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0.57999999999999996</v>
       </c>
       <c r="E41" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>0.32500000000000001</v>
       </c>
       <c r="F41" s="1" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>[0.58,0.325],</v>
       </c>
     </row>
@@ -1294,15 +1410,15 @@
         <v>325</v>
       </c>
       <c r="D42" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0.46</v>
       </c>
       <c r="E42" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>0.32500000000000001</v>
       </c>
       <c r="F42" s="1" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>[0.46,0.325],</v>
       </c>
     </row>
@@ -1314,15 +1430,15 @@
         <v>400</v>
       </c>
       <c r="D43" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0.46</v>
       </c>
       <c r="E43" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>0.4</v>
       </c>
       <c r="F43" s="1" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>[0.46,0.4],</v>
       </c>
     </row>
@@ -1334,15 +1450,15 @@
         <v>415</v>
       </c>
       <c r="D44" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0.44</v>
       </c>
       <c r="E44" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>0.41499999999999998</v>
       </c>
       <c r="F44" s="1" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>[0.44,0.415],</v>
       </c>
     </row>
@@ -1354,15 +1470,15 @@
         <v>550</v>
       </c>
       <c r="D45" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0.44</v>
       </c>
       <c r="E45" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>0.55000000000000004</v>
       </c>
       <c r="F45" s="1" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>[0.44,0.55],</v>
       </c>
     </row>
@@ -1374,21 +1490,21 @@
         <v>600</v>
       </c>
       <c r="D46" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0.38</v>
       </c>
       <c r="E46" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>0.6</v>
       </c>
       <c r="F46" s="1" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>[0.38,0.6],</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B47" s="1">
         <v>230</v>
@@ -1397,15 +1513,15 @@
         <v>390</v>
       </c>
       <c r="D47" s="1">
-        <f t="shared" ref="D47:D57" si="20">B47/1000</f>
+        <f t="shared" ref="D47:D57" si="22">B47/1000</f>
         <v>0.23</v>
       </c>
       <c r="E47" s="1">
-        <f t="shared" ref="E47:E57" si="21">C47/1000</f>
+        <f t="shared" ref="E47:E57" si="23">C47/1000</f>
         <v>0.39</v>
       </c>
       <c r="F47" s="1" t="str">
-        <f t="shared" ref="F47:F57" si="22">"["&amp;D47&amp;","&amp;E47&amp;"],"</f>
+        <f t="shared" ref="F47:F57" si="24">"["&amp;D47&amp;","&amp;E47&amp;"],"</f>
         <v>[0.23,0.39],</v>
       </c>
     </row>
@@ -1417,15 +1533,15 @@
         <v>310</v>
       </c>
       <c r="D48" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>0.23</v>
       </c>
       <c r="E48" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>0.31</v>
       </c>
       <c r="F48" s="1" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>[0.23,0.31],</v>
       </c>
     </row>
@@ -1437,15 +1553,15 @@
         <v>300</v>
       </c>
       <c r="D49" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>0.25</v>
       </c>
       <c r="E49" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>0.3</v>
       </c>
       <c r="F49" s="1" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>[0.25,0.3],</v>
       </c>
     </row>
@@ -1457,15 +1573,15 @@
         <v>275</v>
       </c>
       <c r="D50" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>0.25</v>
       </c>
       <c r="E50" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>0.27500000000000002</v>
       </c>
       <c r="F50" s="1" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>[0.25,0.275],</v>
       </c>
     </row>
@@ -1477,15 +1593,15 @@
         <v>275</v>
       </c>
       <c r="D51" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>8.5000000000000006E-2</v>
       </c>
       <c r="E51" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>0.27500000000000002</v>
       </c>
       <c r="F51" s="1" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>[0.085,0.275],</v>
       </c>
     </row>
@@ -1497,15 +1613,15 @@
         <v>365</v>
       </c>
       <c r="D52" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>8.5000000000000006E-2</v>
       </c>
       <c r="E52" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>0.36499999999999999</v>
       </c>
       <c r="F52" s="1" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>[0.085,0.365],</v>
       </c>
     </row>
@@ -1517,15 +1633,15 @@
         <v>365</v>
       </c>
       <c r="D53" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>0.28000000000000003</v>
       </c>
       <c r="E53" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>0.36499999999999999</v>
       </c>
       <c r="F53" s="1" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>[0.28,0.365],</v>
       </c>
     </row>
@@ -1537,15 +1653,15 @@
         <v>415</v>
       </c>
       <c r="D54" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>0.35499999999999998</v>
       </c>
       <c r="E54" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>0.41499999999999998</v>
       </c>
       <c r="F54" s="1" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>[0.355,0.415],</v>
       </c>
     </row>
@@ -1557,15 +1673,15 @@
         <v>465</v>
       </c>
       <c r="D55" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>0.35499999999999998</v>
       </c>
       <c r="E55" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>0.46500000000000002</v>
       </c>
       <c r="F55" s="1" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>[0.355,0.465],</v>
       </c>
     </row>
@@ -1577,15 +1693,15 @@
         <v>465</v>
       </c>
       <c r="D56" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>0.56999999999999995</v>
       </c>
       <c r="E56" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>0.46500000000000002</v>
       </c>
       <c r="F56" s="1" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>[0.57,0.465],</v>
       </c>
     </row>
@@ -1597,21 +1713,21 @@
         <v>440</v>
       </c>
       <c r="D57" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>0.56999999999999995</v>
       </c>
       <c r="E57" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>0.44</v>
       </c>
       <c r="F57" s="1" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>[0.57,0.44],</v>
       </c>
     </row>
     <row r="58" spans="1:6">
       <c r="A58" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B58" s="1">
         <v>65</v>
@@ -1620,15 +1736,15 @@
         <v>455</v>
       </c>
       <c r="D58" s="1">
-        <f t="shared" ref="D58:D65" si="23">B58/1000</f>
+        <f t="shared" ref="D58:D65" si="25">B58/1000</f>
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="E58" s="1">
-        <f t="shared" ref="E58:E65" si="24">C58/1000</f>
+        <f t="shared" ref="E58:E65" si="26">C58/1000</f>
         <v>0.45500000000000002</v>
       </c>
       <c r="F58" s="1" t="str">
-        <f t="shared" ref="F58:F65" si="25">"["&amp;D58&amp;","&amp;E58&amp;"],"</f>
+        <f t="shared" ref="F58:F65" si="27">"["&amp;D58&amp;","&amp;E58&amp;"],"</f>
         <v>[0.065,0.455],</v>
       </c>
     </row>
@@ -1640,15 +1756,15 @@
         <v>455</v>
       </c>
       <c r="D59" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>0.245</v>
       </c>
       <c r="E59" s="1">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>0.45500000000000002</v>
       </c>
       <c r="F59" s="1" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>[0.245,0.455],</v>
       </c>
     </row>
@@ -1660,15 +1776,15 @@
         <v>415</v>
       </c>
       <c r="D60" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>0.28000000000000003</v>
       </c>
       <c r="E60" s="1">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>0.41499999999999998</v>
       </c>
       <c r="F60" s="1" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>[0.28,0.415],</v>
       </c>
     </row>
@@ -1680,15 +1796,15 @@
         <v>415</v>
       </c>
       <c r="D61" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>0.35499999999999998</v>
       </c>
       <c r="E61" s="1">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>0.41499999999999998</v>
       </c>
       <c r="F61" s="1" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>[0.355,0.415],</v>
       </c>
     </row>
@@ -1700,15 +1816,15 @@
         <v>335</v>
       </c>
       <c r="D62" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>0.35499999999999998</v>
       </c>
       <c r="E62" s="1">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>0.33500000000000002</v>
       </c>
       <c r="F62" s="1" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>[0.355,0.335],</v>
       </c>
     </row>
@@ -1720,15 +1836,15 @@
         <v>335</v>
       </c>
       <c r="D63" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>0.68500000000000005</v>
       </c>
       <c r="E63" s="1">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>0.33500000000000002</v>
       </c>
       <c r="F63" s="1" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>[0.685,0.335],</v>
       </c>
     </row>
@@ -1740,15 +1856,15 @@
         <v>475</v>
       </c>
       <c r="D64" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>0.68500000000000005</v>
       </c>
       <c r="E64" s="1">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>0.47499999999999998</v>
       </c>
       <c r="F64" s="1" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>[0.685,0.475],</v>
       </c>
     </row>
@@ -1760,21 +1876,21 @@
         <v>475</v>
       </c>
       <c r="D65" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>0.51500000000000001</v>
       </c>
       <c r="E65" s="1">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>0.47499999999999998</v>
       </c>
       <c r="F65" s="1" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>[0.515,0.475],</v>
       </c>
     </row>
     <row r="66" spans="1:6">
       <c r="A66" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B66" s="1">
         <v>135</v>
@@ -1783,15 +1899,15 @@
         <v>530</v>
       </c>
       <c r="D66" s="1">
-        <f t="shared" ref="D66:D71" si="26">B66/1000</f>
+        <f t="shared" ref="D66:D71" si="28">B66/1000</f>
         <v>0.13500000000000001</v>
       </c>
       <c r="E66" s="1">
-        <f t="shared" ref="E66:E71" si="27">C66/1000</f>
+        <f t="shared" ref="E66:E71" si="29">C66/1000</f>
         <v>0.53</v>
       </c>
       <c r="F66" s="1" t="str">
-        <f t="shared" ref="F66:F71" si="28">"["&amp;D66&amp;","&amp;E66&amp;"],"</f>
+        <f t="shared" ref="F66:F71" si="30">"["&amp;D66&amp;","&amp;E66&amp;"],"</f>
         <v>[0.135,0.53],</v>
       </c>
     </row>
@@ -1803,15 +1919,15 @@
         <v>530</v>
       </c>
       <c r="D67" s="1">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>0.22500000000000001</v>
       </c>
       <c r="E67" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>0.53</v>
       </c>
       <c r="F67" s="1" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>[0.225,0.53],</v>
       </c>
     </row>
@@ -1823,15 +1939,15 @@
         <v>415</v>
       </c>
       <c r="D68" s="1">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>0.35499999999999998</v>
       </c>
       <c r="E68" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>0.41499999999999998</v>
       </c>
       <c r="F68" s="1" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>[0.355,0.415],</v>
       </c>
     </row>
@@ -1843,15 +1959,15 @@
         <v>415</v>
       </c>
       <c r="D69" s="1">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>0.36499999999999999</v>
       </c>
       <c r="E69" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>0.41499999999999998</v>
       </c>
       <c r="F69" s="1" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>[0.365,0.415],</v>
       </c>
     </row>
@@ -1863,15 +1979,15 @@
         <v>455</v>
       </c>
       <c r="D70" s="1">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>0.36499999999999999</v>
       </c>
       <c r="E70" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>0.45500000000000002</v>
       </c>
       <c r="F70" s="1" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>[0.365,0.455],</v>
       </c>
     </row>
@@ -1883,15 +1999,15 @@
         <v>455</v>
       </c>
       <c r="D71" s="1">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>0.51500000000000001</v>
       </c>
       <c r="E71" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>0.45500000000000002</v>
       </c>
       <c r="F71" s="1" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>[0.515,0.455],</v>
       </c>
     </row>
@@ -1903,163 +2019,345 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:R46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q13" sqref="Q13"/>
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.5703125" customWidth="1"/>
-    <col min="7" max="7" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="1" spans="1:18">
+      <c r="G1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K1" t="s">
+        <v>38</v>
+      </c>
+      <c r="L1" t="s">
+        <v>39</v>
+      </c>
+      <c r="M1" t="s">
+        <v>40</v>
+      </c>
+      <c r="N1" t="s">
+        <v>41</v>
+      </c>
+      <c r="O1" t="s">
+        <v>42</v>
+      </c>
+      <c r="P1" t="s">
+        <v>43</v>
+      </c>
+      <c r="R1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
+      <c r="A2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2">
+        <v>505</v>
+      </c>
+      <c r="D2">
+        <v>630</v>
+      </c>
+      <c r="E2">
+        <f>C2/1000</f>
+        <v>0.505</v>
+      </c>
+      <c r="F2">
+        <f>D2/1000</f>
+        <v>0.63</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2" t="str">
+        <f>IF(P2=0,B2,"")</f>
+        <v>Google Authorship</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2">
+        <f>IF(I2=I1,J1+1,1)</f>
+        <v>1</v>
+      </c>
+      <c r="K2">
+        <f>E2</f>
+        <v>0.505</v>
+      </c>
+      <c r="L2">
+        <f>F2</f>
+        <v>0.63</v>
+      </c>
+      <c r="M2">
+        <v>-1.4999999999999999E-2</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="R2" t="str">
+        <f>"("&amp;G2&amp;",'"&amp;H2&amp;"',"&amp;I2&amp;","&amp;J2&amp;","&amp;K2&amp;","&amp;L2&amp;","&amp;M2&amp;","&amp;N2&amp;","&amp;O2&amp;","&amp;P2&amp;"),"</f>
+        <v>(1,'Google Authorship',1,1,0.505,0.63,-0.015,0,0,0),</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
+      <c r="B3" t="s">
         <v>10</v>
       </c>
-      <c r="C1">
-        <v>505</v>
-      </c>
-      <c r="D1">
-        <v>630</v>
-      </c>
-      <c r="E1">
-        <f>C1/1000</f>
-        <v>0.505</v>
-      </c>
-      <c r="F1">
-        <f>D1/1000</f>
-        <v>0.63</v>
-      </c>
-      <c r="G1" t="str">
-        <f>"["&amp;E1&amp;","&amp;F1&amp;"],"</f>
-        <v>[0.505,0.63],</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="B2" t="s">
+      <c r="C3">
+        <v>513</v>
+      </c>
+      <c r="D3">
+        <v>614</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E19" si="0">C3/1000</f>
+        <v>0.51300000000000001</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ref="F3:F19" si="1">D3/1000</f>
+        <v>0.61399999999999999</v>
+      </c>
+      <c r="G3">
+        <v>2</v>
+      </c>
+      <c r="H3" t="str">
+        <f t="shared" ref="H3:H56" si="2">IF(P3=0,B3,"")</f>
+        <v>Imagery</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <f t="shared" ref="J3:J46" si="3">IF(I3=I2,J2+1,1)</f>
+        <v>2</v>
+      </c>
+      <c r="K3">
+        <f t="shared" ref="K3:K19" si="4">E3</f>
+        <v>0.51300000000000001</v>
+      </c>
+      <c r="L3">
+        <f t="shared" ref="L3:L19" si="5">F3</f>
+        <v>0.61399999999999999</v>
+      </c>
+      <c r="M3">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="R3" t="str">
+        <f t="shared" ref="R3:R46" si="6">"("&amp;G3&amp;",'"&amp;H3&amp;"',"&amp;I3&amp;","&amp;J3&amp;","&amp;K3&amp;","&amp;L3&amp;","&amp;M3&amp;","&amp;N3&amp;","&amp;O3&amp;","&amp;P3&amp;"),"</f>
+        <v>(2,'Imagery',1,2,0.513,0.614,0.015,0,0,0),</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
+      <c r="B4" t="s">
         <v>11</v>
       </c>
-      <c r="C2">
-        <v>510</v>
-      </c>
-      <c r="D2">
-        <v>620</v>
-      </c>
-      <c r="E2">
-        <f t="shared" ref="E2:E18" si="0">C2/1000</f>
-        <v>0.51</v>
-      </c>
-      <c r="F2">
-        <f t="shared" ref="F2:F18" si="1">D2/1000</f>
-        <v>0.62</v>
-      </c>
-      <c r="G2" t="str">
-        <f t="shared" ref="G2:G18" si="2">"["&amp;E2&amp;","&amp;F2&amp;"],"</f>
-        <v>[0.51,0.62],</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="B3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3">
-        <v>515</v>
-      </c>
-      <c r="D3">
-        <v>605</v>
-      </c>
-      <c r="E3">
-        <f t="shared" si="0"/>
-        <v>0.51500000000000001</v>
-      </c>
-      <c r="F3">
-        <f t="shared" si="1"/>
-        <v>0.60499999999999998</v>
-      </c>
-      <c r="G3" t="str">
-        <f t="shared" si="2"/>
-        <v>[0.515,0.605],</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="B4" t="s">
-        <v>13</v>
-      </c>
       <c r="C4">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="D4">
-        <v>595</v>
+        <v>598</v>
       </c>
       <c r="E4">
         <f t="shared" si="0"/>
-        <v>0.52</v>
+        <v>0.52100000000000002</v>
       </c>
       <c r="F4">
         <f t="shared" si="1"/>
-        <v>0.59499999999999997</v>
-      </c>
-      <c r="G4" t="str">
-        <f t="shared" si="2"/>
-        <v>[0.52,0.595],</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>0.59799999999999998</v>
+      </c>
+      <c r="G4">
+        <v>3</v>
+      </c>
+      <c r="H4" t="str">
+        <f t="shared" si="2"/>
+        <v>Shareable Content</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="K4">
+        <f t="shared" si="4"/>
+        <v>0.52100000000000002</v>
+      </c>
+      <c r="L4">
+        <f t="shared" si="5"/>
+        <v>0.59799999999999998</v>
+      </c>
+      <c r="M4">
+        <v>-1.4999999999999999E-2</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="R4" t="str">
+        <f t="shared" si="6"/>
+        <v>(3,'Shareable Content',1,3,0.521,0.598,-0.015,0,0,0),</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="B5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C5">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="D5">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="E5">
         <f t="shared" si="0"/>
-        <v>0.53</v>
+        <v>0.52900000000000003</v>
       </c>
       <c r="F5">
         <f t="shared" si="1"/>
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="G5" t="str">
-        <f t="shared" si="2"/>
-        <v>[0.53,0.58],</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+        <v>0.58199999999999996</v>
+      </c>
+      <c r="G5">
+        <v>4</v>
+      </c>
+      <c r="H5" t="str">
+        <f t="shared" si="2"/>
+        <v>Thought Leadership</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="4"/>
+        <v>0.52900000000000003</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="5"/>
+        <v>0.58199999999999996</v>
+      </c>
+      <c r="M5">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="R5" t="str">
+        <f t="shared" si="6"/>
+        <v>(4,'Thought Leadership',1,4,0.529,0.582,0.015,0,0,0),</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="B6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C6">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="D6">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="E6">
         <f t="shared" si="0"/>
-        <v>0.53500000000000003</v>
+        <v>0.53700000000000003</v>
       </c>
       <c r="F6">
         <f t="shared" si="1"/>
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="G6" t="str">
-        <f t="shared" si="2"/>
-        <v>[0.535,0.57],</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>0.56599999999999995</v>
+      </c>
+      <c r="G6">
+        <v>5</v>
+      </c>
+      <c r="H6" t="str">
+        <f t="shared" si="2"/>
+        <v>Blogging</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="4"/>
+        <v>0.53700000000000003</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="5"/>
+        <v>0.56599999999999995</v>
+      </c>
+      <c r="M6">
+        <v>-1.4999999999999999E-2</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="R6" t="str">
+        <f t="shared" si="6"/>
+        <v>(5,'Blogging',1,5,0.537,0.566,-0.015,0,0,0),</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="B7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C7">
         <v>545</v>
@@ -2075,262 +2373,2278 @@
         <f t="shared" si="1"/>
         <v>0.55000000000000004</v>
       </c>
-      <c r="G7" t="str">
-        <f t="shared" si="2"/>
-        <v>[0.545,0.55],</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="G7">
+        <v>6</v>
+      </c>
+      <c r="H7" t="str">
+        <f t="shared" si="2"/>
+        <v>Video Marketing</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="4"/>
+        <v>0.54500000000000004</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="5"/>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="M7">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="R7" t="str">
+        <f t="shared" si="6"/>
+        <v>(6,'Video Marketing',1,6,0.545,0.55,0.015,0,0,0),</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="B8" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C8">
-        <v>550</v>
+        <v>553</v>
       </c>
       <c r="D8">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="E8">
         <f t="shared" si="0"/>
-        <v>0.55000000000000004</v>
+        <v>0.55300000000000005</v>
       </c>
       <c r="F8">
         <f t="shared" si="1"/>
-        <v>0.53500000000000003</v>
-      </c>
-      <c r="G8" t="str">
-        <f t="shared" si="2"/>
-        <v>[0.55,0.535],</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>0.53400000000000003</v>
+      </c>
+      <c r="G8">
+        <v>7</v>
+      </c>
+      <c r="H8" t="str">
+        <f t="shared" si="2"/>
+        <v>Infographics</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="4"/>
+        <v>0.55300000000000005</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="5"/>
+        <v>0.53400000000000003</v>
+      </c>
+      <c r="M8">
+        <v>-1.4999999999999999E-2</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="R8" t="str">
+        <f t="shared" si="6"/>
+        <v>(7,'Infographics',1,7,0.553,0.534,-0.015,0,0,0),</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="B9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C9">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="D9">
-        <v>515</v>
+        <v>518</v>
       </c>
       <c r="E9">
         <f t="shared" si="0"/>
-        <v>0.56000000000000005</v>
+        <v>0.56100000000000005</v>
       </c>
       <c r="F9">
         <f t="shared" si="1"/>
-        <v>0.51500000000000001</v>
-      </c>
-      <c r="G9" t="str">
-        <f t="shared" si="2"/>
-        <v>[0.56,0.515],</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>0.51800000000000002</v>
+      </c>
+      <c r="G9">
+        <v>8</v>
+      </c>
+      <c r="H9" t="str">
+        <f t="shared" si="2"/>
+        <v>Fresh Content</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="4"/>
+        <v>0.56100000000000005</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="5"/>
+        <v>0.51800000000000002</v>
+      </c>
+      <c r="M9">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="R9" t="str">
+        <f t="shared" si="6"/>
+        <v>(8,'Fresh Content',1,8,0.561,0.518,0.015,0,0,0),</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="B10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C10">
-        <v>580</v>
+        <v>569</v>
       </c>
       <c r="D10">
-        <v>535</v>
+        <v>502</v>
       </c>
       <c r="E10">
         <f t="shared" si="0"/>
-        <v>0.57999999999999996</v>
+        <v>0.56899999999999995</v>
       </c>
       <c r="F10">
         <f t="shared" si="1"/>
-        <v>0.53500000000000003</v>
-      </c>
-      <c r="G10" t="str">
-        <f t="shared" si="2"/>
-        <v>[0.58,0.535],</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>0.502</v>
+      </c>
+      <c r="G10">
+        <v>9</v>
+      </c>
+      <c r="H10" t="str">
+        <f t="shared" si="2"/>
+        <v>Unique Content</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="4"/>
+        <v>0.56899999999999995</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="5"/>
+        <v>0.502</v>
+      </c>
+      <c r="M10">
+        <v>-1.4999999999999999E-2</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="R10" t="str">
+        <f t="shared" si="6"/>
+        <v>(9,'Unique Content',1,9,0.569,0.502,-0.015,0,0,0),</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="B11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C11">
+        <v>580</v>
+      </c>
+      <c r="D11">
         <v>440</v>
-      </c>
-      <c r="D11">
-        <v>335</v>
       </c>
       <c r="E11">
         <f t="shared" si="0"/>
-        <v>0.44</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="F11">
         <f t="shared" si="1"/>
-        <v>0.33500000000000002</v>
-      </c>
-      <c r="G11" t="str">
-        <f t="shared" si="2"/>
-        <v>[0.44,0.335],</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>0.44</v>
+      </c>
+      <c r="G11">
+        <v>10</v>
+      </c>
+      <c r="H11" t="str">
+        <f t="shared" si="2"/>
+        <v>Keyword Research</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="4"/>
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="5"/>
+        <v>0.44</v>
+      </c>
+      <c r="M11">
+        <v>0.01</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <f t="shared" ref="O11:O12" si="7">G11</f>
+        <v>10</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="R11" t="str">
+        <f t="shared" si="6"/>
+        <v>(10,'Keyword Research',1,10,0.58,0.44,0.01,0,10,0),</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="B12" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C12">
-        <v>420</v>
+        <v>440</v>
       </c>
       <c r="D12">
-        <v>305</v>
+        <v>335</v>
       </c>
       <c r="E12">
         <f t="shared" si="0"/>
-        <v>0.42</v>
+        <v>0.44</v>
       </c>
       <c r="F12">
         <f t="shared" si="1"/>
-        <v>0.30499999999999999</v>
-      </c>
-      <c r="G12" t="str">
-        <f t="shared" si="2"/>
-        <v>[0.42,0.305],</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>0.33500000000000002</v>
+      </c>
+      <c r="G12">
+        <v>11</v>
+      </c>
+      <c r="H12" t="str">
+        <f t="shared" si="2"/>
+        <v>Organic Traffic</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="4"/>
+        <v>0.44</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="5"/>
+        <v>0.33500000000000002</v>
+      </c>
+      <c r="M12">
+        <v>-0.01</v>
+      </c>
+      <c r="N12">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="O12">
+        <f t="shared" si="7"/>
+        <v>11</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="R12" t="str">
+        <f t="shared" si="6"/>
+        <v>(11,'Organic Traffic',1,11,0.44,0.335,-0.01,0.005,11,0),</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="B13" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C13">
-        <v>405</v>
+        <v>425</v>
       </c>
       <c r="D13">
-        <v>290</v>
+        <v>310</v>
       </c>
       <c r="E13">
         <f t="shared" si="0"/>
-        <v>0.40500000000000003</v>
+        <v>0.42499999999999999</v>
       </c>
       <c r="F13">
         <f t="shared" si="1"/>
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="G13" t="str">
-        <f t="shared" si="2"/>
-        <v>[0.405,0.29],</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>0.31</v>
+      </c>
+      <c r="G13">
+        <v>12</v>
+      </c>
+      <c r="H13" t="str">
+        <f t="shared" si="2"/>
+        <v>Outreach</v>
+      </c>
+      <c r="I13">
+        <v>1</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="4"/>
+        <v>0.42499999999999999</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="5"/>
+        <v>0.31</v>
+      </c>
+      <c r="M13">
+        <v>-1.4999999999999999E-2</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="R13" t="str">
+        <f t="shared" si="6"/>
+        <v>(12,'Outreach',1,12,0.425,0.31,-0.015,0,0,0),</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="B14" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C14">
-        <v>385</v>
+        <v>405</v>
       </c>
       <c r="D14">
-        <v>270</v>
+        <v>290</v>
       </c>
       <c r="E14">
         <f t="shared" si="0"/>
-        <v>0.38500000000000001</v>
+        <v>0.40500000000000003</v>
       </c>
       <c r="F14">
         <f t="shared" si="1"/>
-        <v>0.27</v>
-      </c>
-      <c r="G14" t="str">
-        <f t="shared" si="2"/>
-        <v>[0.385,0.27],</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="G14">
+        <v>13</v>
+      </c>
+      <c r="H14" t="str">
+        <f t="shared" si="2"/>
+        <v>Online PR</v>
+      </c>
+      <c r="I14">
+        <v>1</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="4"/>
+        <v>0.40500000000000003</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="5"/>
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="M14">
+        <v>-1.4999999999999999E-2</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="R14" t="str">
+        <f t="shared" si="6"/>
+        <v>(13,'Online PR',1,13,0.405,0.29,-0.015,0,0,0),</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="B15" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C15">
-        <v>370</v>
+        <v>385</v>
       </c>
       <c r="D15">
-        <v>255</v>
+        <v>270</v>
       </c>
       <c r="E15">
         <f t="shared" si="0"/>
-        <v>0.37</v>
+        <v>0.38500000000000001</v>
       </c>
       <c r="F15">
         <f t="shared" si="1"/>
-        <v>0.255</v>
-      </c>
-      <c r="G15" t="str">
-        <f t="shared" si="2"/>
-        <v>[0.37,0.255],</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
+        <v>0.27</v>
+      </c>
+      <c r="G15">
+        <v>14</v>
+      </c>
+      <c r="H15" t="str">
+        <f t="shared" si="2"/>
+        <v>Domain Trust</v>
+      </c>
+      <c r="I15">
+        <v>1</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="3"/>
+        <v>14</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="4"/>
+        <v>0.38500000000000001</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="5"/>
+        <v>0.27</v>
+      </c>
+      <c r="M15">
+        <v>-1.4999999999999999E-2</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="R15" t="str">
+        <f t="shared" si="6"/>
+        <v>(14,'Domain Trust',1,14,0.385,0.27,-0.015,0,0,0),</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="B16" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C16">
-        <v>330</v>
+        <v>365</v>
       </c>
       <c r="D16">
-        <v>235</v>
+        <v>250</v>
       </c>
       <c r="E16">
         <f t="shared" si="0"/>
-        <v>0.33</v>
+        <v>0.36499999999999999</v>
       </c>
       <c r="F16">
         <f t="shared" si="1"/>
-        <v>0.23499999999999999</v>
-      </c>
-      <c r="G16" t="str">
-        <f t="shared" si="2"/>
-        <v>[0.33,0.235],</v>
-      </c>
-    </row>
-    <row r="17" spans="2:7">
+        <v>0.25</v>
+      </c>
+      <c r="G16">
+        <v>15</v>
+      </c>
+      <c r="H16" t="str">
+        <f t="shared" si="2"/>
+        <v>Recency</v>
+      </c>
+      <c r="I16">
+        <v>1</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="3"/>
+        <v>15</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="4"/>
+        <v>0.36499999999999999</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="5"/>
+        <v>0.25</v>
+      </c>
+      <c r="M16">
+        <v>-1.4999999999999999E-2</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="R16" t="str">
+        <f t="shared" si="6"/>
+        <v>(15,'Recency',1,15,0.365,0.25,-0.015,0,0,0),</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="B17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C17">
-        <v>265</v>
+        <v>310</v>
       </c>
       <c r="D17">
         <v>235</v>
       </c>
       <c r="E17">
         <f t="shared" si="0"/>
-        <v>0.26500000000000001</v>
+        <v>0.31</v>
       </c>
       <c r="F17">
         <f t="shared" si="1"/>
         <v>0.23499999999999999</v>
       </c>
-      <c r="G17" t="str">
-        <f t="shared" si="2"/>
-        <v>[0.265,0.235],</v>
-      </c>
-    </row>
-    <row r="18" spans="2:7">
+      <c r="G17">
+        <v>16</v>
+      </c>
+      <c r="H17" t="str">
+        <f t="shared" si="2"/>
+        <v>Analysis</v>
+      </c>
+      <c r="I17">
+        <v>1</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="3"/>
+        <v>16</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="4"/>
+        <v>0.31</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="5"/>
+        <v>0.23499999999999999</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>-0.01</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="R17" t="str">
+        <f t="shared" si="6"/>
+        <v>(16,'Analysis',1,16,0.31,0.235,0,-0.01,0,0),</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="B18" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C18">
-        <v>205</v>
+        <v>260</v>
       </c>
       <c r="D18">
         <v>235</v>
       </c>
       <c r="E18">
         <f t="shared" si="0"/>
-        <v>0.20499999999999999</v>
+        <v>0.26</v>
       </c>
       <c r="F18">
         <f t="shared" si="1"/>
         <v>0.23499999999999999</v>
       </c>
-      <c r="G18" t="str">
-        <f t="shared" si="2"/>
-        <v>[0.205,0.235],</v>
+      <c r="G18">
+        <v>17</v>
+      </c>
+      <c r="H18" t="str">
+        <f t="shared" si="2"/>
+        <v>Topicality</v>
+      </c>
+      <c r="I18">
+        <v>1</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="3"/>
+        <v>17</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="4"/>
+        <v>0.26</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="5"/>
+        <v>0.23499999999999999</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>-0.01</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="R18" t="str">
+        <f t="shared" si="6"/>
+        <v>(17,'Topicality',1,17,0.26,0.235,0,-0.01,0,0),</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19">
+        <v>210</v>
+      </c>
+      <c r="D19">
+        <v>235</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="0"/>
+        <v>0.21</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="1"/>
+        <v>0.23499999999999999</v>
+      </c>
+      <c r="G19">
+        <v>18</v>
+      </c>
+      <c r="H19" t="str">
+        <f t="shared" si="2"/>
+        <v>Backlink Analysis</v>
+      </c>
+      <c r="I19">
+        <v>1</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="3"/>
+        <v>18</v>
+      </c>
+      <c r="K19">
+        <f t="shared" si="4"/>
+        <v>0.21</v>
+      </c>
+      <c r="L19">
+        <f t="shared" si="5"/>
+        <v>0.23499999999999999</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>-0.01</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="R19" t="str">
+        <f t="shared" si="6"/>
+        <v>(18,'Backlink Analysis',1,18,0.21,0.235,0,-0.01,0,0),</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
+      <c r="A20" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20">
+        <v>655</v>
+      </c>
+      <c r="D20">
+        <v>560</v>
+      </c>
+      <c r="E20">
+        <f t="shared" ref="E20:E28" si="8">C20/1000</f>
+        <v>0.65500000000000003</v>
+      </c>
+      <c r="F20">
+        <f t="shared" ref="F20:F29" si="9">D20/1000</f>
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="G20">
+        <v>19</v>
+      </c>
+      <c r="H20" t="str">
+        <f t="shared" si="2"/>
+        <v>Hosting</v>
+      </c>
+      <c r="I20">
+        <v>2</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="K20">
+        <f t="shared" ref="K20:K23" si="10">E20</f>
+        <v>0.65500000000000003</v>
+      </c>
+      <c r="L20">
+        <f t="shared" ref="L20:L23" si="11">F20</f>
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="M20">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="R20" t="str">
+        <f t="shared" si="6"/>
+        <v>(19,'Hosting',2,1,0.655,0.56,0.015,0,0,0),</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
+      <c r="B21" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21">
+        <v>655</v>
+      </c>
+      <c r="D21">
+        <v>540</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="8"/>
+        <v>0.65500000000000003</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="9"/>
+        <v>0.54</v>
+      </c>
+      <c r="G21">
+        <v>20</v>
+      </c>
+      <c r="H21" t="str">
+        <f t="shared" si="2"/>
+        <v>NAP</v>
+      </c>
+      <c r="I21">
+        <v>2</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="K21">
+        <f t="shared" si="10"/>
+        <v>0.65500000000000003</v>
+      </c>
+      <c r="L21">
+        <f t="shared" si="11"/>
+        <v>0.54</v>
+      </c>
+      <c r="M21">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="R21" t="str">
+        <f t="shared" si="6"/>
+        <v>(20,'NAP',2,2,0.655,0.54,0.015,0,0,0),</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
+      <c r="B22" t="s">
+        <v>31</v>
+      </c>
+      <c r="C22">
+        <v>655</v>
+      </c>
+      <c r="D22">
+        <v>520</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="8"/>
+        <v>0.65500000000000003</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="9"/>
+        <v>0.52</v>
+      </c>
+      <c r="G22">
+        <v>21</v>
+      </c>
+      <c r="H22" t="str">
+        <f t="shared" si="2"/>
+        <v>Website Content</v>
+      </c>
+      <c r="I22">
+        <v>2</v>
+      </c>
+      <c r="J22">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="K22">
+        <f t="shared" si="10"/>
+        <v>0.65500000000000003</v>
+      </c>
+      <c r="L22">
+        <f t="shared" si="11"/>
+        <v>0.52</v>
+      </c>
+      <c r="M22">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="R22" t="str">
+        <f t="shared" si="6"/>
+        <v>(21,'Website Content',2,3,0.655,0.52,0.015,0,0,0),</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
+      <c r="B23" t="s">
+        <v>32</v>
+      </c>
+      <c r="C23">
+        <v>655</v>
+      </c>
+      <c r="D23">
+        <v>500</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="8"/>
+        <v>0.65500000000000003</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="9"/>
+        <v>0.5</v>
+      </c>
+      <c r="G23">
+        <v>22</v>
+      </c>
+      <c r="H23" t="str">
+        <f t="shared" si="2"/>
+        <v>Citations</v>
+      </c>
+      <c r="I23">
+        <v>2</v>
+      </c>
+      <c r="J23">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="K23">
+        <f t="shared" si="10"/>
+        <v>0.65500000000000003</v>
+      </c>
+      <c r="L23">
+        <f t="shared" si="11"/>
+        <v>0.5</v>
+      </c>
+      <c r="M23">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="R23" t="str">
+        <f t="shared" si="6"/>
+        <v>(22,'Citations',2,4,0.655,0.5,0.015,0,0,0),</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
+      <c r="B24" t="s">
+        <v>33</v>
+      </c>
+      <c r="C24">
+        <v>635</v>
+      </c>
+      <c r="D24">
+        <v>485</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="8"/>
+        <v>0.63500000000000001</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="9"/>
+        <v>0.48499999999999999</v>
+      </c>
+      <c r="G24">
+        <v>23</v>
+      </c>
+      <c r="H24" t="str">
+        <f t="shared" si="2"/>
+        <v>Google +</v>
+      </c>
+      <c r="I24">
+        <v>2</v>
+      </c>
+      <c r="J24">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="K24">
+        <f t="shared" ref="K24:K46" si="12">E24</f>
+        <v>0.63500000000000001</v>
+      </c>
+      <c r="L24">
+        <f t="shared" ref="L24:L46" si="13">F24</f>
+        <v>0.48499999999999999</v>
+      </c>
+      <c r="M24">
+        <v>-0.01</v>
+      </c>
+      <c r="N24">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="O24">
+        <f>G24</f>
+        <v>23</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="R24" t="str">
+        <f t="shared" si="6"/>
+        <v>(23,'Google +',2,5,0.635,0.485,-0.01,0.005,23,0),</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
+      <c r="B25" t="s">
+        <v>44</v>
+      </c>
+      <c r="C25">
+        <v>345</v>
+      </c>
+      <c r="D25">
+        <v>415</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="8"/>
+        <v>0.34499999999999997</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="9"/>
+        <v>0.41499999999999998</v>
+      </c>
+      <c r="G25">
+        <v>24</v>
+      </c>
+      <c r="H25" t="str">
+        <f t="shared" si="2"/>
+        <v>SEO Strategy</v>
+      </c>
+      <c r="I25">
+        <v>2</v>
+      </c>
+      <c r="J25">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="K25">
+        <f t="shared" si="12"/>
+        <v>0.34499999999999997</v>
+      </c>
+      <c r="L25">
+        <f t="shared" si="13"/>
+        <v>0.41499999999999998</v>
+      </c>
+      <c r="M25">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="N25">
+        <v>-0.01</v>
+      </c>
+      <c r="O25">
+        <f t="shared" ref="O25:O26" si="14">G25</f>
+        <v>24</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="R25" t="str">
+        <f t="shared" si="6"/>
+        <v>(24,'SEO Strategy',2,6,0.345,0.415,0.015,-0.01,24,0),</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18">
+      <c r="B26" t="s">
+        <v>46</v>
+      </c>
+      <c r="C26">
+        <v>345</v>
+      </c>
+      <c r="D26">
+        <v>350</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="8"/>
+        <v>0.34499999999999997</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="9"/>
+        <v>0.35</v>
+      </c>
+      <c r="G26">
+        <v>25</v>
+      </c>
+      <c r="H26" t="str">
+        <f t="shared" si="2"/>
+        <v>SEO Reporting</v>
+      </c>
+      <c r="I26">
+        <v>2</v>
+      </c>
+      <c r="J26">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="K26">
+        <f t="shared" si="12"/>
+        <v>0.34499999999999997</v>
+      </c>
+      <c r="L26">
+        <f t="shared" si="13"/>
+        <v>0.35</v>
+      </c>
+      <c r="M26">
+        <v>-0.01</v>
+      </c>
+      <c r="N26">
+        <v>0</v>
+      </c>
+      <c r="O26">
+        <f t="shared" si="14"/>
+        <v>25</v>
+      </c>
+      <c r="P26">
+        <v>0</v>
+      </c>
+      <c r="R26" t="str">
+        <f t="shared" si="6"/>
+        <v>(25,'SEO Reporting',2,7,0.345,0.35,-0.01,0,25,0),</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18">
+      <c r="B27" t="s">
+        <v>19</v>
+      </c>
+      <c r="C27">
+        <v>440</v>
+      </c>
+      <c r="D27">
+        <v>325</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="8"/>
+        <v>0.44</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="9"/>
+        <v>0.32500000000000001</v>
+      </c>
+      <c r="G27">
+        <v>26</v>
+      </c>
+      <c r="H27" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="I27">
+        <v>2</v>
+      </c>
+      <c r="J27">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="K27">
+        <f t="shared" si="12"/>
+        <v>0.44</v>
+      </c>
+      <c r="L27">
+        <f t="shared" si="13"/>
+        <v>0.32500000000000001</v>
+      </c>
+      <c r="M27">
+        <v>0</v>
+      </c>
+      <c r="N27">
+        <v>0</v>
+      </c>
+      <c r="O27">
+        <v>11</v>
+      </c>
+      <c r="P27">
+        <v>1</v>
+      </c>
+      <c r="R27" t="str">
+        <f t="shared" si="6"/>
+        <v>(26,'',2,8,0.44,0.325,0,0,11,1),</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18">
+      <c r="A28" t="s">
+        <v>47</v>
+      </c>
+      <c r="B28" t="s">
+        <v>48</v>
+      </c>
+      <c r="C28">
+        <v>550</v>
+      </c>
+      <c r="D28">
+        <v>135</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="8"/>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="9"/>
+        <v>0.13500000000000001</v>
+      </c>
+      <c r="G28">
+        <v>27</v>
+      </c>
+      <c r="H28" t="str">
+        <f t="shared" si="2"/>
+        <v>Strategy</v>
+      </c>
+      <c r="I28">
+        <v>3</v>
+      </c>
+      <c r="J28">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="K28">
+        <f t="shared" si="12"/>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="L28">
+        <f t="shared" si="13"/>
+        <v>0.13500000000000001</v>
+      </c>
+      <c r="M28">
+        <v>-1.4999999999999999E-2</v>
+      </c>
+      <c r="N28">
+        <v>0</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+      <c r="P28">
+        <v>0</v>
+      </c>
+      <c r="R28" t="str">
+        <f t="shared" si="6"/>
+        <v>(27,'Strategy',3,1,0.55,0.135,-0.015,0,0,0),</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18">
+      <c r="B29" t="s">
+        <v>49</v>
+      </c>
+      <c r="C29">
+        <v>550</v>
+      </c>
+      <c r="D29">
+        <v>152</v>
+      </c>
+      <c r="E29">
+        <f t="shared" ref="E29:E35" si="15">C29/1000</f>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="F29">
+        <f t="shared" ref="F29:F35" si="16">D29/1000</f>
+        <v>0.152</v>
+      </c>
+      <c r="G29">
+        <v>28</v>
+      </c>
+      <c r="H29" t="str">
+        <f t="shared" si="2"/>
+        <v>Campaign Planning</v>
+      </c>
+      <c r="I29">
+        <v>3</v>
+      </c>
+      <c r="J29">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="K29">
+        <f t="shared" si="12"/>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="L29">
+        <f t="shared" si="13"/>
+        <v>0.152</v>
+      </c>
+      <c r="M29">
+        <v>-1.4999999999999999E-2</v>
+      </c>
+      <c r="N29">
+        <v>0</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="P29">
+        <v>0</v>
+      </c>
+      <c r="R29" t="str">
+        <f t="shared" si="6"/>
+        <v>(28,'Campaign Planning',3,2,0.55,0.152,-0.015,0,0,0),</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18">
+      <c r="B30" t="s">
+        <v>50</v>
+      </c>
+      <c r="C30">
+        <v>550</v>
+      </c>
+      <c r="D30">
+        <v>169</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="15"/>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="16"/>
+        <v>0.16900000000000001</v>
+      </c>
+      <c r="G30">
+        <v>29</v>
+      </c>
+      <c r="H30" t="str">
+        <f t="shared" si="2"/>
+        <v>Audience</v>
+      </c>
+      <c r="I30">
+        <v>3</v>
+      </c>
+      <c r="J30">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="K30">
+        <f t="shared" si="12"/>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="L30">
+        <f t="shared" si="13"/>
+        <v>0.16900000000000001</v>
+      </c>
+      <c r="M30">
+        <v>-1.4999999999999999E-2</v>
+      </c>
+      <c r="N30">
+        <v>0</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+      <c r="P30">
+        <v>0</v>
+      </c>
+      <c r="R30" t="str">
+        <f t="shared" si="6"/>
+        <v>(29,'Audience',3,3,0.55,0.169,-0.015,0,0,0),</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18">
+      <c r="B31" t="s">
+        <v>51</v>
+      </c>
+      <c r="C31">
+        <v>550</v>
+      </c>
+      <c r="D31">
+        <v>186</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="15"/>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="16"/>
+        <v>0.186</v>
+      </c>
+      <c r="G31">
+        <v>30</v>
+      </c>
+      <c r="H31" t="str">
+        <f t="shared" si="2"/>
+        <v>Online Sales</v>
+      </c>
+      <c r="I31">
+        <v>3</v>
+      </c>
+      <c r="J31">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="K31">
+        <f t="shared" si="12"/>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="L31">
+        <f t="shared" si="13"/>
+        <v>0.186</v>
+      </c>
+      <c r="M31">
+        <v>-1.4999999999999999E-2</v>
+      </c>
+      <c r="N31">
+        <v>0</v>
+      </c>
+      <c r="O31">
+        <v>0</v>
+      </c>
+      <c r="P31">
+        <v>0</v>
+      </c>
+      <c r="R31" t="str">
+        <f t="shared" si="6"/>
+        <v>(30,'Online Sales',3,4,0.55,0.186,-0.015,0,0,0),</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18">
+      <c r="B32" t="s">
+        <v>52</v>
+      </c>
+      <c r="C32">
+        <v>550</v>
+      </c>
+      <c r="D32">
+        <v>203</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="15"/>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="16"/>
+        <v>0.20300000000000001</v>
+      </c>
+      <c r="G32">
+        <v>31</v>
+      </c>
+      <c r="H32" t="str">
+        <f t="shared" si="2"/>
+        <v>Social Insights</v>
+      </c>
+      <c r="I32">
+        <v>3</v>
+      </c>
+      <c r="J32">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="K32">
+        <f t="shared" si="12"/>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="L32">
+        <f t="shared" si="13"/>
+        <v>0.20300000000000001</v>
+      </c>
+      <c r="M32">
+        <v>-1.4999999999999999E-2</v>
+      </c>
+      <c r="N32">
+        <v>0</v>
+      </c>
+      <c r="O32">
+        <v>0</v>
+      </c>
+      <c r="P32">
+        <v>0</v>
+      </c>
+      <c r="R32" t="str">
+        <f t="shared" si="6"/>
+        <v>(31,'Social Insights',3,5,0.55,0.203,-0.015,0,0,0),</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18">
+      <c r="B33" t="s">
+        <v>53</v>
+      </c>
+      <c r="C33">
+        <v>550</v>
+      </c>
+      <c r="D33">
+        <v>220</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="15"/>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="16"/>
+        <v>0.22</v>
+      </c>
+      <c r="G33">
+        <v>32</v>
+      </c>
+      <c r="H33" t="str">
+        <f t="shared" si="2"/>
+        <v>Conversation</v>
+      </c>
+      <c r="I33">
+        <v>3</v>
+      </c>
+      <c r="J33">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="K33">
+        <f t="shared" si="12"/>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="L33">
+        <f t="shared" si="13"/>
+        <v>0.22</v>
+      </c>
+      <c r="M33">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="N33">
+        <v>0</v>
+      </c>
+      <c r="O33">
+        <v>0</v>
+      </c>
+      <c r="P33">
+        <v>0</v>
+      </c>
+      <c r="R33" t="str">
+        <f t="shared" si="6"/>
+        <v>(32,'Conversation',3,6,0.55,0.22,0.015,0,0,0),</v>
+      </c>
+    </row>
+    <row r="34" spans="2:18">
+      <c r="B34" t="s">
+        <v>54</v>
+      </c>
+      <c r="C34">
+        <v>550</v>
+      </c>
+      <c r="D34">
+        <v>237</v>
+      </c>
+      <c r="E34">
+        <f t="shared" si="15"/>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="F34">
+        <f t="shared" si="16"/>
+        <v>0.23699999999999999</v>
+      </c>
+      <c r="G34">
+        <v>33</v>
+      </c>
+      <c r="H34" t="str">
+        <f t="shared" si="2"/>
+        <v>Amplification</v>
+      </c>
+      <c r="I34">
+        <v>3</v>
+      </c>
+      <c r="J34">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="K34">
+        <f t="shared" si="12"/>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="L34">
+        <f t="shared" si="13"/>
+        <v>0.23699999999999999</v>
+      </c>
+      <c r="M34">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="N34">
+        <v>0</v>
+      </c>
+      <c r="O34">
+        <v>0</v>
+      </c>
+      <c r="P34">
+        <v>0</v>
+      </c>
+      <c r="R34" t="str">
+        <f t="shared" si="6"/>
+        <v>(33,'Amplification',3,7,0.55,0.237,0.015,0,0,0),</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18">
+      <c r="B35" t="s">
+        <v>55</v>
+      </c>
+      <c r="C35">
+        <v>550</v>
+      </c>
+      <c r="D35">
+        <v>254</v>
+      </c>
+      <c r="E35">
+        <f t="shared" si="15"/>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="F35">
+        <f t="shared" si="16"/>
+        <v>0.254</v>
+      </c>
+      <c r="G35">
+        <v>34</v>
+      </c>
+      <c r="H35" t="str">
+        <f t="shared" si="2"/>
+        <v>Applause</v>
+      </c>
+      <c r="I35">
+        <v>3</v>
+      </c>
+      <c r="J35">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="K35">
+        <f t="shared" si="12"/>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="L35">
+        <f t="shared" si="13"/>
+        <v>0.254</v>
+      </c>
+      <c r="M35">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="N35">
+        <v>0</v>
+      </c>
+      <c r="O35">
+        <v>0</v>
+      </c>
+      <c r="P35">
+        <v>0</v>
+      </c>
+      <c r="R35" t="str">
+        <f t="shared" si="6"/>
+        <v>(34,'Applause',3,8,0.55,0.254,0.015,0,0,0),</v>
+      </c>
+    </row>
+    <row r="36" spans="2:18">
+      <c r="B36" t="s">
+        <v>56</v>
+      </c>
+      <c r="C36" s="1">
+        <v>635</v>
+      </c>
+      <c r="D36" s="1">
+        <v>420</v>
+      </c>
+      <c r="E36">
+        <f t="shared" ref="E36:E39" si="17">C36/1000</f>
+        <v>0.63500000000000001</v>
+      </c>
+      <c r="F36">
+        <f t="shared" ref="F36:F40" si="18">D36/1000</f>
+        <v>0.42</v>
+      </c>
+      <c r="G36">
+        <v>35</v>
+      </c>
+      <c r="H36" t="str">
+        <f t="shared" si="2"/>
+        <v>ROI</v>
+      </c>
+      <c r="I36">
+        <v>3</v>
+      </c>
+      <c r="J36">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="K36">
+        <f t="shared" si="12"/>
+        <v>0.63500000000000001</v>
+      </c>
+      <c r="L36">
+        <f t="shared" si="13"/>
+        <v>0.42</v>
+      </c>
+      <c r="M36">
+        <v>0.01</v>
+      </c>
+      <c r="N36">
+        <v>-5.0000000000000001E-3</v>
+      </c>
+      <c r="O36">
+        <f t="shared" ref="O36" si="19">G36</f>
+        <v>35</v>
+      </c>
+      <c r="P36">
+        <v>0</v>
+      </c>
+      <c r="R36" t="str">
+        <f t="shared" si="6"/>
+        <v>(35,'ROI',3,9,0.635,0.42,0.01,-0.005,35,0),</v>
+      </c>
+    </row>
+    <row r="37" spans="2:18">
+      <c r="B37" t="s">
+        <v>33</v>
+      </c>
+      <c r="C37">
+        <v>635</v>
+      </c>
+      <c r="D37">
+        <v>465</v>
+      </c>
+      <c r="E37">
+        <f t="shared" si="17"/>
+        <v>0.63500000000000001</v>
+      </c>
+      <c r="F37">
+        <f t="shared" si="18"/>
+        <v>0.46500000000000002</v>
+      </c>
+      <c r="G37">
+        <v>36</v>
+      </c>
+      <c r="H37" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="I37">
+        <v>3</v>
+      </c>
+      <c r="J37">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="K37">
+        <f t="shared" si="12"/>
+        <v>0.63500000000000001</v>
+      </c>
+      <c r="L37">
+        <f t="shared" si="13"/>
+        <v>0.46500000000000002</v>
+      </c>
+      <c r="M37">
+        <v>0</v>
+      </c>
+      <c r="N37">
+        <v>0</v>
+      </c>
+      <c r="O37">
+        <v>23</v>
+      </c>
+      <c r="P37">
+        <v>2</v>
+      </c>
+      <c r="R37" t="str">
+        <f t="shared" si="6"/>
+        <v>(36,'',3,10,0.635,0.465,0,0,23,2),</v>
+      </c>
+    </row>
+    <row r="38" spans="2:18">
+      <c r="B38" t="s">
+        <v>57</v>
+      </c>
+      <c r="C38">
+        <v>685</v>
+      </c>
+      <c r="D38">
+        <v>475</v>
+      </c>
+      <c r="E38">
+        <f t="shared" si="17"/>
+        <v>0.68500000000000005</v>
+      </c>
+      <c r="F38">
+        <f t="shared" si="18"/>
+        <v>0.47499999999999998</v>
+      </c>
+      <c r="G38">
+        <v>37</v>
+      </c>
+      <c r="H38" t="str">
+        <f t="shared" si="2"/>
+        <v>Social Analytics</v>
+      </c>
+      <c r="I38">
+        <v>3</v>
+      </c>
+      <c r="J38">
+        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
+      <c r="K38">
+        <f t="shared" si="12"/>
+        <v>0.68500000000000005</v>
+      </c>
+      <c r="L38">
+        <f t="shared" si="13"/>
+        <v>0.47499999999999998</v>
+      </c>
+      <c r="M38">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="N38">
+        <v>-5.0000000000000001E-3</v>
+      </c>
+      <c r="O38">
+        <v>37</v>
+      </c>
+      <c r="P38">
+        <v>0</v>
+      </c>
+      <c r="R38" t="str">
+        <f t="shared" si="6"/>
+        <v>(37,'Social Analytics',3,11,0.685,0.475,0.015,-0.005,37,0),</v>
+      </c>
+    </row>
+    <row r="39" spans="2:18">
+      <c r="B39" t="s">
+        <v>58</v>
+      </c>
+      <c r="C39">
+        <v>745</v>
+      </c>
+      <c r="D39">
+        <v>490</v>
+      </c>
+      <c r="E39">
+        <f t="shared" si="17"/>
+        <v>0.745</v>
+      </c>
+      <c r="F39">
+        <f t="shared" si="18"/>
+        <v>0.49</v>
+      </c>
+      <c r="G39">
+        <v>38</v>
+      </c>
+      <c r="H39" t="str">
+        <f t="shared" si="2"/>
+        <v>Slideshare</v>
+      </c>
+      <c r="I39">
+        <v>3</v>
+      </c>
+      <c r="J39">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+      <c r="K39">
+        <f t="shared" si="12"/>
+        <v>0.745</v>
+      </c>
+      <c r="L39">
+        <f t="shared" si="13"/>
+        <v>0.49</v>
+      </c>
+      <c r="M39">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="N39">
+        <v>0</v>
+      </c>
+      <c r="O39">
+        <v>0</v>
+      </c>
+      <c r="P39">
+        <v>0</v>
+      </c>
+      <c r="R39" t="str">
+        <f t="shared" si="6"/>
+        <v>(38,'Slideshare',3,12,0.745,0.49,0.015,0,0,0),</v>
+      </c>
+    </row>
+    <row r="40" spans="2:18">
+      <c r="B40" t="s">
+        <v>59</v>
+      </c>
+      <c r="C40">
+        <v>745</v>
+      </c>
+      <c r="D40">
+        <v>507</v>
+      </c>
+      <c r="E40">
+        <f t="shared" ref="E40:E46" si="20">C40/1000</f>
+        <v>0.745</v>
+      </c>
+      <c r="F40">
+        <f t="shared" ref="F40:F46" si="21">D40/1000</f>
+        <v>0.50700000000000001</v>
+      </c>
+      <c r="G40">
+        <v>39</v>
+      </c>
+      <c r="H40" t="str">
+        <f t="shared" si="2"/>
+        <v>Instagram</v>
+      </c>
+      <c r="I40">
+        <v>3</v>
+      </c>
+      <c r="J40">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+      <c r="K40">
+        <f t="shared" si="12"/>
+        <v>0.745</v>
+      </c>
+      <c r="L40">
+        <f t="shared" si="13"/>
+        <v>0.50700000000000001</v>
+      </c>
+      <c r="M40">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="N40">
+        <v>0</v>
+      </c>
+      <c r="O40">
+        <v>0</v>
+      </c>
+      <c r="P40">
+        <v>0</v>
+      </c>
+      <c r="R40" t="str">
+        <f t="shared" si="6"/>
+        <v>(39,'Instagram',3,13,0.745,0.507,0.015,0,0,0),</v>
+      </c>
+    </row>
+    <row r="41" spans="2:18">
+      <c r="B41" t="s">
+        <v>60</v>
+      </c>
+      <c r="C41">
+        <v>745</v>
+      </c>
+      <c r="D41">
+        <v>524</v>
+      </c>
+      <c r="E41">
+        <f t="shared" si="20"/>
+        <v>0.745</v>
+      </c>
+      <c r="F41">
+        <f t="shared" si="21"/>
+        <v>0.52400000000000002</v>
+      </c>
+      <c r="G41">
+        <v>40</v>
+      </c>
+      <c r="H41" t="str">
+        <f t="shared" si="2"/>
+        <v>Flickr</v>
+      </c>
+      <c r="I41">
+        <v>3</v>
+      </c>
+      <c r="J41">
+        <f t="shared" si="3"/>
+        <v>14</v>
+      </c>
+      <c r="K41">
+        <f t="shared" si="12"/>
+        <v>0.745</v>
+      </c>
+      <c r="L41">
+        <f t="shared" si="13"/>
+        <v>0.52400000000000002</v>
+      </c>
+      <c r="M41">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="N41">
+        <v>0</v>
+      </c>
+      <c r="O41">
+        <v>0</v>
+      </c>
+      <c r="P41">
+        <v>0</v>
+      </c>
+      <c r="R41" t="str">
+        <f t="shared" si="6"/>
+        <v>(40,'Flickr',3,14,0.745,0.524,0.015,0,0,0),</v>
+      </c>
+    </row>
+    <row r="42" spans="2:18">
+      <c r="B42" t="s">
+        <v>61</v>
+      </c>
+      <c r="C42">
+        <v>745</v>
+      </c>
+      <c r="D42">
+        <v>541</v>
+      </c>
+      <c r="E42">
+        <f t="shared" si="20"/>
+        <v>0.745</v>
+      </c>
+      <c r="F42">
+        <f t="shared" si="21"/>
+        <v>0.54100000000000004</v>
+      </c>
+      <c r="G42">
+        <v>41</v>
+      </c>
+      <c r="H42" t="str">
+        <f t="shared" si="2"/>
+        <v>Pinterest</v>
+      </c>
+      <c r="I42">
+        <v>3</v>
+      </c>
+      <c r="J42">
+        <f t="shared" si="3"/>
+        <v>15</v>
+      </c>
+      <c r="K42">
+        <f t="shared" si="12"/>
+        <v>0.745</v>
+      </c>
+      <c r="L42">
+        <f t="shared" si="13"/>
+        <v>0.54100000000000004</v>
+      </c>
+      <c r="M42">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="N42">
+        <v>0</v>
+      </c>
+      <c r="O42">
+        <v>0</v>
+      </c>
+      <c r="P42">
+        <v>0</v>
+      </c>
+      <c r="R42" t="str">
+        <f t="shared" si="6"/>
+        <v>(41,'Pinterest',3,15,0.745,0.541,0.015,0,0,0),</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18">
+      <c r="B43" t="s">
+        <v>62</v>
+      </c>
+      <c r="C43">
+        <v>745</v>
+      </c>
+      <c r="D43">
+        <v>558</v>
+      </c>
+      <c r="E43">
+        <f t="shared" si="20"/>
+        <v>0.745</v>
+      </c>
+      <c r="F43">
+        <f t="shared" si="21"/>
+        <v>0.55800000000000005</v>
+      </c>
+      <c r="G43">
+        <v>42</v>
+      </c>
+      <c r="H43" t="str">
+        <f t="shared" si="2"/>
+        <v>Facebook</v>
+      </c>
+      <c r="I43">
+        <v>3</v>
+      </c>
+      <c r="J43">
+        <f t="shared" si="3"/>
+        <v>16</v>
+      </c>
+      <c r="K43">
+        <f t="shared" si="12"/>
+        <v>0.745</v>
+      </c>
+      <c r="L43">
+        <f t="shared" si="13"/>
+        <v>0.55800000000000005</v>
+      </c>
+      <c r="M43">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="N43">
+        <v>0</v>
+      </c>
+      <c r="O43">
+        <v>0</v>
+      </c>
+      <c r="P43">
+        <v>0</v>
+      </c>
+      <c r="R43" t="str">
+        <f t="shared" si="6"/>
+        <v>(42,'Facebook',3,16,0.745,0.558,0.015,0,0,0),</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18">
+      <c r="B44" t="s">
+        <v>63</v>
+      </c>
+      <c r="C44">
+        <v>745</v>
+      </c>
+      <c r="D44">
+        <v>575</v>
+      </c>
+      <c r="E44">
+        <f t="shared" si="20"/>
+        <v>0.745</v>
+      </c>
+      <c r="F44">
+        <f t="shared" si="21"/>
+        <v>0.57499999999999996</v>
+      </c>
+      <c r="G44">
+        <v>43</v>
+      </c>
+      <c r="H44" t="str">
+        <f t="shared" si="2"/>
+        <v>YouTube</v>
+      </c>
+      <c r="I44">
+        <v>3</v>
+      </c>
+      <c r="J44">
+        <f t="shared" si="3"/>
+        <v>17</v>
+      </c>
+      <c r="K44">
+        <f t="shared" si="12"/>
+        <v>0.745</v>
+      </c>
+      <c r="L44">
+        <f t="shared" si="13"/>
+        <v>0.57499999999999996</v>
+      </c>
+      <c r="M44">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="N44">
+        <v>0</v>
+      </c>
+      <c r="O44">
+        <v>0</v>
+      </c>
+      <c r="P44">
+        <v>0</v>
+      </c>
+      <c r="R44" t="str">
+        <f t="shared" si="6"/>
+        <v>(43,'YouTube',3,17,0.745,0.575,0.015,0,0,0),</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18">
+      <c r="B45" t="s">
+        <v>64</v>
+      </c>
+      <c r="C45">
+        <v>745</v>
+      </c>
+      <c r="D45">
+        <v>592</v>
+      </c>
+      <c r="E45">
+        <f t="shared" si="20"/>
+        <v>0.745</v>
+      </c>
+      <c r="F45">
+        <f t="shared" si="21"/>
+        <v>0.59199999999999997</v>
+      </c>
+      <c r="G45">
+        <v>44</v>
+      </c>
+      <c r="H45" t="str">
+        <f t="shared" si="2"/>
+        <v>LinkedIn</v>
+      </c>
+      <c r="I45">
+        <v>3</v>
+      </c>
+      <c r="J45">
+        <f t="shared" si="3"/>
+        <v>18</v>
+      </c>
+      <c r="K45">
+        <f t="shared" si="12"/>
+        <v>0.745</v>
+      </c>
+      <c r="L45">
+        <f t="shared" si="13"/>
+        <v>0.59199999999999997</v>
+      </c>
+      <c r="M45">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="N45">
+        <v>0</v>
+      </c>
+      <c r="O45">
+        <v>0</v>
+      </c>
+      <c r="P45">
+        <v>0</v>
+      </c>
+      <c r="R45" t="str">
+        <f t="shared" si="6"/>
+        <v>(44,'LinkedIn',3,18,0.745,0.592,0.015,0,0,0),</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18">
+      <c r="B46" t="s">
+        <v>65</v>
+      </c>
+      <c r="C46">
+        <v>745</v>
+      </c>
+      <c r="D46">
+        <v>609</v>
+      </c>
+      <c r="E46">
+        <f t="shared" si="20"/>
+        <v>0.745</v>
+      </c>
+      <c r="F46">
+        <f t="shared" si="21"/>
+        <v>0.60899999999999999</v>
+      </c>
+      <c r="G46">
+        <v>45</v>
+      </c>
+      <c r="H46" t="str">
+        <f t="shared" si="2"/>
+        <v>Twitter</v>
+      </c>
+      <c r="I46">
+        <v>3</v>
+      </c>
+      <c r="J46">
+        <f t="shared" si="3"/>
+        <v>19</v>
+      </c>
+      <c r="K46">
+        <f t="shared" si="12"/>
+        <v>0.745</v>
+      </c>
+      <c r="L46">
+        <f t="shared" si="13"/>
+        <v>0.60899999999999999</v>
+      </c>
+      <c r="M46">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="N46">
+        <v>0</v>
+      </c>
+      <c r="O46">
+        <v>0</v>
+      </c>
+      <c r="P46">
+        <v>0</v>
+      </c>
+      <c r="R46" t="str">
+        <f t="shared" si="6"/>
+        <v>(45,'Twitter',3,19,0.745,0.609,0.015,0,0,0),</v>
       </c>
     </row>
   </sheetData>

--- a/model_position_data.xlsx
+++ b/model_position_data.xlsx
@@ -16,20 +16,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="66">
-  <si>
-    <t>content marketing</t>
-  </si>
-  <si>
-    <t>local seo</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="132">
   <si>
     <t>CRM</t>
   </si>
   <si>
-    <t>paid search</t>
-  </si>
-  <si>
     <t>Mobile</t>
   </si>
   <si>
@@ -42,9 +33,6 @@
     <t>Technical SEO</t>
   </si>
   <si>
-    <t>social paid</t>
-  </si>
-  <si>
     <t>Google Authorship</t>
   </si>
   <si>
@@ -214,6 +202,216 @@
   </si>
   <si>
     <t>Twitter</t>
+  </si>
+  <si>
+    <t>Personas</t>
+  </si>
+  <si>
+    <t>Personalisation</t>
+  </si>
+  <si>
+    <t>Campaign Tracking</t>
+  </si>
+  <si>
+    <t>KPIs</t>
+  </si>
+  <si>
+    <t>Lead Generation</t>
+  </si>
+  <si>
+    <t>Reporting</t>
+  </si>
+  <si>
+    <t>Segmentation</t>
+  </si>
+  <si>
+    <t>Visitor Tracking</t>
+  </si>
+  <si>
+    <t>Newsletters</t>
+  </si>
+  <si>
+    <t>Data Capture</t>
+  </si>
+  <si>
+    <t>Click-through Rate</t>
+  </si>
+  <si>
+    <t>List Management</t>
+  </si>
+  <si>
+    <t>Competitor Analysis</t>
+  </si>
+  <si>
+    <t>Social Paid</t>
+  </si>
+  <si>
+    <t>LinkedIn Ads</t>
+  </si>
+  <si>
+    <t>Facebook Ads</t>
+  </si>
+  <si>
+    <t>Promoted Tweets</t>
+  </si>
+  <si>
+    <t>Paid Search</t>
+  </si>
+  <si>
+    <t>Remarketing</t>
+  </si>
+  <si>
+    <t>Google Shopping</t>
+  </si>
+  <si>
+    <t>Promoted Pins</t>
+  </si>
+  <si>
+    <t>Amazon Ads</t>
+  </si>
+  <si>
+    <t>Geotargeting</t>
+  </si>
+  <si>
+    <t>Campaign Management</t>
+  </si>
+  <si>
+    <t>Display Advertising</t>
+  </si>
+  <si>
+    <t>Bing Ads</t>
+  </si>
+  <si>
+    <t>Videos Ads</t>
+  </si>
+  <si>
+    <t>Conversion Tracking</t>
+  </si>
+  <si>
+    <t>Google AdWords</t>
+  </si>
+  <si>
+    <t>Paid Traffic</t>
+  </si>
+  <si>
+    <t>Mobile Advertising</t>
+  </si>
+  <si>
+    <t>Location Based Services</t>
+  </si>
+  <si>
+    <t>Mobile Friendly</t>
+  </si>
+  <si>
+    <t>iBeacons</t>
+  </si>
+  <si>
+    <t>Responsive Web Design</t>
+  </si>
+  <si>
+    <t>Apps</t>
+  </si>
+  <si>
+    <t>Text Messaging</t>
+  </si>
+  <si>
+    <t>Click to Cal</t>
+  </si>
+  <si>
+    <t>Mobile Commerce</t>
+  </si>
+  <si>
+    <t>SMS Marketing</t>
+  </si>
+  <si>
+    <t>Call Tracking</t>
+  </si>
+  <si>
+    <t>Virtual Reality</t>
+  </si>
+  <si>
+    <t>Wearable Technology</t>
+  </si>
+  <si>
+    <t>Augmented Reality</t>
+  </si>
+  <si>
+    <t>Call to Action</t>
+  </si>
+  <si>
+    <t>Trust Signals</t>
+  </si>
+  <si>
+    <t>Legal Compliance</t>
+  </si>
+  <si>
+    <t>User Experience</t>
+  </si>
+  <si>
+    <t>Usability</t>
+  </si>
+  <si>
+    <t>Functionality</t>
+  </si>
+  <si>
+    <t>Conversion Rate Optimisation</t>
+  </si>
+  <si>
+    <t>Ecommerce</t>
+  </si>
+  <si>
+    <t>SEO  Strategy</t>
+  </si>
+  <si>
+    <t>Site Structure</t>
+  </si>
+  <si>
+    <t>Webmaster Tools</t>
+  </si>
+  <si>
+    <t>Acquisition</t>
+  </si>
+  <si>
+    <t>Behaviour</t>
+  </si>
+  <si>
+    <t>Conversions</t>
+  </si>
+  <si>
+    <t>Views</t>
+  </si>
+  <si>
+    <t>Goals</t>
+  </si>
+  <si>
+    <t>Custom Reports</t>
+  </si>
+  <si>
+    <t>Dashboards</t>
+  </si>
+  <si>
+    <t>Real Time</t>
+  </si>
+  <si>
+    <t>Filters</t>
+  </si>
+  <si>
+    <t>On Page Factors</t>
+  </si>
+  <si>
+    <t>schema.org</t>
+  </si>
+  <si>
+    <t>Sitemaps</t>
+  </si>
+  <si>
+    <t>Technical Audit</t>
+  </si>
+  <si>
+    <t>International SEO</t>
+  </si>
+  <si>
+    <t>robots.txt</t>
   </si>
 </sst>
 </file>
@@ -550,8 +748,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F71"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="B64" sqref="B64"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="B67" sqref="B67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -562,8 +760,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
+      <c r="A1" t="s">
+        <v>24</v>
       </c>
       <c r="B1" s="1">
         <v>495</v>
@@ -765,8 +963,8 @@
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="1" t="s">
-        <v>1</v>
+      <c r="A11" t="s">
+        <v>23</v>
       </c>
       <c r="B11" s="1">
         <v>655</v>
@@ -909,7 +1107,7 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B18" s="1">
         <v>550</v>
@@ -1072,7 +1270,7 @@
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B26" s="1">
         <v>735</v>
@@ -1155,7 +1353,7 @@
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>8</v>
+        <v>75</v>
       </c>
       <c r="B30" s="1">
         <v>865</v>
@@ -1218,7 +1416,7 @@
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>3</v>
+        <v>79</v>
       </c>
       <c r="B33" s="1">
         <v>835</v>
@@ -1321,7 +1519,7 @@
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B38" s="1">
         <v>260</v>
@@ -1504,7 +1702,7 @@
     </row>
     <row r="47" spans="1:6">
       <c r="A47" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B47" s="1">
         <v>230</v>
@@ -1530,7 +1728,7 @@
         <v>230</v>
       </c>
       <c r="C48" s="1">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="D48" s="1">
         <f t="shared" si="22"/>
@@ -1538,11 +1736,11 @@
       </c>
       <c r="E48" s="1">
         <f t="shared" si="23"/>
-        <v>0.31</v>
+        <v>0.315</v>
       </c>
       <c r="F48" s="1" t="str">
         <f t="shared" si="24"/>
-        <v>[0.23,0.31],</v>
+        <v>[0.23,0.315],</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1550,7 +1748,7 @@
         <v>250</v>
       </c>
       <c r="C49" s="1">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="D49" s="1">
         <f t="shared" si="22"/>
@@ -1558,11 +1756,11 @@
       </c>
       <c r="E49" s="1">
         <f t="shared" si="23"/>
-        <v>0.3</v>
+        <v>0.30499999999999999</v>
       </c>
       <c r="F49" s="1" t="str">
         <f t="shared" si="24"/>
-        <v>[0.25,0.3],</v>
+        <v>[0.25,0.305],</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1727,7 +1925,7 @@
     </row>
     <row r="58" spans="1:6">
       <c r="A58" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B58" s="1">
         <v>65</v>
@@ -1890,7 +2088,7 @@
     </row>
     <row r="66" spans="1:6">
       <c r="A66" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B66" s="1">
         <v>135</v>
@@ -2019,10 +2217,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R46"/>
+  <dimension ref="A1:R132"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+      <pane ySplit="1" topLeftCell="A100" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P127" sqref="P127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2034,45 +2233,45 @@
   <sheetData>
     <row r="1" spans="1:18">
       <c r="G1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K1" t="s">
         <v>34</v>
       </c>
-      <c r="H1" t="s">
+      <c r="L1" t="s">
         <v>35</v>
       </c>
-      <c r="I1" t="s">
+      <c r="M1" t="s">
         <v>36</v>
       </c>
-      <c r="J1" t="s">
+      <c r="N1" t="s">
         <v>37</v>
       </c>
-      <c r="K1" t="s">
+      <c r="O1" t="s">
         <v>38</v>
       </c>
-      <c r="L1" t="s">
+      <c r="P1" t="s">
         <v>39</v>
       </c>
-      <c r="M1" t="s">
-        <v>40</v>
-      </c>
-      <c r="N1" t="s">
+      <c r="R1" t="s">
         <v>41</v>
-      </c>
-      <c r="O1" t="s">
-        <v>42</v>
-      </c>
-      <c r="P1" t="s">
-        <v>43</v>
-      </c>
-      <c r="R1" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:18">
       <c r="A2" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C2">
         <v>505</v>
@@ -2129,7 +2328,7 @@
     </row>
     <row r="3" spans="1:18">
       <c r="B3" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C3">
         <v>513</v>
@@ -2149,14 +2348,14 @@
         <v>2</v>
       </c>
       <c r="H3" t="str">
-        <f t="shared" ref="H3:H56" si="2">IF(P3=0,B3,"")</f>
+        <f t="shared" ref="H3:H46" si="2">IF(P3=0,B3,"")</f>
         <v>Imagery</v>
       </c>
       <c r="I3">
         <v>1</v>
       </c>
       <c r="J3">
-        <f t="shared" ref="J3:J46" si="3">IF(I3=I2,J2+1,1)</f>
+        <f t="shared" ref="J3:J47" si="3">IF(I3=I2,J2+1,1)</f>
         <v>2</v>
       </c>
       <c r="K3">
@@ -2180,13 +2379,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="str">
-        <f t="shared" ref="R3:R46" si="6">"("&amp;G3&amp;",'"&amp;H3&amp;"',"&amp;I3&amp;","&amp;J3&amp;","&amp;K3&amp;","&amp;L3&amp;","&amp;M3&amp;","&amp;N3&amp;","&amp;O3&amp;","&amp;P3&amp;"),"</f>
+        <f t="shared" ref="R3:R66" si="6">"("&amp;G3&amp;",'"&amp;H3&amp;"',"&amp;I3&amp;","&amp;J3&amp;","&amp;K3&amp;","&amp;L3&amp;","&amp;M3&amp;","&amp;N3&amp;","&amp;O3&amp;","&amp;P3&amp;"),"</f>
         <v>(2,'Imagery',1,2,0.513,0.614,0.015,0,0,0),</v>
       </c>
     </row>
     <row r="4" spans="1:18">
       <c r="B4" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C4">
         <v>521</v>
@@ -2243,7 +2442,7 @@
     </row>
     <row r="5" spans="1:18">
       <c r="B5" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C5">
         <v>529</v>
@@ -2300,7 +2499,7 @@
     </row>
     <row r="6" spans="1:18">
       <c r="B6" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C6">
         <v>537</v>
@@ -2357,7 +2556,7 @@
     </row>
     <row r="7" spans="1:18">
       <c r="B7" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C7">
         <v>545</v>
@@ -2414,7 +2613,7 @@
     </row>
     <row r="8" spans="1:18">
       <c r="B8" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C8">
         <v>553</v>
@@ -2471,7 +2670,7 @@
     </row>
     <row r="9" spans="1:18">
       <c r="B9" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C9">
         <v>561</v>
@@ -2528,7 +2727,7 @@
     </row>
     <row r="10" spans="1:18">
       <c r="B10" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C10">
         <v>569</v>
@@ -2585,7 +2784,7 @@
     </row>
     <row r="11" spans="1:18">
       <c r="B11" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C11">
         <v>580</v>
@@ -2624,7 +2823,7 @@
         <v>0.44</v>
       </c>
       <c r="M11">
-        <v>0.01</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -2638,18 +2837,18 @@
       </c>
       <c r="R11" t="str">
         <f t="shared" si="6"/>
-        <v>(10,'Keyword Research',1,10,0.58,0.44,0.01,0,10,0),</v>
+        <v>(10,'Keyword Research',1,10,0.58,0.44,0.005,0,10,0),</v>
       </c>
     </row>
     <row r="12" spans="1:18">
       <c r="B12" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C12">
         <v>440</v>
       </c>
       <c r="D12">
-        <v>335</v>
+        <v>325</v>
       </c>
       <c r="E12">
         <f t="shared" si="0"/>
@@ -2657,7 +2856,7 @@
       </c>
       <c r="F12">
         <f t="shared" si="1"/>
-        <v>0.33500000000000002</v>
+        <v>0.32500000000000001</v>
       </c>
       <c r="G12">
         <v>11</v>
@@ -2679,13 +2878,13 @@
       </c>
       <c r="L12">
         <f t="shared" si="5"/>
-        <v>0.33500000000000002</v>
+        <v>0.32500000000000001</v>
       </c>
       <c r="M12">
-        <v>-0.01</v>
+        <v>-5.0000000000000001E-3</v>
       </c>
       <c r="N12">
-        <v>5.0000000000000001E-3</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="O12">
         <f t="shared" si="7"/>
@@ -2696,12 +2895,12 @@
       </c>
       <c r="R12" t="str">
         <f t="shared" si="6"/>
-        <v>(11,'Organic Traffic',1,11,0.44,0.335,-0.01,0.005,11,0),</v>
+        <v>(11,'Organic Traffic',1,11,0.44,0.325,-0.005,0.015,11,0),</v>
       </c>
     </row>
     <row r="13" spans="1:18">
       <c r="B13" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C13">
         <v>425</v>
@@ -2758,7 +2957,7 @@
     </row>
     <row r="14" spans="1:18">
       <c r="B14" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C14">
         <v>405</v>
@@ -2815,7 +3014,7 @@
     </row>
     <row r="15" spans="1:18">
       <c r="B15" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C15">
         <v>385</v>
@@ -2872,7 +3071,7 @@
     </row>
     <row r="16" spans="1:18">
       <c r="B16" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C16">
         <v>365</v>
@@ -2929,7 +3128,7 @@
     </row>
     <row r="17" spans="1:18">
       <c r="B17" t="s">
-        <v>24</v>
+        <v>74</v>
       </c>
       <c r="C17">
         <v>310</v>
@@ -2950,7 +3149,7 @@
       </c>
       <c r="H17" t="str">
         <f t="shared" si="2"/>
-        <v>Analysis</v>
+        <v>Competitor Analysis</v>
       </c>
       <c r="I17">
         <v>1</v>
@@ -2981,12 +3180,12 @@
       </c>
       <c r="R17" t="str">
         <f t="shared" si="6"/>
-        <v>(16,'Analysis',1,16,0.31,0.235,0,-0.01,0,0),</v>
+        <v>(16,'Competitor Analysis',1,16,0.31,0.235,0,-0.01,0,0),</v>
       </c>
     </row>
     <row r="18" spans="1:18">
       <c r="B18" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C18">
         <v>260</v>
@@ -3043,7 +3242,7 @@
     </row>
     <row r="19" spans="1:18">
       <c r="B19" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C19">
         <v>210</v>
@@ -3100,10 +3299,10 @@
     </row>
     <row r="20" spans="1:18">
       <c r="A20" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C20">
         <v>655</v>
@@ -3116,7 +3315,7 @@
         <v>0.65500000000000003</v>
       </c>
       <c r="F20">
-        <f t="shared" ref="F20:F29" si="9">D20/1000</f>
+        <f t="shared" ref="F20:F28" si="9">D20/1000</f>
         <v>0.56000000000000005</v>
       </c>
       <c r="G20">
@@ -3160,7 +3359,7 @@
     </row>
     <row r="21" spans="1:18">
       <c r="B21" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C21">
         <v>655</v>
@@ -3217,7 +3416,7 @@
     </row>
     <row r="22" spans="1:18">
       <c r="B22" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C22">
         <v>655</v>
@@ -3274,7 +3473,7 @@
     </row>
     <row r="23" spans="1:18">
       <c r="B23" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C23">
         <v>655</v>
@@ -3331,7 +3530,7 @@
     </row>
     <row r="24" spans="1:18">
       <c r="B24" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C24">
         <v>635</v>
@@ -3362,11 +3561,11 @@
         <v>5</v>
       </c>
       <c r="K24">
-        <f t="shared" ref="K24:K46" si="12">E24</f>
+        <f t="shared" ref="K24:K48" si="12">E24</f>
         <v>0.63500000000000001</v>
       </c>
       <c r="L24">
-        <f t="shared" ref="L24:L46" si="13">F24</f>
+        <f t="shared" ref="L24:L48" si="13">F24</f>
         <v>0.48499999999999999</v>
       </c>
       <c r="M24">
@@ -3389,7 +3588,7 @@
     </row>
     <row r="25" spans="1:18">
       <c r="B25" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C25">
         <v>345</v>
@@ -3447,7 +3646,7 @@
     </row>
     <row r="26" spans="1:18">
       <c r="B26" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C26">
         <v>345</v>
@@ -3505,7 +3704,7 @@
     </row>
     <row r="27" spans="1:18">
       <c r="B27" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C27">
         <v>440</v>
@@ -3562,10 +3761,10 @@
     </row>
     <row r="28" spans="1:18">
       <c r="A28" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B28" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C28">
         <v>550</v>
@@ -3622,7 +3821,7 @@
     </row>
     <row r="29" spans="1:18">
       <c r="B29" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C29">
         <v>550</v>
@@ -3679,7 +3878,7 @@
     </row>
     <row r="30" spans="1:18">
       <c r="B30" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C30">
         <v>550</v>
@@ -3736,7 +3935,7 @@
     </row>
     <row r="31" spans="1:18">
       <c r="B31" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C31">
         <v>550</v>
@@ -3793,7 +3992,7 @@
     </row>
     <row r="32" spans="1:18">
       <c r="B32" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C32">
         <v>550</v>
@@ -3848,9 +4047,9 @@
         <v>(31,'Social Insights',3,5,0.55,0.203,-0.015,0,0,0),</v>
       </c>
     </row>
-    <row r="33" spans="2:18">
+    <row r="33" spans="1:18">
       <c r="B33" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C33">
         <v>550</v>
@@ -3905,9 +4104,9 @@
         <v>(32,'Conversation',3,6,0.55,0.22,0.015,0,0,0),</v>
       </c>
     </row>
-    <row r="34" spans="2:18">
+    <row r="34" spans="1:18">
       <c r="B34" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C34">
         <v>550</v>
@@ -3962,9 +4161,9 @@
         <v>(33,'Amplification',3,7,0.55,0.237,0.015,0,0,0),</v>
       </c>
     </row>
-    <row r="35" spans="2:18">
+    <row r="35" spans="1:18">
       <c r="B35" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C35">
         <v>550</v>
@@ -4019,9 +4218,9 @@
         <v>(34,'Applause',3,8,0.55,0.254,0.015,0,0,0),</v>
       </c>
     </row>
-    <row r="36" spans="2:18">
+    <row r="36" spans="1:18">
       <c r="B36" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C36" s="1">
         <v>635</v>
@@ -4034,7 +4233,7 @@
         <v>0.63500000000000001</v>
       </c>
       <c r="F36">
-        <f t="shared" ref="F36:F40" si="18">D36/1000</f>
+        <f t="shared" ref="F36:F39" si="18">D36/1000</f>
         <v>0.42</v>
       </c>
       <c r="G36">
@@ -4077,9 +4276,9 @@
         <v>(35,'ROI',3,9,0.635,0.42,0.01,-0.005,35,0),</v>
       </c>
     </row>
-    <row r="37" spans="2:18">
+    <row r="37" spans="1:18">
       <c r="B37" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C37">
         <v>635</v>
@@ -4134,9 +4333,9 @@
         <v>(36,'',3,10,0.635,0.465,0,0,23,2),</v>
       </c>
     </row>
-    <row r="38" spans="2:18">
+    <row r="38" spans="1:18">
       <c r="B38" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C38">
         <v>685</v>
@@ -4191,9 +4390,9 @@
         <v>(37,'Social Analytics',3,11,0.685,0.475,0.015,-0.005,37,0),</v>
       </c>
     </row>
-    <row r="39" spans="2:18">
+    <row r="39" spans="1:18">
       <c r="B39" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C39">
         <v>745</v>
@@ -4248,9 +4447,9 @@
         <v>(38,'Slideshare',3,12,0.745,0.49,0.015,0,0,0),</v>
       </c>
     </row>
-    <row r="40" spans="2:18">
+    <row r="40" spans="1:18">
       <c r="B40" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C40">
         <v>745</v>
@@ -4259,11 +4458,11 @@
         <v>507</v>
       </c>
       <c r="E40">
-        <f t="shared" ref="E40:E46" si="20">C40/1000</f>
+        <f t="shared" ref="E40:E48" si="20">C40/1000</f>
         <v>0.745</v>
       </c>
       <c r="F40">
-        <f t="shared" ref="F40:F46" si="21">D40/1000</f>
+        <f t="shared" ref="F40:F48" si="21">D40/1000</f>
         <v>0.50700000000000001</v>
       </c>
       <c r="G40">
@@ -4305,9 +4504,9 @@
         <v>(39,'Instagram',3,13,0.745,0.507,0.015,0,0,0),</v>
       </c>
     </row>
-    <row r="41" spans="2:18">
+    <row r="41" spans="1:18">
       <c r="B41" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C41">
         <v>745</v>
@@ -4362,9 +4561,9 @@
         <v>(40,'Flickr',3,14,0.745,0.524,0.015,0,0,0),</v>
       </c>
     </row>
-    <row r="42" spans="2:18">
+    <row r="42" spans="1:18">
       <c r="B42" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C42">
         <v>745</v>
@@ -4419,9 +4618,9 @@
         <v>(41,'Pinterest',3,15,0.745,0.541,0.015,0,0,0),</v>
       </c>
     </row>
-    <row r="43" spans="2:18">
+    <row r="43" spans="1:18">
       <c r="B43" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C43">
         <v>745</v>
@@ -4476,9 +4675,9 @@
         <v>(42,'Facebook',3,16,0.745,0.558,0.015,0,0,0),</v>
       </c>
     </row>
-    <row r="44" spans="2:18">
+    <row r="44" spans="1:18">
       <c r="B44" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C44">
         <v>745</v>
@@ -4533,9 +4732,9 @@
         <v>(43,'YouTube',3,17,0.745,0.575,0.015,0,0,0),</v>
       </c>
     </row>
-    <row r="45" spans="2:18">
+    <row r="45" spans="1:18">
       <c r="B45" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C45">
         <v>745</v>
@@ -4590,9 +4789,9 @@
         <v>(44,'LinkedIn',3,18,0.745,0.592,0.015,0,0,0),</v>
       </c>
     </row>
-    <row r="46" spans="2:18">
+    <row r="46" spans="1:18">
       <c r="B46" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C46">
         <v>745</v>
@@ -4645,6 +4844,4929 @@
       <c r="R46" t="str">
         <f t="shared" si="6"/>
         <v>(45,'Twitter',3,19,0.745,0.609,0.015,0,0,0),</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18">
+      <c r="A47" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B47" t="s">
+        <v>62</v>
+      </c>
+      <c r="C47">
+        <v>717.5</v>
+      </c>
+      <c r="D47">
+        <v>156.5</v>
+      </c>
+      <c r="E47">
+        <f t="shared" si="20"/>
+        <v>0.71750000000000003</v>
+      </c>
+      <c r="F47">
+        <f t="shared" si="21"/>
+        <v>0.1565</v>
+      </c>
+      <c r="G47">
+        <v>46</v>
+      </c>
+      <c r="H47" t="str">
+        <f t="shared" ref="H47" si="22">IF(P47=0,B47,"")</f>
+        <v>Personas</v>
+      </c>
+      <c r="I47">
+        <v>4</v>
+      </c>
+      <c r="J47">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="K47">
+        <f t="shared" si="12"/>
+        <v>0.71750000000000003</v>
+      </c>
+      <c r="L47">
+        <f t="shared" si="13"/>
+        <v>0.1565</v>
+      </c>
+      <c r="M47">
+        <v>-1.4999999999999999E-2</v>
+      </c>
+      <c r="N47">
+        <v>0</v>
+      </c>
+      <c r="O47">
+        <v>0</v>
+      </c>
+      <c r="P47">
+        <v>0</v>
+      </c>
+      <c r="R47" t="str">
+        <f t="shared" si="6"/>
+        <v>(46,'Personas',4,1,0.7175,0.1565,-0.015,0,0,0),</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18">
+      <c r="B48" t="s">
+        <v>65</v>
+      </c>
+      <c r="C48">
+        <v>707.5</v>
+      </c>
+      <c r="D48">
+        <v>174.5</v>
+      </c>
+      <c r="E48">
+        <f t="shared" ref="E48:E61" si="23">C48/1000</f>
+        <v>0.70750000000000002</v>
+      </c>
+      <c r="F48">
+        <f t="shared" ref="F48:F62" si="24">D48/1000</f>
+        <v>0.17449999999999999</v>
+      </c>
+      <c r="G48">
+        <v>47</v>
+      </c>
+      <c r="H48" t="str">
+        <f t="shared" ref="H48:H60" si="25">IF(P48=0,B48,"")</f>
+        <v>KPIs</v>
+      </c>
+      <c r="I48">
+        <v>4</v>
+      </c>
+      <c r="J48">
+        <f t="shared" ref="J48:J72" si="26">IF(I48=I47,J47+1,1)</f>
+        <v>2</v>
+      </c>
+      <c r="K48">
+        <f t="shared" si="12"/>
+        <v>0.70750000000000002</v>
+      </c>
+      <c r="L48">
+        <f t="shared" si="13"/>
+        <v>0.17449999999999999</v>
+      </c>
+      <c r="M48">
+        <v>-1.4999999999999999E-2</v>
+      </c>
+      <c r="N48">
+        <v>0</v>
+      </c>
+      <c r="O48">
+        <v>0</v>
+      </c>
+      <c r="P48">
+        <v>0</v>
+      </c>
+      <c r="R48" t="str">
+        <f t="shared" si="6"/>
+        <v>(47,'KPIs',4,2,0.7075,0.1745,-0.015,0,0,0),</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18">
+      <c r="B49" t="s">
+        <v>66</v>
+      </c>
+      <c r="C49">
+        <v>697.5</v>
+      </c>
+      <c r="D49">
+        <v>192.5</v>
+      </c>
+      <c r="E49">
+        <f t="shared" si="23"/>
+        <v>0.69750000000000001</v>
+      </c>
+      <c r="F49">
+        <f t="shared" si="24"/>
+        <v>0.1925</v>
+      </c>
+      <c r="G49">
+        <v>48</v>
+      </c>
+      <c r="H49" t="str">
+        <f t="shared" si="25"/>
+        <v>Lead Generation</v>
+      </c>
+      <c r="I49">
+        <v>4</v>
+      </c>
+      <c r="J49">
+        <f t="shared" si="26"/>
+        <v>3</v>
+      </c>
+      <c r="K49">
+        <f t="shared" ref="K49:K65" si="27">E49</f>
+        <v>0.69750000000000001</v>
+      </c>
+      <c r="L49">
+        <f t="shared" ref="L49:L65" si="28">F49</f>
+        <v>0.1925</v>
+      </c>
+      <c r="M49">
+        <v>-1.4999999999999999E-2</v>
+      </c>
+      <c r="N49">
+        <v>0</v>
+      </c>
+      <c r="O49">
+        <v>0</v>
+      </c>
+      <c r="P49">
+        <v>0</v>
+      </c>
+      <c r="R49" t="str">
+        <f t="shared" si="6"/>
+        <v>(48,'Lead Generation',4,3,0.6975,0.1925,-0.015,0,0,0),</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18">
+      <c r="B50" t="s">
+        <v>20</v>
+      </c>
+      <c r="C50">
+        <v>687.5</v>
+      </c>
+      <c r="D50">
+        <v>210.5</v>
+      </c>
+      <c r="E50">
+        <f t="shared" si="23"/>
+        <v>0.6875</v>
+      </c>
+      <c r="F50">
+        <f t="shared" si="24"/>
+        <v>0.21049999999999999</v>
+      </c>
+      <c r="G50">
+        <v>49</v>
+      </c>
+      <c r="H50" t="str">
+        <f t="shared" si="25"/>
+        <v>Analysis</v>
+      </c>
+      <c r="I50">
+        <v>4</v>
+      </c>
+      <c r="J50">
+        <f t="shared" si="26"/>
+        <v>4</v>
+      </c>
+      <c r="K50">
+        <f t="shared" si="27"/>
+        <v>0.6875</v>
+      </c>
+      <c r="L50">
+        <f t="shared" si="28"/>
+        <v>0.21049999999999999</v>
+      </c>
+      <c r="M50">
+        <v>-1.4999999999999999E-2</v>
+      </c>
+      <c r="N50">
+        <v>0</v>
+      </c>
+      <c r="O50">
+        <v>0</v>
+      </c>
+      <c r="P50">
+        <v>0</v>
+      </c>
+      <c r="R50" t="str">
+        <f t="shared" si="6"/>
+        <v>(49,'Analysis',4,4,0.6875,0.2105,-0.015,0,0,0),</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18">
+      <c r="B51" t="s">
+        <v>67</v>
+      </c>
+      <c r="C51">
+        <v>677.5</v>
+      </c>
+      <c r="D51">
+        <v>228.5</v>
+      </c>
+      <c r="E51">
+        <f t="shared" si="23"/>
+        <v>0.67749999999999999</v>
+      </c>
+      <c r="F51">
+        <f t="shared" si="24"/>
+        <v>0.22850000000000001</v>
+      </c>
+      <c r="G51">
+        <v>50</v>
+      </c>
+      <c r="H51" t="str">
+        <f t="shared" si="25"/>
+        <v>Reporting</v>
+      </c>
+      <c r="I51">
+        <v>4</v>
+      </c>
+      <c r="J51">
+        <f t="shared" si="26"/>
+        <v>5</v>
+      </c>
+      <c r="K51">
+        <f t="shared" si="27"/>
+        <v>0.67749999999999999</v>
+      </c>
+      <c r="L51">
+        <f t="shared" si="28"/>
+        <v>0.22850000000000001</v>
+      </c>
+      <c r="M51">
+        <v>-1.4999999999999999E-2</v>
+      </c>
+      <c r="N51">
+        <v>0</v>
+      </c>
+      <c r="O51">
+        <v>0</v>
+      </c>
+      <c r="P51">
+        <v>0</v>
+      </c>
+      <c r="R51" t="str">
+        <f t="shared" si="6"/>
+        <v>(50,'Reporting',4,5,0.6775,0.2285,-0.015,0,0,0),</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18">
+      <c r="B52" t="s">
+        <v>68</v>
+      </c>
+      <c r="C52">
+        <v>667.5</v>
+      </c>
+      <c r="D52">
+        <v>246.5</v>
+      </c>
+      <c r="E52">
+        <f t="shared" si="23"/>
+        <v>0.66749999999999998</v>
+      </c>
+      <c r="F52">
+        <f t="shared" si="24"/>
+        <v>0.2465</v>
+      </c>
+      <c r="G52">
+        <v>51</v>
+      </c>
+      <c r="H52" t="str">
+        <f t="shared" si="25"/>
+        <v>Segmentation</v>
+      </c>
+      <c r="I52">
+        <v>4</v>
+      </c>
+      <c r="J52">
+        <f t="shared" si="26"/>
+        <v>6</v>
+      </c>
+      <c r="K52">
+        <f t="shared" si="27"/>
+        <v>0.66749999999999998</v>
+      </c>
+      <c r="L52">
+        <f t="shared" si="28"/>
+        <v>0.2465</v>
+      </c>
+      <c r="M52">
+        <v>-1.4999999999999999E-2</v>
+      </c>
+      <c r="N52">
+        <v>0</v>
+      </c>
+      <c r="O52">
+        <v>0</v>
+      </c>
+      <c r="P52">
+        <v>0</v>
+      </c>
+      <c r="R52" t="str">
+        <f t="shared" si="6"/>
+        <v>(51,'Segmentation',4,6,0.6675,0.2465,-0.015,0,0,0),</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18">
+      <c r="B53" t="s">
+        <v>63</v>
+      </c>
+      <c r="C53">
+        <v>657.5</v>
+      </c>
+      <c r="D53">
+        <v>264.5</v>
+      </c>
+      <c r="E53">
+        <f t="shared" si="23"/>
+        <v>0.65749999999999997</v>
+      </c>
+      <c r="F53">
+        <f t="shared" si="24"/>
+        <v>0.26450000000000001</v>
+      </c>
+      <c r="G53">
+        <v>52</v>
+      </c>
+      <c r="H53" t="str">
+        <f t="shared" si="25"/>
+        <v>Personalisation</v>
+      </c>
+      <c r="I53">
+        <v>4</v>
+      </c>
+      <c r="J53">
+        <f t="shared" si="26"/>
+        <v>7</v>
+      </c>
+      <c r="K53">
+        <f t="shared" si="27"/>
+        <v>0.65749999999999997</v>
+      </c>
+      <c r="L53">
+        <f t="shared" si="28"/>
+        <v>0.26450000000000001</v>
+      </c>
+      <c r="M53">
+        <v>-1.4999999999999999E-2</v>
+      </c>
+      <c r="N53">
+        <v>0</v>
+      </c>
+      <c r="O53">
+        <v>0</v>
+      </c>
+      <c r="P53">
+        <v>0</v>
+      </c>
+      <c r="R53" t="str">
+        <f t="shared" si="6"/>
+        <v>(52,'Personalisation',4,7,0.6575,0.2645,-0.015,0,0,0),</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18">
+      <c r="B54" t="s">
+        <v>52</v>
+      </c>
+      <c r="C54" s="1">
+        <v>635</v>
+      </c>
+      <c r="D54" s="1">
+        <v>420</v>
+      </c>
+      <c r="E54">
+        <f t="shared" si="23"/>
+        <v>0.63500000000000001</v>
+      </c>
+      <c r="F54">
+        <f t="shared" si="24"/>
+        <v>0.42</v>
+      </c>
+      <c r="G54">
+        <v>53</v>
+      </c>
+      <c r="H54" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+      <c r="I54">
+        <v>4</v>
+      </c>
+      <c r="J54">
+        <f t="shared" si="26"/>
+        <v>8</v>
+      </c>
+      <c r="K54">
+        <f t="shared" si="27"/>
+        <v>0.63500000000000001</v>
+      </c>
+      <c r="L54">
+        <f t="shared" si="28"/>
+        <v>0.42</v>
+      </c>
+      <c r="M54">
+        <v>0</v>
+      </c>
+      <c r="N54">
+        <v>0</v>
+      </c>
+      <c r="O54">
+        <v>35</v>
+      </c>
+      <c r="P54">
+        <v>1</v>
+      </c>
+      <c r="R54" t="str">
+        <f t="shared" si="6"/>
+        <v>(53,'',4,8,0.635,0.42,0,0,35,1),</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18">
+      <c r="B55" t="s">
+        <v>64</v>
+      </c>
+      <c r="C55">
+        <v>685</v>
+      </c>
+      <c r="D55">
+        <v>420</v>
+      </c>
+      <c r="E55">
+        <f t="shared" si="23"/>
+        <v>0.68500000000000005</v>
+      </c>
+      <c r="F55">
+        <f t="shared" si="24"/>
+        <v>0.42</v>
+      </c>
+      <c r="G55">
+        <v>54</v>
+      </c>
+      <c r="H55" t="str">
+        <f t="shared" si="25"/>
+        <v>Campaign Tracking</v>
+      </c>
+      <c r="I55">
+        <v>4</v>
+      </c>
+      <c r="J55">
+        <f t="shared" si="26"/>
+        <v>9</v>
+      </c>
+      <c r="K55">
+        <f t="shared" si="27"/>
+        <v>0.68500000000000005</v>
+      </c>
+      <c r="L55">
+        <f t="shared" si="28"/>
+        <v>0.42</v>
+      </c>
+      <c r="M55">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="N55">
+        <v>-0.01</v>
+      </c>
+      <c r="O55">
+        <v>54</v>
+      </c>
+      <c r="P55">
+        <v>0</v>
+      </c>
+      <c r="R55" t="str">
+        <f t="shared" si="6"/>
+        <v>(54,'Campaign Tracking',4,9,0.685,0.42,0.005,-0.01,54,0),</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18">
+      <c r="B56" t="s">
+        <v>69</v>
+      </c>
+      <c r="C56">
+        <v>725</v>
+      </c>
+      <c r="D56">
+        <v>420</v>
+      </c>
+      <c r="E56">
+        <f t="shared" si="23"/>
+        <v>0.72499999999999998</v>
+      </c>
+      <c r="F56">
+        <f t="shared" si="24"/>
+        <v>0.42</v>
+      </c>
+      <c r="G56">
+        <v>55</v>
+      </c>
+      <c r="H56" t="str">
+        <f t="shared" si="25"/>
+        <v>Visitor Tracking</v>
+      </c>
+      <c r="I56">
+        <v>4</v>
+      </c>
+      <c r="J56">
+        <f t="shared" si="26"/>
+        <v>10</v>
+      </c>
+      <c r="K56">
+        <f t="shared" si="27"/>
+        <v>0.72499999999999998</v>
+      </c>
+      <c r="L56">
+        <f t="shared" si="28"/>
+        <v>0.42</v>
+      </c>
+      <c r="M56">
+        <v>0</v>
+      </c>
+      <c r="N56">
+        <v>0.01</v>
+      </c>
+      <c r="O56">
+        <v>0</v>
+      </c>
+      <c r="P56">
+        <v>0</v>
+      </c>
+      <c r="R56" t="str">
+        <f t="shared" si="6"/>
+        <v>(55,'Visitor Tracking',4,10,0.725,0.42,0,0.01,0,0),</v>
+      </c>
+    </row>
+    <row r="57" spans="1:18">
+      <c r="B57" t="s">
+        <v>70</v>
+      </c>
+      <c r="C57">
+        <v>755</v>
+      </c>
+      <c r="D57">
+        <v>420</v>
+      </c>
+      <c r="E57">
+        <f t="shared" si="23"/>
+        <v>0.755</v>
+      </c>
+      <c r="F57">
+        <f t="shared" si="24"/>
+        <v>0.42</v>
+      </c>
+      <c r="G57">
+        <v>56</v>
+      </c>
+      <c r="H57" t="str">
+        <f t="shared" si="25"/>
+        <v>Newsletters</v>
+      </c>
+      <c r="I57">
+        <v>4</v>
+      </c>
+      <c r="J57">
+        <f t="shared" si="26"/>
+        <v>11</v>
+      </c>
+      <c r="K57">
+        <f t="shared" si="27"/>
+        <v>0.755</v>
+      </c>
+      <c r="L57">
+        <f t="shared" si="28"/>
+        <v>0.42</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
+      <c r="N57">
+        <v>-0.01</v>
+      </c>
+      <c r="O57">
+        <v>0</v>
+      </c>
+      <c r="P57">
+        <v>0</v>
+      </c>
+      <c r="R57" t="str">
+        <f t="shared" si="6"/>
+        <v>(56,'Newsletters',4,11,0.755,0.42,0,-0.01,0,0),</v>
+      </c>
+    </row>
+    <row r="58" spans="1:18">
+      <c r="B58" t="s">
+        <v>71</v>
+      </c>
+      <c r="C58">
+        <v>785</v>
+      </c>
+      <c r="D58">
+        <v>420</v>
+      </c>
+      <c r="E58">
+        <f t="shared" si="23"/>
+        <v>0.78500000000000003</v>
+      </c>
+      <c r="F58">
+        <f t="shared" si="24"/>
+        <v>0.42</v>
+      </c>
+      <c r="G58">
+        <v>57</v>
+      </c>
+      <c r="H58" t="str">
+        <f t="shared" si="25"/>
+        <v>Data Capture</v>
+      </c>
+      <c r="I58">
+        <v>4</v>
+      </c>
+      <c r="J58">
+        <f t="shared" si="26"/>
+        <v>12</v>
+      </c>
+      <c r="K58">
+        <f t="shared" si="27"/>
+        <v>0.78500000000000003</v>
+      </c>
+      <c r="L58">
+        <f t="shared" si="28"/>
+        <v>0.42</v>
+      </c>
+      <c r="M58">
+        <v>0</v>
+      </c>
+      <c r="N58">
+        <v>0.01</v>
+      </c>
+      <c r="O58">
+        <v>0</v>
+      </c>
+      <c r="P58">
+        <v>0</v>
+      </c>
+      <c r="R58" t="str">
+        <f t="shared" si="6"/>
+        <v>(57,'Data Capture',4,12,0.785,0.42,0,0.01,0,0),</v>
+      </c>
+    </row>
+    <row r="59" spans="1:18">
+      <c r="B59" t="s">
+        <v>72</v>
+      </c>
+      <c r="C59">
+        <v>815</v>
+      </c>
+      <c r="D59">
+        <v>420</v>
+      </c>
+      <c r="E59">
+        <f t="shared" si="23"/>
+        <v>0.81499999999999995</v>
+      </c>
+      <c r="F59">
+        <f t="shared" si="24"/>
+        <v>0.42</v>
+      </c>
+      <c r="G59">
+        <v>58</v>
+      </c>
+      <c r="H59" t="str">
+        <f t="shared" si="25"/>
+        <v>Click-through Rate</v>
+      </c>
+      <c r="I59">
+        <v>4</v>
+      </c>
+      <c r="J59">
+        <f t="shared" si="26"/>
+        <v>13</v>
+      </c>
+      <c r="K59">
+        <f t="shared" si="27"/>
+        <v>0.81499999999999995</v>
+      </c>
+      <c r="L59">
+        <f t="shared" si="28"/>
+        <v>0.42</v>
+      </c>
+      <c r="M59">
+        <v>0</v>
+      </c>
+      <c r="N59">
+        <v>-0.01</v>
+      </c>
+      <c r="O59">
+        <v>0</v>
+      </c>
+      <c r="P59">
+        <v>0</v>
+      </c>
+      <c r="R59" t="str">
+        <f t="shared" si="6"/>
+        <v>(58,'Click-through Rate',4,13,0.815,0.42,0,-0.01,0,0),</v>
+      </c>
+    </row>
+    <row r="60" spans="1:18">
+      <c r="B60" t="s">
+        <v>73</v>
+      </c>
+      <c r="C60">
+        <v>845</v>
+      </c>
+      <c r="D60">
+        <v>420</v>
+      </c>
+      <c r="E60">
+        <f t="shared" si="23"/>
+        <v>0.84499999999999997</v>
+      </c>
+      <c r="F60">
+        <f t="shared" si="24"/>
+        <v>0.42</v>
+      </c>
+      <c r="G60">
+        <v>59</v>
+      </c>
+      <c r="H60" t="str">
+        <f t="shared" si="25"/>
+        <v>List Management</v>
+      </c>
+      <c r="I60">
+        <v>4</v>
+      </c>
+      <c r="J60">
+        <f t="shared" si="26"/>
+        <v>14</v>
+      </c>
+      <c r="K60">
+        <f t="shared" si="27"/>
+        <v>0.84499999999999997</v>
+      </c>
+      <c r="L60">
+        <f t="shared" si="28"/>
+        <v>0.42</v>
+      </c>
+      <c r="M60">
+        <v>0</v>
+      </c>
+      <c r="N60">
+        <v>0.01</v>
+      </c>
+      <c r="O60">
+        <v>0</v>
+      </c>
+      <c r="P60">
+        <v>0</v>
+      </c>
+      <c r="R60" t="str">
+        <f t="shared" si="6"/>
+        <v>(59,'List Management',4,14,0.845,0.42,0,0.01,0,0),</v>
+      </c>
+    </row>
+    <row r="61" spans="1:18">
+      <c r="A61" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B61" t="s">
+        <v>76</v>
+      </c>
+      <c r="C61">
+        <v>835</v>
+      </c>
+      <c r="D61">
+        <v>275</v>
+      </c>
+      <c r="E61">
+        <f t="shared" si="23"/>
+        <v>0.83499999999999996</v>
+      </c>
+      <c r="F61">
+        <f t="shared" si="24"/>
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="G61">
+        <v>60</v>
+      </c>
+      <c r="H61" t="str">
+        <f t="shared" ref="H61:H72" si="29">IF(P61=0,B61,"")</f>
+        <v>LinkedIn Ads</v>
+      </c>
+      <c r="I61">
+        <v>5</v>
+      </c>
+      <c r="J61">
+        <f t="shared" si="26"/>
+        <v>1</v>
+      </c>
+      <c r="K61">
+        <f t="shared" si="27"/>
+        <v>0.83499999999999996</v>
+      </c>
+      <c r="L61">
+        <f t="shared" si="28"/>
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="M61">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="N61">
+        <v>0</v>
+      </c>
+      <c r="O61">
+        <v>0</v>
+      </c>
+      <c r="P61">
+        <v>0</v>
+      </c>
+      <c r="R61" t="str">
+        <f t="shared" si="6"/>
+        <v>(60,'LinkedIn Ads',5,1,0.835,0.275,0.015,0,0,0),</v>
+      </c>
+    </row>
+    <row r="62" spans="1:18">
+      <c r="B62" t="s">
+        <v>77</v>
+      </c>
+      <c r="C62">
+        <v>835</v>
+      </c>
+      <c r="D62">
+        <v>240</v>
+      </c>
+      <c r="E62">
+        <f t="shared" ref="E62:E65" si="30">C62/1000</f>
+        <v>0.83499999999999996</v>
+      </c>
+      <c r="F62">
+        <f t="shared" ref="F62:F65" si="31">D62/1000</f>
+        <v>0.24</v>
+      </c>
+      <c r="G62">
+        <v>61</v>
+      </c>
+      <c r="H62" t="str">
+        <f t="shared" si="29"/>
+        <v>Facebook Ads</v>
+      </c>
+      <c r="I62">
+        <v>5</v>
+      </c>
+      <c r="J62">
+        <f t="shared" si="26"/>
+        <v>2</v>
+      </c>
+      <c r="K62">
+        <f t="shared" si="27"/>
+        <v>0.83499999999999996</v>
+      </c>
+      <c r="L62">
+        <f t="shared" si="28"/>
+        <v>0.24</v>
+      </c>
+      <c r="M62">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="N62">
+        <v>0</v>
+      </c>
+      <c r="O62">
+        <v>0</v>
+      </c>
+      <c r="P62">
+        <v>0</v>
+      </c>
+      <c r="R62" t="str">
+        <f t="shared" si="6"/>
+        <v>(61,'Facebook Ads',5,2,0.835,0.24,0.015,0,0,0),</v>
+      </c>
+    </row>
+    <row r="63" spans="1:18">
+      <c r="B63" t="s">
+        <v>78</v>
+      </c>
+      <c r="C63">
+        <v>835</v>
+      </c>
+      <c r="D63">
+        <v>205</v>
+      </c>
+      <c r="E63">
+        <f t="shared" si="30"/>
+        <v>0.83499999999999996</v>
+      </c>
+      <c r="F63">
+        <f t="shared" si="31"/>
+        <v>0.20499999999999999</v>
+      </c>
+      <c r="G63">
+        <v>62</v>
+      </c>
+      <c r="H63" t="str">
+        <f t="shared" si="29"/>
+        <v>Promoted Tweets</v>
+      </c>
+      <c r="I63">
+        <v>5</v>
+      </c>
+      <c r="J63">
+        <f t="shared" si="26"/>
+        <v>3</v>
+      </c>
+      <c r="K63">
+        <f t="shared" si="27"/>
+        <v>0.83499999999999996</v>
+      </c>
+      <c r="L63">
+        <f t="shared" si="28"/>
+        <v>0.20499999999999999</v>
+      </c>
+      <c r="M63">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="N63">
+        <v>0</v>
+      </c>
+      <c r="O63">
+        <v>0</v>
+      </c>
+      <c r="P63">
+        <v>0</v>
+      </c>
+      <c r="R63" t="str">
+        <f t="shared" si="6"/>
+        <v>(62,'Promoted Tweets',5,3,0.835,0.205,0.015,0,0,0),</v>
+      </c>
+    </row>
+    <row r="64" spans="1:18">
+      <c r="A64" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B64" t="s">
+        <v>80</v>
+      </c>
+      <c r="C64">
+        <v>818</v>
+      </c>
+      <c r="D64">
+        <v>193</v>
+      </c>
+      <c r="E64">
+        <f t="shared" si="30"/>
+        <v>0.81799999999999995</v>
+      </c>
+      <c r="F64">
+        <f t="shared" si="31"/>
+        <v>0.193</v>
+      </c>
+      <c r="G64">
+        <v>63</v>
+      </c>
+      <c r="H64" t="str">
+        <f t="shared" si="29"/>
+        <v>Remarketing</v>
+      </c>
+      <c r="I64">
+        <v>6</v>
+      </c>
+      <c r="J64">
+        <f t="shared" si="26"/>
+        <v>1</v>
+      </c>
+      <c r="K64">
+        <f t="shared" si="27"/>
+        <v>0.81799999999999995</v>
+      </c>
+      <c r="L64">
+        <f t="shared" si="28"/>
+        <v>0.193</v>
+      </c>
+      <c r="M64">
+        <v>-1.4999999999999999E-2</v>
+      </c>
+      <c r="N64">
+        <v>0</v>
+      </c>
+      <c r="O64">
+        <v>0</v>
+      </c>
+      <c r="P64">
+        <v>0</v>
+      </c>
+      <c r="R64" t="str">
+        <f t="shared" si="6"/>
+        <v>(63,'Remarketing',6,1,0.818,0.193,-0.015,0,0,0),</v>
+      </c>
+    </row>
+    <row r="65" spans="1:18">
+      <c r="B65" t="s">
+        <v>81</v>
+      </c>
+      <c r="C65">
+        <v>807</v>
+      </c>
+      <c r="D65">
+        <v>208</v>
+      </c>
+      <c r="E65">
+        <f t="shared" si="30"/>
+        <v>0.80700000000000005</v>
+      </c>
+      <c r="F65">
+        <f t="shared" si="31"/>
+        <v>0.20799999999999999</v>
+      </c>
+      <c r="G65">
+        <v>64</v>
+      </c>
+      <c r="H65" t="str">
+        <f t="shared" si="29"/>
+        <v>Google Shopping</v>
+      </c>
+      <c r="I65">
+        <v>6</v>
+      </c>
+      <c r="J65">
+        <f t="shared" si="26"/>
+        <v>2</v>
+      </c>
+      <c r="K65">
+        <f t="shared" si="27"/>
+        <v>0.80700000000000005</v>
+      </c>
+      <c r="L65">
+        <f t="shared" si="28"/>
+        <v>0.20799999999999999</v>
+      </c>
+      <c r="M65">
+        <v>-1.4999999999999999E-2</v>
+      </c>
+      <c r="N65">
+        <v>0</v>
+      </c>
+      <c r="O65">
+        <v>0</v>
+      </c>
+      <c r="P65">
+        <v>0</v>
+      </c>
+      <c r="R65" t="str">
+        <f t="shared" si="6"/>
+        <v>(64,'Google Shopping',6,2,0.807,0.208,-0.015,0,0,0),</v>
+      </c>
+    </row>
+    <row r="66" spans="1:18">
+      <c r="B66" t="s">
+        <v>82</v>
+      </c>
+      <c r="C66">
+        <v>796</v>
+      </c>
+      <c r="D66">
+        <v>223</v>
+      </c>
+      <c r="E66">
+        <f t="shared" ref="E66:E75" si="32">C66/1000</f>
+        <v>0.79600000000000004</v>
+      </c>
+      <c r="F66">
+        <f t="shared" ref="F66:F75" si="33">D66/1000</f>
+        <v>0.223</v>
+      </c>
+      <c r="G66">
+        <v>65</v>
+      </c>
+      <c r="H66" t="str">
+        <f t="shared" si="29"/>
+        <v>Promoted Pins</v>
+      </c>
+      <c r="I66">
+        <v>6</v>
+      </c>
+      <c r="J66">
+        <f t="shared" si="26"/>
+        <v>3</v>
+      </c>
+      <c r="K66">
+        <f t="shared" ref="K66:K75" si="34">E66</f>
+        <v>0.79600000000000004</v>
+      </c>
+      <c r="L66">
+        <f t="shared" ref="L66:L75" si="35">F66</f>
+        <v>0.223</v>
+      </c>
+      <c r="M66">
+        <v>-1.4999999999999999E-2</v>
+      </c>
+      <c r="N66">
+        <v>0</v>
+      </c>
+      <c r="O66">
+        <v>0</v>
+      </c>
+      <c r="P66">
+        <v>0</v>
+      </c>
+      <c r="R66" t="str">
+        <f t="shared" si="6"/>
+        <v>(65,'Promoted Pins',6,3,0.796,0.223,-0.015,0,0,0),</v>
+      </c>
+    </row>
+    <row r="67" spans="1:18">
+      <c r="B67" t="s">
+        <v>83</v>
+      </c>
+      <c r="C67">
+        <v>785</v>
+      </c>
+      <c r="D67">
+        <v>238</v>
+      </c>
+      <c r="E67">
+        <f t="shared" si="32"/>
+        <v>0.78500000000000003</v>
+      </c>
+      <c r="F67">
+        <f t="shared" si="33"/>
+        <v>0.23799999999999999</v>
+      </c>
+      <c r="G67">
+        <v>66</v>
+      </c>
+      <c r="H67" t="str">
+        <f t="shared" si="29"/>
+        <v>Amazon Ads</v>
+      </c>
+      <c r="I67">
+        <v>6</v>
+      </c>
+      <c r="J67">
+        <f t="shared" si="26"/>
+        <v>4</v>
+      </c>
+      <c r="K67">
+        <f t="shared" si="34"/>
+        <v>0.78500000000000003</v>
+      </c>
+      <c r="L67">
+        <f t="shared" si="35"/>
+        <v>0.23799999999999999</v>
+      </c>
+      <c r="M67">
+        <v>-1.4999999999999999E-2</v>
+      </c>
+      <c r="N67">
+        <v>0</v>
+      </c>
+      <c r="O67">
+        <v>0</v>
+      </c>
+      <c r="P67">
+        <v>0</v>
+      </c>
+      <c r="R67" t="str">
+        <f t="shared" ref="R67:R130" si="36">"("&amp;G67&amp;",'"&amp;H67&amp;"',"&amp;I67&amp;","&amp;J67&amp;","&amp;K67&amp;","&amp;L67&amp;","&amp;M67&amp;","&amp;N67&amp;","&amp;O67&amp;","&amp;P67&amp;"),"</f>
+        <v>(66,'Amazon Ads',6,4,0.785,0.238,-0.015,0,0,0),</v>
+      </c>
+    </row>
+    <row r="68" spans="1:18">
+      <c r="B68" t="s">
+        <v>84</v>
+      </c>
+      <c r="C68">
+        <v>774</v>
+      </c>
+      <c r="D68">
+        <v>253</v>
+      </c>
+      <c r="E68">
+        <f t="shared" si="32"/>
+        <v>0.77400000000000002</v>
+      </c>
+      <c r="F68">
+        <f t="shared" si="33"/>
+        <v>0.253</v>
+      </c>
+      <c r="G68">
+        <v>67</v>
+      </c>
+      <c r="H68" t="str">
+        <f t="shared" si="29"/>
+        <v>Geotargeting</v>
+      </c>
+      <c r="I68">
+        <v>6</v>
+      </c>
+      <c r="J68">
+        <f t="shared" si="26"/>
+        <v>5</v>
+      </c>
+      <c r="K68">
+        <f t="shared" si="34"/>
+        <v>0.77400000000000002</v>
+      </c>
+      <c r="L68">
+        <f t="shared" si="35"/>
+        <v>0.253</v>
+      </c>
+      <c r="M68">
+        <v>-1.4999999999999999E-2</v>
+      </c>
+      <c r="N68">
+        <v>0</v>
+      </c>
+      <c r="O68">
+        <v>0</v>
+      </c>
+      <c r="P68">
+        <v>0</v>
+      </c>
+      <c r="R68" t="str">
+        <f t="shared" si="36"/>
+        <v>(67,'Geotargeting',6,5,0.774,0.253,-0.015,0,0,0),</v>
+      </c>
+    </row>
+    <row r="69" spans="1:18">
+      <c r="B69" t="s">
+        <v>85</v>
+      </c>
+      <c r="C69">
+        <v>763</v>
+      </c>
+      <c r="D69">
+        <v>268</v>
+      </c>
+      <c r="E69">
+        <f t="shared" si="32"/>
+        <v>0.76300000000000001</v>
+      </c>
+      <c r="F69">
+        <f t="shared" si="33"/>
+        <v>0.26800000000000002</v>
+      </c>
+      <c r="G69">
+        <v>68</v>
+      </c>
+      <c r="H69" t="str">
+        <f t="shared" si="29"/>
+        <v>Campaign Management</v>
+      </c>
+      <c r="I69">
+        <v>6</v>
+      </c>
+      <c r="J69">
+        <f t="shared" si="26"/>
+        <v>6</v>
+      </c>
+      <c r="K69">
+        <f t="shared" si="34"/>
+        <v>0.76300000000000001</v>
+      </c>
+      <c r="L69">
+        <f t="shared" si="35"/>
+        <v>0.26800000000000002</v>
+      </c>
+      <c r="M69">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="N69">
+        <v>0</v>
+      </c>
+      <c r="O69">
+        <v>0</v>
+      </c>
+      <c r="P69">
+        <v>0</v>
+      </c>
+      <c r="R69" t="str">
+        <f t="shared" si="36"/>
+        <v>(68,'Campaign Management',6,6,0.763,0.268,0.015,0,0,0),</v>
+      </c>
+    </row>
+    <row r="70" spans="1:18">
+      <c r="B70" t="s">
+        <v>86</v>
+      </c>
+      <c r="C70">
+        <v>752</v>
+      </c>
+      <c r="D70">
+        <v>283</v>
+      </c>
+      <c r="E70">
+        <f t="shared" si="32"/>
+        <v>0.752</v>
+      </c>
+      <c r="F70">
+        <f t="shared" si="33"/>
+        <v>0.28299999999999997</v>
+      </c>
+      <c r="G70">
+        <v>69</v>
+      </c>
+      <c r="H70" t="str">
+        <f t="shared" si="29"/>
+        <v>Display Advertising</v>
+      </c>
+      <c r="I70">
+        <v>6</v>
+      </c>
+      <c r="J70">
+        <f t="shared" si="26"/>
+        <v>7</v>
+      </c>
+      <c r="K70">
+        <f t="shared" si="34"/>
+        <v>0.752</v>
+      </c>
+      <c r="L70">
+        <f t="shared" si="35"/>
+        <v>0.28299999999999997</v>
+      </c>
+      <c r="M70">
+        <v>-1.4999999999999999E-2</v>
+      </c>
+      <c r="N70">
+        <v>0</v>
+      </c>
+      <c r="O70">
+        <v>0</v>
+      </c>
+      <c r="P70">
+        <v>0</v>
+      </c>
+      <c r="R70" t="str">
+        <f t="shared" si="36"/>
+        <v>(69,'Display Advertising',6,7,0.752,0.283,-0.015,0,0,0),</v>
+      </c>
+    </row>
+    <row r="71" spans="1:18">
+      <c r="B71" t="s">
+        <v>88</v>
+      </c>
+      <c r="C71">
+        <v>741</v>
+      </c>
+      <c r="D71">
+        <v>298</v>
+      </c>
+      <c r="E71">
+        <f t="shared" si="32"/>
+        <v>0.74099999999999999</v>
+      </c>
+      <c r="F71">
+        <f t="shared" si="33"/>
+        <v>0.29799999999999999</v>
+      </c>
+      <c r="G71">
+        <v>70</v>
+      </c>
+      <c r="H71" t="str">
+        <f t="shared" si="29"/>
+        <v>Videos Ads</v>
+      </c>
+      <c r="I71">
+        <v>6</v>
+      </c>
+      <c r="J71">
+        <f t="shared" si="26"/>
+        <v>8</v>
+      </c>
+      <c r="K71">
+        <f t="shared" si="34"/>
+        <v>0.74099999999999999</v>
+      </c>
+      <c r="L71">
+        <f t="shared" si="35"/>
+        <v>0.29799999999999999</v>
+      </c>
+      <c r="M71">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="N71">
+        <v>0</v>
+      </c>
+      <c r="O71">
+        <v>0</v>
+      </c>
+      <c r="P71">
+        <v>0</v>
+      </c>
+      <c r="R71" t="str">
+        <f t="shared" si="36"/>
+        <v>(70,'Videos Ads',6,8,0.741,0.298,0.015,0,0,0),</v>
+      </c>
+    </row>
+    <row r="72" spans="1:18">
+      <c r="B72" t="s">
+        <v>87</v>
+      </c>
+      <c r="C72">
+        <v>730</v>
+      </c>
+      <c r="D72">
+        <v>313</v>
+      </c>
+      <c r="E72">
+        <f t="shared" si="32"/>
+        <v>0.73</v>
+      </c>
+      <c r="F72">
+        <f t="shared" si="33"/>
+        <v>0.313</v>
+      </c>
+      <c r="G72">
+        <v>71</v>
+      </c>
+      <c r="H72" t="str">
+        <f t="shared" si="29"/>
+        <v>Bing Ads</v>
+      </c>
+      <c r="I72">
+        <v>6</v>
+      </c>
+      <c r="J72">
+        <f t="shared" si="26"/>
+        <v>9</v>
+      </c>
+      <c r="K72">
+        <f t="shared" si="34"/>
+        <v>0.73</v>
+      </c>
+      <c r="L72">
+        <f t="shared" si="35"/>
+        <v>0.313</v>
+      </c>
+      <c r="M72">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="N72">
+        <v>0</v>
+      </c>
+      <c r="O72">
+        <v>0</v>
+      </c>
+      <c r="P72">
+        <v>0</v>
+      </c>
+      <c r="R72" t="str">
+        <f t="shared" si="36"/>
+        <v>(71,'Bing Ads',6,9,0.73,0.313,0.015,0,0,0),</v>
+      </c>
+    </row>
+    <row r="73" spans="1:18">
+      <c r="B73" t="s">
+        <v>89</v>
+      </c>
+      <c r="C73">
+        <v>710</v>
+      </c>
+      <c r="D73">
+        <v>325</v>
+      </c>
+      <c r="E73">
+        <f t="shared" si="32"/>
+        <v>0.71</v>
+      </c>
+      <c r="F73">
+        <f t="shared" si="33"/>
+        <v>0.32500000000000001</v>
+      </c>
+      <c r="G73">
+        <v>72</v>
+      </c>
+      <c r="H73" t="str">
+        <f t="shared" ref="H73:H75" si="37">IF(P73=0,B73,"")</f>
+        <v>Conversion Tracking</v>
+      </c>
+      <c r="I73">
+        <v>6</v>
+      </c>
+      <c r="J73">
+        <f t="shared" ref="J73:J75" si="38">IF(I73=I72,J72+1,1)</f>
+        <v>10</v>
+      </c>
+      <c r="K73">
+        <f t="shared" si="34"/>
+        <v>0.71</v>
+      </c>
+      <c r="L73">
+        <f t="shared" si="35"/>
+        <v>0.32500000000000001</v>
+      </c>
+      <c r="M73">
+        <v>0</v>
+      </c>
+      <c r="N73">
+        <v>0.01</v>
+      </c>
+      <c r="O73">
+        <v>0</v>
+      </c>
+      <c r="P73">
+        <v>0</v>
+      </c>
+      <c r="R73" t="str">
+        <f t="shared" si="36"/>
+        <v>(72,'Conversion Tracking',6,10,0.71,0.325,0,0.01,0,0),</v>
+      </c>
+    </row>
+    <row r="74" spans="1:18">
+      <c r="B74" t="s">
+        <v>90</v>
+      </c>
+      <c r="C74">
+        <v>685</v>
+      </c>
+      <c r="D74">
+        <v>325</v>
+      </c>
+      <c r="E74">
+        <f t="shared" si="32"/>
+        <v>0.68500000000000005</v>
+      </c>
+      <c r="F74">
+        <f t="shared" si="33"/>
+        <v>0.32500000000000001</v>
+      </c>
+      <c r="G74">
+        <v>73</v>
+      </c>
+      <c r="H74" t="str">
+        <f t="shared" si="37"/>
+        <v>Google AdWords</v>
+      </c>
+      <c r="I74">
+        <v>6</v>
+      </c>
+      <c r="J74">
+        <f t="shared" si="38"/>
+        <v>11</v>
+      </c>
+      <c r="K74">
+        <f t="shared" si="34"/>
+        <v>0.68500000000000005</v>
+      </c>
+      <c r="L74">
+        <f t="shared" si="35"/>
+        <v>0.32500000000000001</v>
+      </c>
+      <c r="M74">
+        <v>0</v>
+      </c>
+      <c r="N74">
+        <v>-0.01</v>
+      </c>
+      <c r="O74">
+        <v>0</v>
+      </c>
+      <c r="P74">
+        <v>0</v>
+      </c>
+      <c r="R74" t="str">
+        <f t="shared" si="36"/>
+        <v>(73,'Google AdWords',6,11,0.685,0.325,0,-0.01,0,0),</v>
+      </c>
+    </row>
+    <row r="75" spans="1:18">
+      <c r="B75" t="s">
+        <v>91</v>
+      </c>
+      <c r="C75">
+        <v>660</v>
+      </c>
+      <c r="D75">
+        <v>325</v>
+      </c>
+      <c r="E75">
+        <f t="shared" ref="E75:E79" si="39">C75/1000</f>
+        <v>0.66</v>
+      </c>
+      <c r="F75">
+        <f t="shared" ref="F75:F79" si="40">D75/1000</f>
+        <v>0.32500000000000001</v>
+      </c>
+      <c r="G75">
+        <v>74</v>
+      </c>
+      <c r="H75" t="str">
+        <f t="shared" ref="H75:H77" si="41">IF(P75=0,B75,"")</f>
+        <v>Paid Traffic</v>
+      </c>
+      <c r="I75">
+        <v>6</v>
+      </c>
+      <c r="J75">
+        <f t="shared" ref="J75:J77" si="42">IF(I75=I74,J74+1,1)</f>
+        <v>12</v>
+      </c>
+      <c r="K75">
+        <f t="shared" ref="K75:K79" si="43">E75</f>
+        <v>0.66</v>
+      </c>
+      <c r="L75">
+        <f t="shared" ref="L75:L79" si="44">F75</f>
+        <v>0.32500000000000001</v>
+      </c>
+      <c r="M75">
+        <v>0</v>
+      </c>
+      <c r="N75">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="O75">
+        <v>74</v>
+      </c>
+      <c r="P75">
+        <v>0</v>
+      </c>
+      <c r="R75" t="str">
+        <f t="shared" si="36"/>
+        <v>(74,'Paid Traffic',6,12,0.66,0.325,0,0.015,74,0),</v>
+      </c>
+    </row>
+    <row r="76" spans="1:18">
+      <c r="B76" t="s">
+        <v>92</v>
+      </c>
+      <c r="C76" s="1">
+        <v>580</v>
+      </c>
+      <c r="D76" s="1">
+        <v>325</v>
+      </c>
+      <c r="E76">
+        <f t="shared" si="39"/>
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="F76">
+        <f t="shared" si="40"/>
+        <v>0.32500000000000001</v>
+      </c>
+      <c r="G76">
+        <v>75</v>
+      </c>
+      <c r="H76" t="str">
+        <f t="shared" si="41"/>
+        <v>Mobile Advertising</v>
+      </c>
+      <c r="I76">
+        <v>6</v>
+      </c>
+      <c r="J76">
+        <f t="shared" si="42"/>
+        <v>13</v>
+      </c>
+      <c r="K76">
+        <f t="shared" si="43"/>
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="L76">
+        <f t="shared" si="44"/>
+        <v>0.32500000000000001</v>
+      </c>
+      <c r="M76">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="N76">
+        <v>0.01</v>
+      </c>
+      <c r="O76">
+        <v>75</v>
+      </c>
+      <c r="P76">
+        <v>0</v>
+      </c>
+      <c r="R76" t="str">
+        <f t="shared" si="36"/>
+        <v>(75,'Mobile Advertising',6,13,0.58,0.325,0.005,0.01,75,0),</v>
+      </c>
+    </row>
+    <row r="77" spans="1:18">
+      <c r="B77" t="s">
+        <v>52</v>
+      </c>
+      <c r="C77" s="1">
+        <v>635</v>
+      </c>
+      <c r="D77" s="1">
+        <v>420</v>
+      </c>
+      <c r="E77">
+        <f t="shared" ref="E77:E84" si="45">C77/1000</f>
+        <v>0.63500000000000001</v>
+      </c>
+      <c r="F77">
+        <f t="shared" ref="F77:F84" si="46">D77/1000</f>
+        <v>0.42</v>
+      </c>
+      <c r="G77">
+        <v>76</v>
+      </c>
+      <c r="H77" t="str">
+        <f t="shared" ref="H77:H82" si="47">IF(P77=0,B77,"")</f>
+        <v/>
+      </c>
+      <c r="I77">
+        <v>6</v>
+      </c>
+      <c r="J77">
+        <f t="shared" si="42"/>
+        <v>14</v>
+      </c>
+      <c r="K77">
+        <f t="shared" si="43"/>
+        <v>0.63500000000000001</v>
+      </c>
+      <c r="L77">
+        <f t="shared" si="44"/>
+        <v>0.42</v>
+      </c>
+      <c r="M77">
+        <v>0</v>
+      </c>
+      <c r="N77">
+        <v>0</v>
+      </c>
+      <c r="O77">
+        <v>35</v>
+      </c>
+      <c r="P77">
+        <v>2</v>
+      </c>
+      <c r="R77" t="str">
+        <f t="shared" si="36"/>
+        <v>(76,'',6,14,0.635,0.42,0,0,35,2),</v>
+      </c>
+    </row>
+    <row r="78" spans="1:18">
+      <c r="A78" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B78" t="s">
+        <v>94</v>
+      </c>
+      <c r="C78">
+        <v>285</v>
+      </c>
+      <c r="D78">
+        <v>180</v>
+      </c>
+      <c r="E78">
+        <f t="shared" si="45"/>
+        <v>0.28499999999999998</v>
+      </c>
+      <c r="F78">
+        <f t="shared" si="46"/>
+        <v>0.18</v>
+      </c>
+      <c r="G78">
+        <v>77</v>
+      </c>
+      <c r="H78" t="str">
+        <f t="shared" si="47"/>
+        <v>Mobile Friendly</v>
+      </c>
+      <c r="I78">
+        <v>7</v>
+      </c>
+      <c r="J78">
+        <f t="shared" ref="J78:J82" si="48">IF(I78=I77,J77+1,1)</f>
+        <v>1</v>
+      </c>
+      <c r="K78">
+        <f t="shared" ref="K78:K84" si="49">E78</f>
+        <v>0.28499999999999998</v>
+      </c>
+      <c r="L78">
+        <f t="shared" ref="L78:L84" si="50">F78</f>
+        <v>0.18</v>
+      </c>
+      <c r="M78">
+        <v>0</v>
+      </c>
+      <c r="N78">
+        <v>0.01</v>
+      </c>
+      <c r="O78">
+        <v>0</v>
+      </c>
+      <c r="P78">
+        <v>0</v>
+      </c>
+      <c r="R78" t="str">
+        <f t="shared" si="36"/>
+        <v>(77,'Mobile Friendly',7,1,0.285,0.18,0,0.01,0,0),</v>
+      </c>
+    </row>
+    <row r="79" spans="1:18">
+      <c r="B79" t="s">
+        <v>93</v>
+      </c>
+      <c r="C79">
+        <v>320</v>
+      </c>
+      <c r="D79">
+        <v>180</v>
+      </c>
+      <c r="E79">
+        <f t="shared" si="45"/>
+        <v>0.32</v>
+      </c>
+      <c r="F79">
+        <f t="shared" si="46"/>
+        <v>0.18</v>
+      </c>
+      <c r="G79">
+        <v>78</v>
+      </c>
+      <c r="H79" t="str">
+        <f t="shared" si="47"/>
+        <v>Location Based Services</v>
+      </c>
+      <c r="I79">
+        <v>7</v>
+      </c>
+      <c r="J79">
+        <f t="shared" si="48"/>
+        <v>2</v>
+      </c>
+      <c r="K79">
+        <f t="shared" si="49"/>
+        <v>0.32</v>
+      </c>
+      <c r="L79">
+        <f t="shared" si="50"/>
+        <v>0.18</v>
+      </c>
+      <c r="M79">
+        <v>0</v>
+      </c>
+      <c r="N79">
+        <v>-0.01</v>
+      </c>
+      <c r="O79">
+        <v>0</v>
+      </c>
+      <c r="P79">
+        <v>0</v>
+      </c>
+      <c r="R79" t="str">
+        <f t="shared" si="36"/>
+        <v>(78,'Location Based Services',7,2,0.32,0.18,0,-0.01,0,0),</v>
+      </c>
+    </row>
+    <row r="80" spans="1:18">
+      <c r="B80" t="s">
+        <v>95</v>
+      </c>
+      <c r="C80">
+        <v>355</v>
+      </c>
+      <c r="D80">
+        <v>180</v>
+      </c>
+      <c r="E80">
+        <f t="shared" si="45"/>
+        <v>0.35499999999999998</v>
+      </c>
+      <c r="F80">
+        <f t="shared" si="46"/>
+        <v>0.18</v>
+      </c>
+      <c r="G80">
+        <v>79</v>
+      </c>
+      <c r="H80" t="str">
+        <f t="shared" si="47"/>
+        <v>iBeacons</v>
+      </c>
+      <c r="I80">
+        <v>7</v>
+      </c>
+      <c r="J80">
+        <f t="shared" si="48"/>
+        <v>3</v>
+      </c>
+      <c r="K80">
+        <f t="shared" si="49"/>
+        <v>0.35499999999999998</v>
+      </c>
+      <c r="L80">
+        <f t="shared" si="50"/>
+        <v>0.18</v>
+      </c>
+      <c r="M80">
+        <v>0</v>
+      </c>
+      <c r="N80">
+        <v>0.01</v>
+      </c>
+      <c r="O80">
+        <v>0</v>
+      </c>
+      <c r="P80">
+        <v>0</v>
+      </c>
+      <c r="R80" t="str">
+        <f t="shared" si="36"/>
+        <v>(79,'iBeacons',7,3,0.355,0.18,0,0.01,0,0),</v>
+      </c>
+    </row>
+    <row r="81" spans="1:18">
+      <c r="B81" t="s">
+        <v>96</v>
+      </c>
+      <c r="C81">
+        <v>390</v>
+      </c>
+      <c r="D81">
+        <v>180</v>
+      </c>
+      <c r="E81">
+        <f t="shared" si="45"/>
+        <v>0.39</v>
+      </c>
+      <c r="F81">
+        <f t="shared" si="46"/>
+        <v>0.18</v>
+      </c>
+      <c r="G81">
+        <v>80</v>
+      </c>
+      <c r="H81" t="str">
+        <f t="shared" si="47"/>
+        <v>Responsive Web Design</v>
+      </c>
+      <c r="I81">
+        <v>7</v>
+      </c>
+      <c r="J81">
+        <f t="shared" si="48"/>
+        <v>4</v>
+      </c>
+      <c r="K81">
+        <f t="shared" si="49"/>
+        <v>0.39</v>
+      </c>
+      <c r="L81">
+        <f t="shared" si="50"/>
+        <v>0.18</v>
+      </c>
+      <c r="M81">
+        <v>0</v>
+      </c>
+      <c r="N81">
+        <v>-0.01</v>
+      </c>
+      <c r="O81">
+        <v>0</v>
+      </c>
+      <c r="P81">
+        <v>0</v>
+      </c>
+      <c r="R81" t="str">
+        <f t="shared" si="36"/>
+        <v>(80,'Responsive Web Design',7,4,0.39,0.18,0,-0.01,0,0),</v>
+      </c>
+    </row>
+    <row r="82" spans="1:18">
+      <c r="B82" t="s">
+        <v>97</v>
+      </c>
+      <c r="C82">
+        <v>425</v>
+      </c>
+      <c r="D82">
+        <v>180</v>
+      </c>
+      <c r="E82">
+        <f t="shared" si="45"/>
+        <v>0.42499999999999999</v>
+      </c>
+      <c r="F82">
+        <f t="shared" si="46"/>
+        <v>0.18</v>
+      </c>
+      <c r="G82">
+        <v>81</v>
+      </c>
+      <c r="H82" t="str">
+        <f t="shared" si="47"/>
+        <v>Apps</v>
+      </c>
+      <c r="I82">
+        <v>7</v>
+      </c>
+      <c r="J82">
+        <f t="shared" si="48"/>
+        <v>5</v>
+      </c>
+      <c r="K82">
+        <f t="shared" si="49"/>
+        <v>0.42499999999999999</v>
+      </c>
+      <c r="L82">
+        <f t="shared" si="50"/>
+        <v>0.18</v>
+      </c>
+      <c r="M82">
+        <v>0</v>
+      </c>
+      <c r="N82">
+        <v>0.01</v>
+      </c>
+      <c r="O82">
+        <v>0</v>
+      </c>
+      <c r="P82">
+        <v>0</v>
+      </c>
+      <c r="R82" t="str">
+        <f t="shared" si="36"/>
+        <v>(81,'Apps',7,5,0.425,0.18,0,0.01,0,0),</v>
+      </c>
+    </row>
+    <row r="83" spans="1:18">
+      <c r="B83" t="s">
+        <v>98</v>
+      </c>
+      <c r="C83">
+        <v>460</v>
+      </c>
+      <c r="D83">
+        <v>195</v>
+      </c>
+      <c r="E83">
+        <f t="shared" ref="E83:E86" si="51">C83/1000</f>
+        <v>0.46</v>
+      </c>
+      <c r="F83">
+        <f t="shared" ref="F83:F86" si="52">D83/1000</f>
+        <v>0.19500000000000001</v>
+      </c>
+      <c r="G83">
+        <v>82</v>
+      </c>
+      <c r="H83" t="str">
+        <f t="shared" ref="H83:H88" si="53">IF(P83=0,B83,"")</f>
+        <v>Text Messaging</v>
+      </c>
+      <c r="I83">
+        <v>7</v>
+      </c>
+      <c r="J83">
+        <f t="shared" ref="J83:J86" si="54">IF(I83=I82,J82+1,1)</f>
+        <v>6</v>
+      </c>
+      <c r="K83">
+        <f t="shared" ref="K83:K86" si="55">E83</f>
+        <v>0.46</v>
+      </c>
+      <c r="L83">
+        <f t="shared" ref="L83:L86" si="56">F83</f>
+        <v>0.19500000000000001</v>
+      </c>
+      <c r="M83">
+        <v>-1.4999999999999999E-2</v>
+      </c>
+      <c r="N83">
+        <v>0</v>
+      </c>
+      <c r="O83">
+        <v>0</v>
+      </c>
+      <c r="P83">
+        <v>0</v>
+      </c>
+      <c r="R83" t="str">
+        <f t="shared" si="36"/>
+        <v>(82,'Text Messaging',7,6,0.46,0.195,-0.015,0,0,0),</v>
+      </c>
+    </row>
+    <row r="84" spans="1:18">
+      <c r="B84" t="s">
+        <v>99</v>
+      </c>
+      <c r="C84">
+        <v>473.5</v>
+      </c>
+      <c r="D84">
+        <v>209.5</v>
+      </c>
+      <c r="E84">
+        <f t="shared" si="51"/>
+        <v>0.47349999999999998</v>
+      </c>
+      <c r="F84">
+        <f t="shared" si="52"/>
+        <v>0.20949999999999999</v>
+      </c>
+      <c r="G84">
+        <v>83</v>
+      </c>
+      <c r="H84" t="str">
+        <f t="shared" si="53"/>
+        <v>Click to Cal</v>
+      </c>
+      <c r="I84">
+        <v>7</v>
+      </c>
+      <c r="J84">
+        <f t="shared" si="54"/>
+        <v>7</v>
+      </c>
+      <c r="K84">
+        <f t="shared" si="55"/>
+        <v>0.47349999999999998</v>
+      </c>
+      <c r="L84">
+        <f t="shared" si="56"/>
+        <v>0.20949999999999999</v>
+      </c>
+      <c r="M84">
+        <v>-1.4999999999999999E-2</v>
+      </c>
+      <c r="N84">
+        <v>0</v>
+      </c>
+      <c r="O84">
+        <v>0</v>
+      </c>
+      <c r="P84">
+        <v>0</v>
+      </c>
+      <c r="R84" t="str">
+        <f t="shared" si="36"/>
+        <v>(83,'Click to Cal',7,7,0.4735,0.2095,-0.015,0,0,0),</v>
+      </c>
+    </row>
+    <row r="85" spans="1:18">
+      <c r="B85" t="s">
+        <v>100</v>
+      </c>
+      <c r="C85">
+        <v>487</v>
+      </c>
+      <c r="D85">
+        <v>224</v>
+      </c>
+      <c r="E85">
+        <f t="shared" si="51"/>
+        <v>0.48699999999999999</v>
+      </c>
+      <c r="F85">
+        <f t="shared" si="52"/>
+        <v>0.224</v>
+      </c>
+      <c r="G85">
+        <v>84</v>
+      </c>
+      <c r="H85" t="str">
+        <f t="shared" si="53"/>
+        <v>Mobile Commerce</v>
+      </c>
+      <c r="I85">
+        <v>7</v>
+      </c>
+      <c r="J85">
+        <f t="shared" si="54"/>
+        <v>8</v>
+      </c>
+      <c r="K85">
+        <f t="shared" si="55"/>
+        <v>0.48699999999999999</v>
+      </c>
+      <c r="L85">
+        <f t="shared" si="56"/>
+        <v>0.224</v>
+      </c>
+      <c r="M85">
+        <v>-1.4999999999999999E-2</v>
+      </c>
+      <c r="N85">
+        <v>0</v>
+      </c>
+      <c r="O85">
+        <v>0</v>
+      </c>
+      <c r="P85">
+        <v>0</v>
+      </c>
+      <c r="R85" t="str">
+        <f t="shared" si="36"/>
+        <v>(84,'Mobile Commerce',7,8,0.487,0.224,-0.015,0,0,0),</v>
+      </c>
+    </row>
+    <row r="86" spans="1:18">
+      <c r="B86" t="s">
+        <v>101</v>
+      </c>
+      <c r="C86">
+        <v>500.5</v>
+      </c>
+      <c r="D86">
+        <v>238.5</v>
+      </c>
+      <c r="E86">
+        <f t="shared" si="51"/>
+        <v>0.50049999999999994</v>
+      </c>
+      <c r="F86">
+        <f t="shared" si="52"/>
+        <v>0.23849999999999999</v>
+      </c>
+      <c r="G86">
+        <v>85</v>
+      </c>
+      <c r="H86" t="str">
+        <f t="shared" si="53"/>
+        <v>SMS Marketing</v>
+      </c>
+      <c r="I86">
+        <v>7</v>
+      </c>
+      <c r="J86">
+        <f t="shared" si="54"/>
+        <v>9</v>
+      </c>
+      <c r="K86">
+        <f t="shared" si="55"/>
+        <v>0.50049999999999994</v>
+      </c>
+      <c r="L86">
+        <f t="shared" si="56"/>
+        <v>0.23849999999999999</v>
+      </c>
+      <c r="M86">
+        <v>-1.4999999999999999E-2</v>
+      </c>
+      <c r="N86">
+        <v>0</v>
+      </c>
+      <c r="O86">
+        <v>0</v>
+      </c>
+      <c r="P86">
+        <v>0</v>
+      </c>
+      <c r="R86" t="str">
+        <f t="shared" si="36"/>
+        <v>(85,'SMS Marketing',7,9,0.5005,0.2385,-0.015,0,0,0),</v>
+      </c>
+    </row>
+    <row r="87" spans="1:18">
+      <c r="B87" t="s">
+        <v>92</v>
+      </c>
+      <c r="C87" s="1">
+        <v>580</v>
+      </c>
+      <c r="D87" s="1">
+        <v>325</v>
+      </c>
+      <c r="E87">
+        <f t="shared" ref="E87:E91" si="57">C87/1000</f>
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="F87">
+        <f t="shared" ref="F87:F95" si="58">D87/1000</f>
+        <v>0.32500000000000001</v>
+      </c>
+      <c r="G87">
+        <v>86</v>
+      </c>
+      <c r="H87" t="str">
+        <f t="shared" si="53"/>
+        <v/>
+      </c>
+      <c r="I87">
+        <v>7</v>
+      </c>
+      <c r="J87">
+        <f t="shared" ref="J87:J88" si="59">IF(I87=I86,J86+1,1)</f>
+        <v>10</v>
+      </c>
+      <c r="K87">
+        <f t="shared" ref="K87:K91" si="60">E87</f>
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="L87">
+        <f t="shared" ref="L87:L95" si="61">F87</f>
+        <v>0.32500000000000001</v>
+      </c>
+      <c r="M87">
+        <v>0</v>
+      </c>
+      <c r="N87">
+        <v>0</v>
+      </c>
+      <c r="O87">
+        <v>75</v>
+      </c>
+      <c r="P87">
+        <v>1</v>
+      </c>
+      <c r="R87" t="str">
+        <f t="shared" si="36"/>
+        <v>(86,'',7,10,0.58,0.325,0,0,75,1),</v>
+      </c>
+    </row>
+    <row r="88" spans="1:18">
+      <c r="B88" t="s">
+        <v>102</v>
+      </c>
+      <c r="C88">
+        <v>500</v>
+      </c>
+      <c r="D88">
+        <v>325</v>
+      </c>
+      <c r="E88">
+        <f t="shared" si="57"/>
+        <v>0.5</v>
+      </c>
+      <c r="F88">
+        <f t="shared" si="58"/>
+        <v>0.32500000000000001</v>
+      </c>
+      <c r="G88">
+        <v>87</v>
+      </c>
+      <c r="H88" t="str">
+        <f t="shared" si="53"/>
+        <v>Call Tracking</v>
+      </c>
+      <c r="I88">
+        <v>7</v>
+      </c>
+      <c r="J88">
+        <f t="shared" si="59"/>
+        <v>11</v>
+      </c>
+      <c r="K88">
+        <f t="shared" si="60"/>
+        <v>0.5</v>
+      </c>
+      <c r="L88">
+        <f t="shared" si="61"/>
+        <v>0.32500000000000001</v>
+      </c>
+      <c r="M88">
+        <v>0</v>
+      </c>
+      <c r="N88">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="O88">
+        <v>87</v>
+      </c>
+      <c r="P88">
+        <v>0</v>
+      </c>
+      <c r="R88" t="str">
+        <f t="shared" si="36"/>
+        <v>(87,'Call Tracking',7,11,0.5,0.325,0,0.015,87,0),</v>
+      </c>
+    </row>
+    <row r="89" spans="1:18">
+      <c r="B89" t="s">
+        <v>103</v>
+      </c>
+      <c r="C89">
+        <v>440</v>
+      </c>
+      <c r="D89">
+        <v>515</v>
+      </c>
+      <c r="E89">
+        <f t="shared" si="57"/>
+        <v>0.44</v>
+      </c>
+      <c r="F89">
+        <f t="shared" si="58"/>
+        <v>0.51500000000000001</v>
+      </c>
+      <c r="G89">
+        <v>88</v>
+      </c>
+      <c r="H89" t="str">
+        <f t="shared" ref="H89:H91" si="62">IF(P89=0,B89,"")</f>
+        <v>Virtual Reality</v>
+      </c>
+      <c r="I89">
+        <v>7</v>
+      </c>
+      <c r="J89">
+        <f t="shared" ref="J89:J91" si="63">IF(I89=I88,J88+1,1)</f>
+        <v>12</v>
+      </c>
+      <c r="K89">
+        <f t="shared" si="60"/>
+        <v>0.44</v>
+      </c>
+      <c r="L89">
+        <f t="shared" si="61"/>
+        <v>0.51500000000000001</v>
+      </c>
+      <c r="M89">
+        <v>-1.4999999999999999E-2</v>
+      </c>
+      <c r="N89">
+        <v>0</v>
+      </c>
+      <c r="O89">
+        <v>0</v>
+      </c>
+      <c r="P89">
+        <v>0</v>
+      </c>
+      <c r="R89" t="str">
+        <f t="shared" si="36"/>
+        <v>(88,'Virtual Reality',7,12,0.44,0.515,-0.015,0,0,0),</v>
+      </c>
+    </row>
+    <row r="90" spans="1:18">
+      <c r="B90" t="s">
+        <v>104</v>
+      </c>
+      <c r="C90">
+        <v>440</v>
+      </c>
+      <c r="D90">
+        <v>540</v>
+      </c>
+      <c r="E90">
+        <f t="shared" si="57"/>
+        <v>0.44</v>
+      </c>
+      <c r="F90">
+        <f t="shared" si="58"/>
+        <v>0.54</v>
+      </c>
+      <c r="G90">
+        <v>89</v>
+      </c>
+      <c r="H90" t="str">
+        <f t="shared" si="62"/>
+        <v>Wearable Technology</v>
+      </c>
+      <c r="I90">
+        <v>7</v>
+      </c>
+      <c r="J90">
+        <f t="shared" si="63"/>
+        <v>13</v>
+      </c>
+      <c r="K90">
+        <f t="shared" si="60"/>
+        <v>0.44</v>
+      </c>
+      <c r="L90">
+        <f t="shared" si="61"/>
+        <v>0.54</v>
+      </c>
+      <c r="M90">
+        <v>-1.4999999999999999E-2</v>
+      </c>
+      <c r="N90">
+        <v>0</v>
+      </c>
+      <c r="O90">
+        <v>0</v>
+      </c>
+      <c r="P90">
+        <v>0</v>
+      </c>
+      <c r="R90" t="str">
+        <f t="shared" si="36"/>
+        <v>(89,'Wearable Technology',7,13,0.44,0.54,-0.015,0,0,0),</v>
+      </c>
+    </row>
+    <row r="91" spans="1:18">
+      <c r="B91" t="s">
+        <v>105</v>
+      </c>
+      <c r="C91">
+        <v>420</v>
+      </c>
+      <c r="D91">
+        <v>565</v>
+      </c>
+      <c r="E91">
+        <f t="shared" si="57"/>
+        <v>0.42</v>
+      </c>
+      <c r="F91">
+        <f t="shared" si="58"/>
+        <v>0.56499999999999995</v>
+      </c>
+      <c r="G91">
+        <v>90</v>
+      </c>
+      <c r="H91" t="str">
+        <f t="shared" si="62"/>
+        <v>Augmented Reality</v>
+      </c>
+      <c r="I91">
+        <v>7</v>
+      </c>
+      <c r="J91">
+        <f t="shared" si="63"/>
+        <v>14</v>
+      </c>
+      <c r="K91">
+        <f t="shared" si="60"/>
+        <v>0.42</v>
+      </c>
+      <c r="L91">
+        <f t="shared" si="61"/>
+        <v>0.56499999999999995</v>
+      </c>
+      <c r="M91">
+        <v>-1.4999999999999999E-2</v>
+      </c>
+      <c r="N91">
+        <v>0</v>
+      </c>
+      <c r="O91">
+        <v>0</v>
+      </c>
+      <c r="P91">
+        <v>0</v>
+      </c>
+      <c r="R91" t="str">
+        <f t="shared" si="36"/>
+        <v>(90,'Augmented Reality',7,14,0.42,0.565,-0.015,0,0,0),</v>
+      </c>
+    </row>
+    <row r="92" spans="1:18">
+      <c r="A92" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B92" t="s">
+        <v>106</v>
+      </c>
+      <c r="C92" s="1">
+        <v>230</v>
+      </c>
+      <c r="D92">
+        <v>340</v>
+      </c>
+      <c r="E92">
+        <f t="shared" ref="E92:E93" si="64">C92/1000</f>
+        <v>0.23</v>
+      </c>
+      <c r="F92">
+        <f t="shared" ref="F92:F93" si="65">D92/1000</f>
+        <v>0.34</v>
+      </c>
+      <c r="G92">
+        <v>91</v>
+      </c>
+      <c r="H92" t="str">
+        <f t="shared" ref="H92:H93" si="66">IF(P92=0,B92,"")</f>
+        <v>Call to Action</v>
+      </c>
+      <c r="I92">
+        <v>8</v>
+      </c>
+      <c r="J92">
+        <f t="shared" ref="J92:J93" si="67">IF(I92=I91,J91+1,1)</f>
+        <v>1</v>
+      </c>
+      <c r="K92">
+        <f t="shared" ref="K92:K93" si="68">E92</f>
+        <v>0.23</v>
+      </c>
+      <c r="L92">
+        <f t="shared" si="61"/>
+        <v>0.34</v>
+      </c>
+      <c r="M92">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="N92">
+        <v>0</v>
+      </c>
+      <c r="O92">
+        <v>0</v>
+      </c>
+      <c r="P92">
+        <v>0</v>
+      </c>
+      <c r="R92" t="str">
+        <f t="shared" si="36"/>
+        <v>(91,'Call to Action',8,1,0.23,0.34,0.015,0,0,0),</v>
+      </c>
+    </row>
+    <row r="93" spans="1:18">
+      <c r="B93" t="s">
+        <v>107</v>
+      </c>
+      <c r="C93" s="1">
+        <v>230</v>
+      </c>
+      <c r="D93">
+        <v>320</v>
+      </c>
+      <c r="E93">
+        <f t="shared" si="64"/>
+        <v>0.23</v>
+      </c>
+      <c r="F93">
+        <f t="shared" si="65"/>
+        <v>0.32</v>
+      </c>
+      <c r="G93">
+        <v>92</v>
+      </c>
+      <c r="H93" t="str">
+        <f t="shared" si="66"/>
+        <v>Trust Signals</v>
+      </c>
+      <c r="I93">
+        <v>8</v>
+      </c>
+      <c r="J93">
+        <f t="shared" si="67"/>
+        <v>2</v>
+      </c>
+      <c r="K93">
+        <f t="shared" si="68"/>
+        <v>0.23</v>
+      </c>
+      <c r="L93">
+        <f t="shared" si="61"/>
+        <v>0.32</v>
+      </c>
+      <c r="M93">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="N93">
+        <v>0</v>
+      </c>
+      <c r="O93">
+        <v>0</v>
+      </c>
+      <c r="P93">
+        <v>0</v>
+      </c>
+      <c r="R93" t="str">
+        <f t="shared" si="36"/>
+        <v>(92,'Trust Signals',8,2,0.23,0.32,0.015,0,0,0),</v>
+      </c>
+    </row>
+    <row r="94" spans="1:18">
+      <c r="B94" t="s">
+        <v>108</v>
+      </c>
+      <c r="C94" s="1">
+        <v>250</v>
+      </c>
+      <c r="D94">
+        <v>300</v>
+      </c>
+      <c r="E94">
+        <f t="shared" ref="E94:E107" si="69">C94/1000</f>
+        <v>0.25</v>
+      </c>
+      <c r="F94">
+        <f t="shared" ref="F94:F105" si="70">D94/1000</f>
+        <v>0.3</v>
+      </c>
+      <c r="G94">
+        <v>93</v>
+      </c>
+      <c r="H94" t="str">
+        <f t="shared" ref="H94:H129" si="71">IF(P94=0,B94,"")</f>
+        <v>Legal Compliance</v>
+      </c>
+      <c r="I94">
+        <v>8</v>
+      </c>
+      <c r="J94">
+        <f t="shared" ref="J94:J105" si="72">IF(I94=I93,J93+1,1)</f>
+        <v>3</v>
+      </c>
+      <c r="K94">
+        <f t="shared" ref="K94:K107" si="73">E94</f>
+        <v>0.25</v>
+      </c>
+      <c r="L94">
+        <f t="shared" ref="L94:L105" si="74">F94</f>
+        <v>0.3</v>
+      </c>
+      <c r="M94">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="N94">
+        <v>0</v>
+      </c>
+      <c r="O94">
+        <v>0</v>
+      </c>
+      <c r="P94">
+        <v>0</v>
+      </c>
+      <c r="R94" t="str">
+        <f t="shared" si="36"/>
+        <v>(93,'Legal Compliance',8,3,0.25,0.3,0.015,0,0,0),</v>
+      </c>
+    </row>
+    <row r="95" spans="1:18">
+      <c r="B95" t="s">
+        <v>109</v>
+      </c>
+      <c r="C95" s="1">
+        <v>250</v>
+      </c>
+      <c r="D95">
+        <v>280</v>
+      </c>
+      <c r="E95">
+        <f t="shared" si="69"/>
+        <v>0.25</v>
+      </c>
+      <c r="F95">
+        <f t="shared" si="70"/>
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="G95">
+        <v>94</v>
+      </c>
+      <c r="H95" t="str">
+        <f t="shared" si="71"/>
+        <v>User Experience</v>
+      </c>
+      <c r="I95">
+        <v>8</v>
+      </c>
+      <c r="J95">
+        <f t="shared" si="72"/>
+        <v>4</v>
+      </c>
+      <c r="K95">
+        <f t="shared" si="73"/>
+        <v>0.25</v>
+      </c>
+      <c r="L95">
+        <f t="shared" si="74"/>
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="M95">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="N95">
+        <v>0</v>
+      </c>
+      <c r="O95">
+        <v>0</v>
+      </c>
+      <c r="P95">
+        <v>0</v>
+      </c>
+      <c r="R95" t="str">
+        <f t="shared" si="36"/>
+        <v>(94,'User Experience',8,4,0.25,0.28,0.015,0,0,0),</v>
+      </c>
+    </row>
+    <row r="96" spans="1:18">
+      <c r="B96" t="s">
+        <v>63</v>
+      </c>
+      <c r="C96" s="1">
+        <v>200</v>
+      </c>
+      <c r="D96" s="1">
+        <v>275</v>
+      </c>
+      <c r="E96">
+        <f t="shared" si="69"/>
+        <v>0.2</v>
+      </c>
+      <c r="F96">
+        <f t="shared" si="70"/>
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="G96">
+        <v>95</v>
+      </c>
+      <c r="H96" t="str">
+        <f t="shared" si="71"/>
+        <v>Personalisation</v>
+      </c>
+      <c r="I96">
+        <v>8</v>
+      </c>
+      <c r="J96">
+        <f t="shared" si="72"/>
+        <v>5</v>
+      </c>
+      <c r="K96">
+        <f t="shared" si="73"/>
+        <v>0.2</v>
+      </c>
+      <c r="L96">
+        <f t="shared" si="74"/>
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="M96">
+        <v>0</v>
+      </c>
+      <c r="N96">
+        <v>0.01</v>
+      </c>
+      <c r="O96">
+        <v>0</v>
+      </c>
+      <c r="P96">
+        <v>0</v>
+      </c>
+      <c r="R96" t="str">
+        <f t="shared" si="36"/>
+        <v>(95,'Personalisation',8,5,0.2,0.275,0,0.01,0,0),</v>
+      </c>
+    </row>
+    <row r="97" spans="1:18">
+      <c r="B97" t="s">
+        <v>110</v>
+      </c>
+      <c r="C97" s="1">
+        <v>140</v>
+      </c>
+      <c r="D97" s="1">
+        <v>275</v>
+      </c>
+      <c r="E97">
+        <f t="shared" si="69"/>
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="F97">
+        <f t="shared" si="70"/>
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="G97">
+        <v>96</v>
+      </c>
+      <c r="H97" t="str">
+        <f t="shared" si="71"/>
+        <v>Usability</v>
+      </c>
+      <c r="I97">
+        <v>8</v>
+      </c>
+      <c r="J97">
+        <f t="shared" si="72"/>
+        <v>6</v>
+      </c>
+      <c r="K97">
+        <f t="shared" si="73"/>
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="L97">
+        <f t="shared" si="74"/>
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="M97">
+        <v>0</v>
+      </c>
+      <c r="N97">
+        <v>0.01</v>
+      </c>
+      <c r="O97">
+        <v>0</v>
+      </c>
+      <c r="P97">
+        <v>0</v>
+      </c>
+      <c r="R97" t="str">
+        <f t="shared" si="36"/>
+        <v>(96,'Usability',8,6,0.14,0.275,0,0.01,0,0),</v>
+      </c>
+    </row>
+    <row r="98" spans="1:18">
+      <c r="B98" t="s">
+        <v>111</v>
+      </c>
+      <c r="C98" s="1">
+        <v>85</v>
+      </c>
+      <c r="D98">
+        <v>310</v>
+      </c>
+      <c r="E98">
+        <f t="shared" si="69"/>
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="F98">
+        <f t="shared" si="70"/>
+        <v>0.31</v>
+      </c>
+      <c r="G98">
+        <v>97</v>
+      </c>
+      <c r="H98" t="str">
+        <f t="shared" si="71"/>
+        <v>Functionality</v>
+      </c>
+      <c r="I98">
+        <v>8</v>
+      </c>
+      <c r="J98">
+        <f t="shared" si="72"/>
+        <v>7</v>
+      </c>
+      <c r="K98">
+        <f t="shared" si="73"/>
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="L98">
+        <f t="shared" si="74"/>
+        <v>0.31</v>
+      </c>
+      <c r="M98">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="N98">
+        <v>0</v>
+      </c>
+      <c r="O98">
+        <v>0</v>
+      </c>
+      <c r="P98">
+        <v>0</v>
+      </c>
+      <c r="R98" t="str">
+        <f t="shared" si="36"/>
+        <v>(97,'Functionality',8,7,0.085,0.31,0.015,0,0,0),</v>
+      </c>
+    </row>
+    <row r="99" spans="1:18">
+      <c r="B99" t="s">
+        <v>112</v>
+      </c>
+      <c r="C99" s="1">
+        <v>85</v>
+      </c>
+      <c r="D99">
+        <v>335</v>
+      </c>
+      <c r="E99">
+        <f t="shared" si="69"/>
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="F99">
+        <f t="shared" si="70"/>
+        <v>0.33500000000000002</v>
+      </c>
+      <c r="G99">
+        <v>98</v>
+      </c>
+      <c r="H99" t="str">
+        <f t="shared" si="71"/>
+        <v>Conversion Rate Optimisation</v>
+      </c>
+      <c r="I99">
+        <v>8</v>
+      </c>
+      <c r="J99">
+        <f t="shared" si="72"/>
+        <v>8</v>
+      </c>
+      <c r="K99">
+        <f t="shared" si="73"/>
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="L99">
+        <f t="shared" si="74"/>
+        <v>0.33500000000000002</v>
+      </c>
+      <c r="M99">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="N99">
+        <v>0</v>
+      </c>
+      <c r="O99">
+        <v>0</v>
+      </c>
+      <c r="P99">
+        <v>0</v>
+      </c>
+      <c r="R99" t="str">
+        <f t="shared" si="36"/>
+        <v>(98,'Conversion Rate Optimisation',8,8,0.085,0.335,0.015,0,0,0),</v>
+      </c>
+    </row>
+    <row r="100" spans="1:18">
+      <c r="B100" t="s">
+        <v>113</v>
+      </c>
+      <c r="C100" s="1">
+        <v>130</v>
+      </c>
+      <c r="D100" s="1">
+        <v>365</v>
+      </c>
+      <c r="E100">
+        <f t="shared" si="69"/>
+        <v>0.13</v>
+      </c>
+      <c r="F100">
+        <f t="shared" si="70"/>
+        <v>0.36499999999999999</v>
+      </c>
+      <c r="G100">
+        <v>99</v>
+      </c>
+      <c r="H100" t="str">
+        <f t="shared" si="71"/>
+        <v>Ecommerce</v>
+      </c>
+      <c r="I100">
+        <v>8</v>
+      </c>
+      <c r="J100">
+        <f t="shared" si="72"/>
+        <v>9</v>
+      </c>
+      <c r="K100">
+        <f t="shared" si="73"/>
+        <v>0.13</v>
+      </c>
+      <c r="L100">
+        <f t="shared" si="74"/>
+        <v>0.36499999999999999</v>
+      </c>
+      <c r="M100">
+        <v>0</v>
+      </c>
+      <c r="N100">
+        <v>0.01</v>
+      </c>
+      <c r="O100">
+        <v>0</v>
+      </c>
+      <c r="P100">
+        <v>0</v>
+      </c>
+      <c r="R100" t="str">
+        <f t="shared" si="36"/>
+        <v>(99,'Ecommerce',8,9,0.13,0.365,0,0.01,0,0),</v>
+      </c>
+    </row>
+    <row r="101" spans="1:18">
+      <c r="B101" t="s">
+        <v>9</v>
+      </c>
+      <c r="C101" s="1">
+        <v>180</v>
+      </c>
+      <c r="D101" s="1">
+        <v>365</v>
+      </c>
+      <c r="E101">
+        <f t="shared" si="69"/>
+        <v>0.18</v>
+      </c>
+      <c r="F101">
+        <f t="shared" si="70"/>
+        <v>0.36499999999999999</v>
+      </c>
+      <c r="G101">
+        <v>100</v>
+      </c>
+      <c r="H101" t="str">
+        <f t="shared" si="71"/>
+        <v>Blogging</v>
+      </c>
+      <c r="I101">
+        <v>8</v>
+      </c>
+      <c r="J101">
+        <f t="shared" si="72"/>
+        <v>10</v>
+      </c>
+      <c r="K101">
+        <f t="shared" si="73"/>
+        <v>0.18</v>
+      </c>
+      <c r="L101">
+        <f t="shared" si="74"/>
+        <v>0.36499999999999999</v>
+      </c>
+      <c r="M101">
+        <v>0</v>
+      </c>
+      <c r="N101">
+        <v>0.01</v>
+      </c>
+      <c r="O101">
+        <v>0</v>
+      </c>
+      <c r="P101">
+        <v>0</v>
+      </c>
+      <c r="R101" t="str">
+        <f t="shared" si="36"/>
+        <v>(100,'Blogging',8,10,0.18,0.365,0,0.01,0,0),</v>
+      </c>
+    </row>
+    <row r="102" spans="1:18">
+      <c r="B102" t="s">
+        <v>114</v>
+      </c>
+      <c r="C102" s="1">
+        <v>355</v>
+      </c>
+      <c r="D102" s="1">
+        <v>415</v>
+      </c>
+      <c r="E102">
+        <f t="shared" si="69"/>
+        <v>0.35499999999999998</v>
+      </c>
+      <c r="F102">
+        <f t="shared" si="70"/>
+        <v>0.41499999999999998</v>
+      </c>
+      <c r="G102">
+        <v>101</v>
+      </c>
+      <c r="H102" t="str">
+        <f t="shared" si="71"/>
+        <v/>
+      </c>
+      <c r="I102">
+        <v>8</v>
+      </c>
+      <c r="J102">
+        <f t="shared" si="72"/>
+        <v>11</v>
+      </c>
+      <c r="K102">
+        <f t="shared" si="73"/>
+        <v>0.35499999999999998</v>
+      </c>
+      <c r="L102">
+        <f t="shared" si="74"/>
+        <v>0.41499999999999998</v>
+      </c>
+      <c r="M102">
+        <v>0</v>
+      </c>
+      <c r="N102">
+        <v>0</v>
+      </c>
+      <c r="O102">
+        <v>24</v>
+      </c>
+      <c r="P102">
+        <v>1</v>
+      </c>
+      <c r="R102" t="str">
+        <f t="shared" si="36"/>
+        <v>(101,'',8,11,0.355,0.415,0,0,24,1),</v>
+      </c>
+    </row>
+    <row r="103" spans="1:18">
+      <c r="B103" t="s">
+        <v>115</v>
+      </c>
+      <c r="C103" s="1">
+        <v>400</v>
+      </c>
+      <c r="D103" s="1">
+        <v>465</v>
+      </c>
+      <c r="E103">
+        <f t="shared" si="69"/>
+        <v>0.4</v>
+      </c>
+      <c r="F103">
+        <f t="shared" si="70"/>
+        <v>0.46500000000000002</v>
+      </c>
+      <c r="G103">
+        <v>102</v>
+      </c>
+      <c r="H103" t="str">
+        <f t="shared" si="71"/>
+        <v>Site Structure</v>
+      </c>
+      <c r="I103">
+        <v>8</v>
+      </c>
+      <c r="J103">
+        <f t="shared" si="72"/>
+        <v>12</v>
+      </c>
+      <c r="K103">
+        <f t="shared" si="73"/>
+        <v>0.4</v>
+      </c>
+      <c r="L103">
+        <f t="shared" si="74"/>
+        <v>0.46500000000000002</v>
+      </c>
+      <c r="M103">
+        <v>0</v>
+      </c>
+      <c r="N103">
+        <v>-1.4999999999999999E-2</v>
+      </c>
+      <c r="O103">
+        <v>102</v>
+      </c>
+      <c r="P103">
+        <v>0</v>
+      </c>
+      <c r="R103" t="str">
+        <f t="shared" si="36"/>
+        <v>(102,'Site Structure',8,12,0.4,0.465,0,-0.015,102,0),</v>
+      </c>
+    </row>
+    <row r="104" spans="1:18">
+      <c r="B104" t="s">
+        <v>116</v>
+      </c>
+      <c r="C104" s="1">
+        <v>515</v>
+      </c>
+      <c r="D104" s="1">
+        <v>465</v>
+      </c>
+      <c r="E104">
+        <f t="shared" si="69"/>
+        <v>0.51500000000000001</v>
+      </c>
+      <c r="F104">
+        <f t="shared" si="70"/>
+        <v>0.46500000000000002</v>
+      </c>
+      <c r="G104">
+        <v>103</v>
+      </c>
+      <c r="H104" t="str">
+        <f t="shared" si="71"/>
+        <v/>
+      </c>
+      <c r="I104">
+        <v>8</v>
+      </c>
+      <c r="J104">
+        <f t="shared" si="72"/>
+        <v>13</v>
+      </c>
+      <c r="K104">
+        <f t="shared" si="73"/>
+        <v>0.51500000000000001</v>
+      </c>
+      <c r="L104">
+        <f t="shared" si="74"/>
+        <v>0.46500000000000002</v>
+      </c>
+      <c r="M104">
+        <v>0</v>
+      </c>
+      <c r="N104">
+        <v>-1.4999999999999999E-2</v>
+      </c>
+      <c r="O104">
+        <v>122</v>
+      </c>
+      <c r="P104">
+        <v>1</v>
+      </c>
+      <c r="R104" t="str">
+        <f t="shared" si="36"/>
+        <v>(103,'',8,13,0.515,0.465,0,-0.015,122,1),</v>
+      </c>
+    </row>
+    <row r="105" spans="1:18">
+      <c r="B105" t="s">
+        <v>14</v>
+      </c>
+      <c r="C105" s="1">
+        <v>570</v>
+      </c>
+      <c r="D105" s="1">
+        <v>440</v>
+      </c>
+      <c r="E105">
+        <f t="shared" si="69"/>
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="F105">
+        <f t="shared" si="70"/>
+        <v>0.44</v>
+      </c>
+      <c r="G105">
+        <v>104</v>
+      </c>
+      <c r="H105" t="str">
+        <f t="shared" si="71"/>
+        <v/>
+      </c>
+      <c r="I105">
+        <v>8</v>
+      </c>
+      <c r="J105">
+        <f t="shared" si="72"/>
+        <v>14</v>
+      </c>
+      <c r="K105">
+        <f t="shared" si="73"/>
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="L105">
+        <f t="shared" si="74"/>
+        <v>0.44</v>
+      </c>
+      <c r="M105">
+        <v>0</v>
+      </c>
+      <c r="N105">
+        <v>0</v>
+      </c>
+      <c r="O105">
+        <v>10</v>
+      </c>
+      <c r="P105">
+        <v>1</v>
+      </c>
+      <c r="R105" t="str">
+        <f t="shared" si="36"/>
+        <v>(104,'',8,14,0.57,0.44,0,0,10,1),</v>
+      </c>
+    </row>
+    <row r="106" spans="1:18">
+      <c r="A106" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B106" t="s">
+        <v>46</v>
+      </c>
+      <c r="C106" s="1">
+        <v>110</v>
+      </c>
+      <c r="D106" s="1">
+        <v>455</v>
+      </c>
+      <c r="E106">
+        <f t="shared" ref="E106:E129" si="75">C106/1000</f>
+        <v>0.11</v>
+      </c>
+      <c r="F106">
+        <f t="shared" ref="F106:F123" si="76">D106/1000</f>
+        <v>0.45500000000000002</v>
+      </c>
+      <c r="G106">
+        <v>105</v>
+      </c>
+      <c r="H106" t="str">
+        <f t="shared" si="71"/>
+        <v>Audience</v>
+      </c>
+      <c r="I106">
+        <v>9</v>
+      </c>
+      <c r="J106">
+        <f t="shared" ref="J106:J122" si="77">IF(I106=I105,J105+1,1)</f>
+        <v>1</v>
+      </c>
+      <c r="K106">
+        <f t="shared" ref="K106:K122" si="78">E106</f>
+        <v>0.11</v>
+      </c>
+      <c r="L106">
+        <f t="shared" ref="L106:L122" si="79">F106</f>
+        <v>0.45500000000000002</v>
+      </c>
+      <c r="M106">
+        <v>0</v>
+      </c>
+      <c r="N106">
+        <v>-0.01</v>
+      </c>
+      <c r="O106">
+        <v>0</v>
+      </c>
+      <c r="P106">
+        <v>0</v>
+      </c>
+      <c r="R106" t="str">
+        <f t="shared" si="36"/>
+        <v>(105,'Audience',9,1,0.11,0.455,0,-0.01,0,0),</v>
+      </c>
+    </row>
+    <row r="107" spans="1:18">
+      <c r="B107" t="s">
+        <v>117</v>
+      </c>
+      <c r="C107" s="1">
+        <v>130</v>
+      </c>
+      <c r="D107" s="1">
+        <v>455</v>
+      </c>
+      <c r="E107">
+        <f t="shared" si="75"/>
+        <v>0.13</v>
+      </c>
+      <c r="F107">
+        <f t="shared" si="76"/>
+        <v>0.45500000000000002</v>
+      </c>
+      <c r="G107">
+        <v>106</v>
+      </c>
+      <c r="H107" t="str">
+        <f t="shared" si="71"/>
+        <v>Acquisition</v>
+      </c>
+      <c r="I107">
+        <v>9</v>
+      </c>
+      <c r="J107">
+        <f t="shared" si="77"/>
+        <v>2</v>
+      </c>
+      <c r="K107">
+        <f t="shared" si="78"/>
+        <v>0.13</v>
+      </c>
+      <c r="L107">
+        <f t="shared" si="79"/>
+        <v>0.45500000000000002</v>
+      </c>
+      <c r="M107">
+        <v>0</v>
+      </c>
+      <c r="N107">
+        <v>0.01</v>
+      </c>
+      <c r="O107">
+        <v>0</v>
+      </c>
+      <c r="P107">
+        <v>0</v>
+      </c>
+      <c r="R107" t="str">
+        <f t="shared" si="36"/>
+        <v>(106,'Acquisition',9,2,0.13,0.455,0,0.01,0,0),</v>
+      </c>
+    </row>
+    <row r="108" spans="1:18">
+      <c r="B108" t="s">
+        <v>118</v>
+      </c>
+      <c r="C108" s="1">
+        <v>150</v>
+      </c>
+      <c r="D108" s="1">
+        <v>455</v>
+      </c>
+      <c r="E108">
+        <f t="shared" si="75"/>
+        <v>0.15</v>
+      </c>
+      <c r="F108">
+        <f t="shared" si="76"/>
+        <v>0.45500000000000002</v>
+      </c>
+      <c r="G108">
+        <v>107</v>
+      </c>
+      <c r="H108" t="str">
+        <f t="shared" si="71"/>
+        <v>Behaviour</v>
+      </c>
+      <c r="I108">
+        <v>9</v>
+      </c>
+      <c r="J108">
+        <f t="shared" si="77"/>
+        <v>3</v>
+      </c>
+      <c r="K108">
+        <f t="shared" si="78"/>
+        <v>0.15</v>
+      </c>
+      <c r="L108">
+        <f t="shared" si="79"/>
+        <v>0.45500000000000002</v>
+      </c>
+      <c r="M108">
+        <v>0</v>
+      </c>
+      <c r="N108">
+        <v>-0.01</v>
+      </c>
+      <c r="O108">
+        <v>0</v>
+      </c>
+      <c r="P108">
+        <v>0</v>
+      </c>
+      <c r="R108" t="str">
+        <f t="shared" si="36"/>
+        <v>(107,'Behaviour',9,3,0.15,0.455,0,-0.01,0,0),</v>
+      </c>
+    </row>
+    <row r="109" spans="1:18">
+      <c r="B109" t="s">
+        <v>119</v>
+      </c>
+      <c r="C109" s="1">
+        <v>170</v>
+      </c>
+      <c r="D109" s="1">
+        <v>455</v>
+      </c>
+      <c r="E109">
+        <f t="shared" si="75"/>
+        <v>0.17</v>
+      </c>
+      <c r="F109">
+        <f t="shared" si="76"/>
+        <v>0.45500000000000002</v>
+      </c>
+      <c r="G109">
+        <v>108</v>
+      </c>
+      <c r="H109" t="str">
+        <f t="shared" si="71"/>
+        <v>Conversions</v>
+      </c>
+      <c r="I109">
+        <v>9</v>
+      </c>
+      <c r="J109">
+        <f t="shared" si="77"/>
+        <v>4</v>
+      </c>
+      <c r="K109">
+        <f t="shared" si="78"/>
+        <v>0.17</v>
+      </c>
+      <c r="L109">
+        <f t="shared" si="79"/>
+        <v>0.45500000000000002</v>
+      </c>
+      <c r="M109">
+        <v>0</v>
+      </c>
+      <c r="N109">
+        <v>0.01</v>
+      </c>
+      <c r="O109">
+        <v>0</v>
+      </c>
+      <c r="P109">
+        <v>0</v>
+      </c>
+      <c r="R109" t="str">
+        <f t="shared" si="36"/>
+        <v>(108,'Conversions',9,4,0.17,0.455,0,0.01,0,0),</v>
+      </c>
+    </row>
+    <row r="110" spans="1:18">
+      <c r="B110" t="s">
+        <v>120</v>
+      </c>
+      <c r="C110" s="1">
+        <v>190</v>
+      </c>
+      <c r="D110" s="1">
+        <v>455</v>
+      </c>
+      <c r="E110">
+        <f t="shared" si="75"/>
+        <v>0.19</v>
+      </c>
+      <c r="F110">
+        <f t="shared" si="76"/>
+        <v>0.45500000000000002</v>
+      </c>
+      <c r="G110">
+        <v>109</v>
+      </c>
+      <c r="H110" t="str">
+        <f t="shared" si="71"/>
+        <v>Views</v>
+      </c>
+      <c r="I110">
+        <v>9</v>
+      </c>
+      <c r="J110">
+        <f t="shared" si="77"/>
+        <v>5</v>
+      </c>
+      <c r="K110">
+        <f t="shared" si="78"/>
+        <v>0.19</v>
+      </c>
+      <c r="L110">
+        <f t="shared" si="79"/>
+        <v>0.45500000000000002</v>
+      </c>
+      <c r="M110">
+        <v>0</v>
+      </c>
+      <c r="N110">
+        <v>-0.01</v>
+      </c>
+      <c r="O110">
+        <v>0</v>
+      </c>
+      <c r="P110">
+        <v>0</v>
+      </c>
+      <c r="R110" t="str">
+        <f t="shared" si="36"/>
+        <v>(109,'Views',9,5,0.19,0.455,0,-0.01,0,0),</v>
+      </c>
+    </row>
+    <row r="111" spans="1:18">
+      <c r="B111" t="s">
+        <v>121</v>
+      </c>
+      <c r="C111" s="1">
+        <v>210</v>
+      </c>
+      <c r="D111" s="1">
+        <v>455</v>
+      </c>
+      <c r="E111">
+        <f t="shared" si="75"/>
+        <v>0.21</v>
+      </c>
+      <c r="F111">
+        <f t="shared" si="76"/>
+        <v>0.45500000000000002</v>
+      </c>
+      <c r="G111">
+        <v>110</v>
+      </c>
+      <c r="H111" t="str">
+        <f t="shared" si="71"/>
+        <v>Goals</v>
+      </c>
+      <c r="I111">
+        <v>9</v>
+      </c>
+      <c r="J111">
+        <f t="shared" si="77"/>
+        <v>6</v>
+      </c>
+      <c r="K111">
+        <f t="shared" si="78"/>
+        <v>0.21</v>
+      </c>
+      <c r="L111">
+        <f t="shared" si="79"/>
+        <v>0.45500000000000002</v>
+      </c>
+      <c r="M111">
+        <v>0</v>
+      </c>
+      <c r="N111">
+        <v>0.01</v>
+      </c>
+      <c r="O111">
+        <v>0</v>
+      </c>
+      <c r="P111">
+        <v>0</v>
+      </c>
+      <c r="R111" t="str">
+        <f t="shared" si="36"/>
+        <v>(110,'Goals',9,6,0.21,0.455,0,0.01,0,0),</v>
+      </c>
+    </row>
+    <row r="112" spans="1:18">
+      <c r="B112" t="s">
+        <v>122</v>
+      </c>
+      <c r="C112" s="1">
+        <v>230</v>
+      </c>
+      <c r="D112" s="1">
+        <v>455</v>
+      </c>
+      <c r="E112">
+        <f t="shared" si="75"/>
+        <v>0.23</v>
+      </c>
+      <c r="F112">
+        <f t="shared" si="76"/>
+        <v>0.45500000000000002</v>
+      </c>
+      <c r="G112">
+        <v>111</v>
+      </c>
+      <c r="H112" t="str">
+        <f t="shared" si="71"/>
+        <v>Custom Reports</v>
+      </c>
+      <c r="I112">
+        <v>9</v>
+      </c>
+      <c r="J112">
+        <f t="shared" si="77"/>
+        <v>7</v>
+      </c>
+      <c r="K112">
+        <f t="shared" si="78"/>
+        <v>0.23</v>
+      </c>
+      <c r="L112">
+        <f t="shared" si="79"/>
+        <v>0.45500000000000002</v>
+      </c>
+      <c r="M112">
+        <v>0.02</v>
+      </c>
+      <c r="N112">
+        <v>0</v>
+      </c>
+      <c r="O112">
+        <v>0</v>
+      </c>
+      <c r="P112">
+        <v>0</v>
+      </c>
+      <c r="R112" t="str">
+        <f t="shared" si="36"/>
+        <v>(111,'Custom Reports',9,7,0.23,0.455,0.02,0,0,0),</v>
+      </c>
+    </row>
+    <row r="113" spans="1:18">
+      <c r="B113" t="s">
+        <v>123</v>
+      </c>
+      <c r="C113" s="1">
+        <v>254</v>
+      </c>
+      <c r="D113" s="1">
+        <v>440</v>
+      </c>
+      <c r="E113">
+        <f t="shared" si="75"/>
+        <v>0.254</v>
+      </c>
+      <c r="F113">
+        <f t="shared" si="76"/>
+        <v>0.44</v>
+      </c>
+      <c r="G113">
+        <v>112</v>
+      </c>
+      <c r="H113" t="str">
+        <f t="shared" si="71"/>
+        <v>Dashboards</v>
+      </c>
+      <c r="I113">
+        <v>9</v>
+      </c>
+      <c r="J113">
+        <f t="shared" si="77"/>
+        <v>8</v>
+      </c>
+      <c r="K113">
+        <f t="shared" si="78"/>
+        <v>0.254</v>
+      </c>
+      <c r="L113">
+        <f t="shared" si="79"/>
+        <v>0.44</v>
+      </c>
+      <c r="M113">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="N113">
+        <v>0</v>
+      </c>
+      <c r="O113">
+        <v>0</v>
+      </c>
+      <c r="P113">
+        <v>0</v>
+      </c>
+      <c r="R113" t="str">
+        <f t="shared" si="36"/>
+        <v>(112,'Dashboards',9,8,0.254,0.44,0.015,0,0,0),</v>
+      </c>
+    </row>
+    <row r="114" spans="1:18">
+      <c r="B114" t="s">
+        <v>124</v>
+      </c>
+      <c r="C114" s="1">
+        <v>271</v>
+      </c>
+      <c r="D114" s="1">
+        <v>425</v>
+      </c>
+      <c r="E114">
+        <f t="shared" si="75"/>
+        <v>0.27100000000000002</v>
+      </c>
+      <c r="F114">
+        <f t="shared" si="76"/>
+        <v>0.42499999999999999</v>
+      </c>
+      <c r="G114">
+        <v>113</v>
+      </c>
+      <c r="H114" t="str">
+        <f t="shared" si="71"/>
+        <v>Real Time</v>
+      </c>
+      <c r="I114">
+        <v>9</v>
+      </c>
+      <c r="J114">
+        <f t="shared" si="77"/>
+        <v>9</v>
+      </c>
+      <c r="K114">
+        <f t="shared" si="78"/>
+        <v>0.27100000000000002</v>
+      </c>
+      <c r="L114">
+        <f t="shared" si="79"/>
+        <v>0.42499999999999999</v>
+      </c>
+      <c r="M114">
+        <v>-1.4999999999999999E-2</v>
+      </c>
+      <c r="N114">
+        <v>0</v>
+      </c>
+      <c r="O114">
+        <v>0</v>
+      </c>
+      <c r="P114">
+        <v>0</v>
+      </c>
+      <c r="R114" t="str">
+        <f t="shared" si="36"/>
+        <v>(113,'Real Time',9,9,0.271,0.425,-0.015,0,0,0),</v>
+      </c>
+    </row>
+    <row r="115" spans="1:18">
+      <c r="B115" t="s">
+        <v>125</v>
+      </c>
+      <c r="C115" s="1">
+        <v>305</v>
+      </c>
+      <c r="D115" s="1">
+        <v>415</v>
+      </c>
+      <c r="E115">
+        <f t="shared" si="75"/>
+        <v>0.30499999999999999</v>
+      </c>
+      <c r="F115">
+        <f t="shared" si="76"/>
+        <v>0.41499999999999998</v>
+      </c>
+      <c r="G115">
+        <v>114</v>
+      </c>
+      <c r="H115" t="str">
+        <f t="shared" si="71"/>
+        <v>Filters</v>
+      </c>
+      <c r="I115">
+        <v>9</v>
+      </c>
+      <c r="J115">
+        <f t="shared" si="77"/>
+        <v>10</v>
+      </c>
+      <c r="K115">
+        <f t="shared" si="78"/>
+        <v>0.30499999999999999</v>
+      </c>
+      <c r="L115">
+        <f t="shared" si="79"/>
+        <v>0.41499999999999998</v>
+      </c>
+      <c r="M115">
+        <v>0</v>
+      </c>
+      <c r="N115">
+        <v>-0.01</v>
+      </c>
+      <c r="O115">
+        <v>0</v>
+      </c>
+      <c r="P115">
+        <v>0</v>
+      </c>
+      <c r="R115" t="str">
+        <f t="shared" si="36"/>
+        <v>(114,'Filters',9,10,0.305,0.415,0,-0.01,0,0),</v>
+      </c>
+    </row>
+    <row r="116" spans="1:18">
+      <c r="B116" t="s">
+        <v>40</v>
+      </c>
+      <c r="C116" s="1">
+        <v>355</v>
+      </c>
+      <c r="D116" s="1">
+        <v>415</v>
+      </c>
+      <c r="E116">
+        <f t="shared" si="75"/>
+        <v>0.35499999999999998</v>
+      </c>
+      <c r="F116">
+        <f t="shared" si="76"/>
+        <v>0.41499999999999998</v>
+      </c>
+      <c r="G116">
+        <v>115</v>
+      </c>
+      <c r="H116" t="str">
+        <f t="shared" si="71"/>
+        <v/>
+      </c>
+      <c r="I116">
+        <v>9</v>
+      </c>
+      <c r="J116">
+        <f t="shared" si="77"/>
+        <v>11</v>
+      </c>
+      <c r="K116">
+        <f t="shared" si="78"/>
+        <v>0.35499999999999998</v>
+      </c>
+      <c r="L116">
+        <f t="shared" si="79"/>
+        <v>0.41499999999999998</v>
+      </c>
+      <c r="M116">
+        <v>0</v>
+      </c>
+      <c r="N116">
+        <v>0</v>
+      </c>
+      <c r="O116">
+        <v>24</v>
+      </c>
+      <c r="P116">
+        <v>2</v>
+      </c>
+      <c r="R116" t="str">
+        <f t="shared" si="36"/>
+        <v>(115,'',9,11,0.355,0.415,0,0,24,2),</v>
+      </c>
+    </row>
+    <row r="117" spans="1:18">
+      <c r="B117" t="s">
+        <v>42</v>
+      </c>
+      <c r="C117">
+        <v>355</v>
+      </c>
+      <c r="D117">
+        <v>350</v>
+      </c>
+      <c r="E117">
+        <f t="shared" si="75"/>
+        <v>0.35499999999999998</v>
+      </c>
+      <c r="F117">
+        <f t="shared" si="76"/>
+        <v>0.35</v>
+      </c>
+      <c r="G117">
+        <v>116</v>
+      </c>
+      <c r="H117" t="str">
+        <f t="shared" si="71"/>
+        <v/>
+      </c>
+      <c r="I117">
+        <v>9</v>
+      </c>
+      <c r="J117">
+        <f t="shared" si="77"/>
+        <v>12</v>
+      </c>
+      <c r="K117">
+        <f t="shared" si="78"/>
+        <v>0.35499999999999998</v>
+      </c>
+      <c r="L117">
+        <f t="shared" si="79"/>
+        <v>0.35</v>
+      </c>
+      <c r="M117">
+        <v>0</v>
+      </c>
+      <c r="N117">
+        <v>0</v>
+      </c>
+      <c r="O117">
+        <v>25</v>
+      </c>
+      <c r="P117">
+        <v>1</v>
+      </c>
+      <c r="R117" t="str">
+        <f t="shared" si="36"/>
+        <v>(116,'',9,12,0.355,0.35,0,0,25,1),</v>
+      </c>
+    </row>
+    <row r="118" spans="1:18">
+      <c r="B118" t="s">
+        <v>15</v>
+      </c>
+      <c r="C118">
+        <v>440</v>
+      </c>
+      <c r="D118">
+        <v>335</v>
+      </c>
+      <c r="E118">
+        <f t="shared" si="75"/>
+        <v>0.44</v>
+      </c>
+      <c r="F118">
+        <f t="shared" si="76"/>
+        <v>0.33500000000000002</v>
+      </c>
+      <c r="G118">
+        <v>117</v>
+      </c>
+      <c r="H118" t="str">
+        <f t="shared" si="71"/>
+        <v/>
+      </c>
+      <c r="I118">
+        <v>9</v>
+      </c>
+      <c r="J118">
+        <f t="shared" si="77"/>
+        <v>13</v>
+      </c>
+      <c r="K118">
+        <f t="shared" si="78"/>
+        <v>0.44</v>
+      </c>
+      <c r="L118">
+        <f t="shared" si="79"/>
+        <v>0.33500000000000002</v>
+      </c>
+      <c r="M118">
+        <v>0</v>
+      </c>
+      <c r="N118">
+        <v>0</v>
+      </c>
+      <c r="O118">
+        <v>11</v>
+      </c>
+      <c r="P118">
+        <v>2</v>
+      </c>
+      <c r="R118" t="str">
+        <f t="shared" si="36"/>
+        <v>(117,'',9,13,0.44,0.335,0,0,11,2),</v>
+      </c>
+    </row>
+    <row r="119" spans="1:18">
+      <c r="B119" t="s">
+        <v>102</v>
+      </c>
+      <c r="C119">
+        <v>500</v>
+      </c>
+      <c r="D119">
+        <v>335</v>
+      </c>
+      <c r="E119">
+        <f t="shared" si="75"/>
+        <v>0.5</v>
+      </c>
+      <c r="F119">
+        <f t="shared" si="76"/>
+        <v>0.33500000000000002</v>
+      </c>
+      <c r="G119">
+        <v>118</v>
+      </c>
+      <c r="H119" t="str">
+        <f t="shared" si="71"/>
+        <v/>
+      </c>
+      <c r="I119">
+        <v>9</v>
+      </c>
+      <c r="J119">
+        <f t="shared" si="77"/>
+        <v>14</v>
+      </c>
+      <c r="K119">
+        <f t="shared" si="78"/>
+        <v>0.5</v>
+      </c>
+      <c r="L119">
+        <f t="shared" si="79"/>
+        <v>0.33500000000000002</v>
+      </c>
+      <c r="M119">
+        <v>0</v>
+      </c>
+      <c r="N119">
+        <v>0</v>
+      </c>
+      <c r="O119">
+        <v>87</v>
+      </c>
+      <c r="P119">
+        <v>1</v>
+      </c>
+      <c r="R119" t="str">
+        <f t="shared" si="36"/>
+        <v>(118,'',9,14,0.5,0.335,0,0,87,1),</v>
+      </c>
+    </row>
+    <row r="120" spans="1:18">
+      <c r="B120" t="s">
+        <v>91</v>
+      </c>
+      <c r="C120">
+        <v>660</v>
+      </c>
+      <c r="D120">
+        <v>335</v>
+      </c>
+      <c r="E120">
+        <f t="shared" si="75"/>
+        <v>0.66</v>
+      </c>
+      <c r="F120">
+        <f t="shared" si="76"/>
+        <v>0.33500000000000002</v>
+      </c>
+      <c r="G120">
+        <v>119</v>
+      </c>
+      <c r="H120" t="str">
+        <f t="shared" si="71"/>
+        <v/>
+      </c>
+      <c r="I120">
+        <v>9</v>
+      </c>
+      <c r="J120">
+        <f t="shared" si="77"/>
+        <v>15</v>
+      </c>
+      <c r="K120">
+        <f t="shared" si="78"/>
+        <v>0.66</v>
+      </c>
+      <c r="L120">
+        <f t="shared" si="79"/>
+        <v>0.33500000000000002</v>
+      </c>
+      <c r="M120">
+        <v>0</v>
+      </c>
+      <c r="N120">
+        <v>0</v>
+      </c>
+      <c r="O120">
+        <v>74</v>
+      </c>
+      <c r="P120">
+        <v>1</v>
+      </c>
+      <c r="R120" t="str">
+        <f t="shared" si="36"/>
+        <v>(119,'',9,15,0.66,0.335,0,0,74,1),</v>
+      </c>
+    </row>
+    <row r="121" spans="1:18">
+      <c r="B121" t="s">
+        <v>64</v>
+      </c>
+      <c r="C121">
+        <v>685</v>
+      </c>
+      <c r="D121">
+        <v>420</v>
+      </c>
+      <c r="E121">
+        <f t="shared" si="75"/>
+        <v>0.68500000000000005</v>
+      </c>
+      <c r="F121">
+        <f t="shared" si="76"/>
+        <v>0.42</v>
+      </c>
+      <c r="G121">
+        <v>120</v>
+      </c>
+      <c r="H121" t="str">
+        <f t="shared" si="71"/>
+        <v/>
+      </c>
+      <c r="I121">
+        <v>9</v>
+      </c>
+      <c r="J121">
+        <f t="shared" si="77"/>
+        <v>16</v>
+      </c>
+      <c r="K121">
+        <f t="shared" si="78"/>
+        <v>0.68500000000000005</v>
+      </c>
+      <c r="L121">
+        <f t="shared" si="79"/>
+        <v>0.42</v>
+      </c>
+      <c r="M121">
+        <v>0</v>
+      </c>
+      <c r="N121">
+        <v>0</v>
+      </c>
+      <c r="O121">
+        <v>54</v>
+      </c>
+      <c r="P121">
+        <v>1</v>
+      </c>
+      <c r="R121" t="str">
+        <f t="shared" si="36"/>
+        <v>(120,'',9,16,0.685,0.42,0,0,54,1),</v>
+      </c>
+    </row>
+    <row r="122" spans="1:18">
+      <c r="B122" t="s">
+        <v>53</v>
+      </c>
+      <c r="C122">
+        <v>685</v>
+      </c>
+      <c r="D122">
+        <v>475</v>
+      </c>
+      <c r="E122">
+        <f t="shared" si="75"/>
+        <v>0.68500000000000005</v>
+      </c>
+      <c r="F122">
+        <f t="shared" si="76"/>
+        <v>0.47499999999999998</v>
+      </c>
+      <c r="G122">
+        <v>121</v>
+      </c>
+      <c r="H122" t="str">
+        <f t="shared" si="71"/>
+        <v/>
+      </c>
+      <c r="I122">
+        <v>9</v>
+      </c>
+      <c r="J122">
+        <f t="shared" si="77"/>
+        <v>17</v>
+      </c>
+      <c r="K122">
+        <f t="shared" si="78"/>
+        <v>0.68500000000000005</v>
+      </c>
+      <c r="L122">
+        <f t="shared" si="79"/>
+        <v>0.47499999999999998</v>
+      </c>
+      <c r="M122">
+        <v>0</v>
+      </c>
+      <c r="N122">
+        <v>0</v>
+      </c>
+      <c r="O122">
+        <v>37</v>
+      </c>
+      <c r="P122">
+        <v>1</v>
+      </c>
+      <c r="R122" t="str">
+        <f t="shared" si="36"/>
+        <v>(121,'',9,17,0.685,0.475,0,0,37,1),</v>
+      </c>
+    </row>
+    <row r="123" spans="1:18">
+      <c r="B123" t="s">
+        <v>116</v>
+      </c>
+      <c r="C123" s="1">
+        <v>515</v>
+      </c>
+      <c r="D123" s="1">
+        <v>475</v>
+      </c>
+      <c r="E123">
+        <f t="shared" si="75"/>
+        <v>0.51500000000000001</v>
+      </c>
+      <c r="F123">
+        <f t="shared" si="76"/>
+        <v>0.47499999999999998</v>
+      </c>
+      <c r="G123">
+        <v>122</v>
+      </c>
+      <c r="H123" t="str">
+        <f t="shared" si="71"/>
+        <v>Webmaster Tools</v>
+      </c>
+      <c r="I123">
+        <v>9</v>
+      </c>
+      <c r="J123">
+        <f t="shared" ref="J123" si="80">IF(I123=I122,J122+1,1)</f>
+        <v>18</v>
+      </c>
+      <c r="K123">
+        <f t="shared" ref="K123:K129" si="81">E123</f>
+        <v>0.51500000000000001</v>
+      </c>
+      <c r="L123">
+        <f t="shared" ref="L123" si="82">F123</f>
+        <v>0.47499999999999998</v>
+      </c>
+      <c r="M123">
+        <v>0</v>
+      </c>
+      <c r="N123">
+        <v>-2.5000000000000001E-2</v>
+      </c>
+      <c r="O123">
+        <v>122</v>
+      </c>
+      <c r="P123">
+        <v>0</v>
+      </c>
+      <c r="R123" t="str">
+        <f t="shared" si="36"/>
+        <v>(122,'Webmaster Tools',9,18,0.515,0.475,0,-0.025,122,0),</v>
+      </c>
+    </row>
+    <row r="124" spans="1:18">
+      <c r="A124" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B124" t="s">
+        <v>126</v>
+      </c>
+      <c r="C124">
+        <v>175</v>
+      </c>
+      <c r="D124" s="1">
+        <v>530</v>
+      </c>
+      <c r="E124">
+        <f t="shared" ref="E124:E132" si="83">C124/1000</f>
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="F124">
+        <f t="shared" ref="F124:F132" si="84">D124/1000</f>
+        <v>0.53</v>
+      </c>
+      <c r="G124">
+        <v>123</v>
+      </c>
+      <c r="H124" t="str">
+        <f t="shared" ref="H124:H132" si="85">IF(P124=0,B124,"")</f>
+        <v>On Page Factors</v>
+      </c>
+      <c r="I124">
+        <v>10</v>
+      </c>
+      <c r="J124">
+        <f t="shared" ref="J124:J132" si="86">IF(I124=I123,J123+1,1)</f>
+        <v>1</v>
+      </c>
+      <c r="K124">
+        <f t="shared" ref="K124:K132" si="87">E124</f>
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="L124">
+        <f t="shared" ref="L124:L132" si="88">F124</f>
+        <v>0.53</v>
+      </c>
+      <c r="M124">
+        <v>0</v>
+      </c>
+      <c r="N124">
+        <v>-0.01</v>
+      </c>
+      <c r="O124">
+        <v>0</v>
+      </c>
+      <c r="P124">
+        <v>0</v>
+      </c>
+      <c r="R124" t="str">
+        <f t="shared" si="36"/>
+        <v>(123,'On Page Factors',10,1,0.175,0.53,0,-0.01,0,0),</v>
+      </c>
+    </row>
+    <row r="125" spans="1:18">
+      <c r="B125" t="s">
+        <v>127</v>
+      </c>
+      <c r="C125">
+        <v>195</v>
+      </c>
+      <c r="D125" s="1">
+        <v>530</v>
+      </c>
+      <c r="E125">
+        <f t="shared" si="83"/>
+        <v>0.19500000000000001</v>
+      </c>
+      <c r="F125">
+        <f t="shared" si="84"/>
+        <v>0.53</v>
+      </c>
+      <c r="G125">
+        <v>124</v>
+      </c>
+      <c r="H125" t="str">
+        <f t="shared" si="85"/>
+        <v>schema.org</v>
+      </c>
+      <c r="I125">
+        <v>10</v>
+      </c>
+      <c r="J125">
+        <f t="shared" si="86"/>
+        <v>2</v>
+      </c>
+      <c r="K125">
+        <f t="shared" si="87"/>
+        <v>0.19500000000000001</v>
+      </c>
+      <c r="L125">
+        <f t="shared" si="88"/>
+        <v>0.53</v>
+      </c>
+      <c r="M125">
+        <v>0</v>
+      </c>
+      <c r="N125">
+        <v>0.01</v>
+      </c>
+      <c r="O125">
+        <v>0</v>
+      </c>
+      <c r="P125">
+        <v>0</v>
+      </c>
+      <c r="R125" t="str">
+        <f t="shared" si="36"/>
+        <v>(124,'schema.org',10,2,0.195,0.53,0,0.01,0,0),</v>
+      </c>
+    </row>
+    <row r="126" spans="1:18">
+      <c r="B126" t="s">
+        <v>128</v>
+      </c>
+      <c r="C126">
+        <v>215</v>
+      </c>
+      <c r="D126" s="1">
+        <v>530</v>
+      </c>
+      <c r="E126">
+        <f t="shared" si="83"/>
+        <v>0.215</v>
+      </c>
+      <c r="F126">
+        <f t="shared" si="84"/>
+        <v>0.53</v>
+      </c>
+      <c r="G126">
+        <v>125</v>
+      </c>
+      <c r="H126" t="str">
+        <f t="shared" si="85"/>
+        <v>Sitemaps</v>
+      </c>
+      <c r="I126">
+        <v>10</v>
+      </c>
+      <c r="J126">
+        <f t="shared" si="86"/>
+        <v>3</v>
+      </c>
+      <c r="K126">
+        <f t="shared" si="87"/>
+        <v>0.215</v>
+      </c>
+      <c r="L126">
+        <f t="shared" si="88"/>
+        <v>0.53</v>
+      </c>
+      <c r="M126">
+        <v>0</v>
+      </c>
+      <c r="N126">
+        <v>-0.01</v>
+      </c>
+      <c r="O126">
+        <v>0</v>
+      </c>
+      <c r="P126">
+        <v>0</v>
+      </c>
+      <c r="R126" t="str">
+        <f t="shared" si="36"/>
+        <v>(125,'Sitemaps',10,3,0.215,0.53,0,-0.01,0,0),</v>
+      </c>
+    </row>
+    <row r="127" spans="1:18">
+      <c r="B127" t="s">
+        <v>129</v>
+      </c>
+      <c r="C127">
+        <v>236.3</v>
+      </c>
+      <c r="D127" s="1">
+        <v>520</v>
+      </c>
+      <c r="E127">
+        <f t="shared" si="83"/>
+        <v>0.23630000000000001</v>
+      </c>
+      <c r="F127">
+        <f t="shared" si="84"/>
+        <v>0.52</v>
+      </c>
+      <c r="G127">
+        <v>126</v>
+      </c>
+      <c r="H127" t="str">
+        <f t="shared" si="85"/>
+        <v>Technical Audit</v>
+      </c>
+      <c r="I127">
+        <v>10</v>
+      </c>
+      <c r="J127">
+        <f t="shared" si="86"/>
+        <v>4</v>
+      </c>
+      <c r="K127">
+        <f t="shared" si="87"/>
+        <v>0.23630000000000001</v>
+      </c>
+      <c r="L127">
+        <f t="shared" si="88"/>
+        <v>0.52</v>
+      </c>
+      <c r="M127">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="N127">
+        <v>0</v>
+      </c>
+      <c r="O127">
+        <v>0</v>
+      </c>
+      <c r="P127">
+        <v>0</v>
+      </c>
+      <c r="R127" t="str">
+        <f t="shared" si="36"/>
+        <v>(126,'Technical Audit',10,4,0.2363,0.52,0.015,0,0,0),</v>
+      </c>
+    </row>
+    <row r="128" spans="1:18">
+      <c r="B128" t="s">
+        <v>130</v>
+      </c>
+      <c r="C128">
+        <v>259</v>
+      </c>
+      <c r="D128" s="1">
+        <v>500</v>
+      </c>
+      <c r="E128">
+        <f t="shared" si="83"/>
+        <v>0.25900000000000001</v>
+      </c>
+      <c r="F128">
+        <f t="shared" si="84"/>
+        <v>0.5</v>
+      </c>
+      <c r="G128">
+        <v>127</v>
+      </c>
+      <c r="H128" t="str">
+        <f t="shared" si="85"/>
+        <v>International SEO</v>
+      </c>
+      <c r="I128">
+        <v>10</v>
+      </c>
+      <c r="J128">
+        <f t="shared" si="86"/>
+        <v>5</v>
+      </c>
+      <c r="K128">
+        <f t="shared" si="87"/>
+        <v>0.25900000000000001</v>
+      </c>
+      <c r="L128">
+        <f t="shared" si="88"/>
+        <v>0.5</v>
+      </c>
+      <c r="M128">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="N128">
+        <v>0</v>
+      </c>
+      <c r="O128">
+        <v>0</v>
+      </c>
+      <c r="P128">
+        <v>0</v>
+      </c>
+      <c r="R128" t="str">
+        <f t="shared" si="36"/>
+        <v>(127,'International SEO',10,5,0.259,0.5,0.015,0,0,0),</v>
+      </c>
+    </row>
+    <row r="129" spans="2:18">
+      <c r="B129" t="s">
+        <v>131</v>
+      </c>
+      <c r="C129">
+        <v>281.60000000000002</v>
+      </c>
+      <c r="D129" s="1">
+        <v>480</v>
+      </c>
+      <c r="E129">
+        <f t="shared" si="83"/>
+        <v>0.28160000000000002</v>
+      </c>
+      <c r="F129">
+        <f t="shared" si="84"/>
+        <v>0.48</v>
+      </c>
+      <c r="G129">
+        <v>128</v>
+      </c>
+      <c r="H129" t="str">
+        <f t="shared" si="85"/>
+        <v>robots.txt</v>
+      </c>
+      <c r="I129">
+        <v>10</v>
+      </c>
+      <c r="J129">
+        <f t="shared" si="86"/>
+        <v>6</v>
+      </c>
+      <c r="K129">
+        <f t="shared" si="87"/>
+        <v>0.28160000000000002</v>
+      </c>
+      <c r="L129">
+        <f t="shared" si="88"/>
+        <v>0.48</v>
+      </c>
+      <c r="M129">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="N129">
+        <v>0</v>
+      </c>
+      <c r="O129">
+        <v>0</v>
+      </c>
+      <c r="P129">
+        <v>0</v>
+      </c>
+      <c r="R129" t="str">
+        <f t="shared" si="36"/>
+        <v>(128,'robots.txt',10,6,0.2816,0.48,0.015,0,0,0),</v>
+      </c>
+    </row>
+    <row r="130" spans="2:18">
+      <c r="B130" t="s">
+        <v>40</v>
+      </c>
+      <c r="C130" s="1">
+        <v>355</v>
+      </c>
+      <c r="D130" s="1">
+        <v>415</v>
+      </c>
+      <c r="E130">
+        <f t="shared" si="83"/>
+        <v>0.35499999999999998</v>
+      </c>
+      <c r="F130">
+        <f t="shared" si="84"/>
+        <v>0.41499999999999998</v>
+      </c>
+      <c r="G130">
+        <v>129</v>
+      </c>
+      <c r="H130" t="str">
+        <f t="shared" si="85"/>
+        <v/>
+      </c>
+      <c r="I130">
+        <v>10</v>
+      </c>
+      <c r="J130">
+        <f t="shared" si="86"/>
+        <v>7</v>
+      </c>
+      <c r="K130">
+        <f t="shared" si="87"/>
+        <v>0.35499999999999998</v>
+      </c>
+      <c r="L130">
+        <f t="shared" si="88"/>
+        <v>0.41499999999999998</v>
+      </c>
+      <c r="M130">
+        <v>0</v>
+      </c>
+      <c r="N130">
+        <v>0</v>
+      </c>
+      <c r="O130">
+        <v>24</v>
+      </c>
+      <c r="P130">
+        <v>3</v>
+      </c>
+      <c r="R130" t="str">
+        <f t="shared" si="36"/>
+        <v>(129,'',10,7,0.355,0.415,0,0,24,3),</v>
+      </c>
+    </row>
+    <row r="131" spans="2:18">
+      <c r="B131" t="s">
+        <v>115</v>
+      </c>
+      <c r="C131" s="1">
+        <v>400</v>
+      </c>
+      <c r="D131" s="1">
+        <v>465</v>
+      </c>
+      <c r="E131">
+        <f t="shared" si="83"/>
+        <v>0.4</v>
+      </c>
+      <c r="F131">
+        <f t="shared" si="84"/>
+        <v>0.46500000000000002</v>
+      </c>
+      <c r="G131">
+        <v>130</v>
+      </c>
+      <c r="H131" t="str">
+        <f t="shared" si="85"/>
+        <v/>
+      </c>
+      <c r="I131">
+        <v>10</v>
+      </c>
+      <c r="J131">
+        <f t="shared" si="86"/>
+        <v>8</v>
+      </c>
+      <c r="K131">
+        <f t="shared" si="87"/>
+        <v>0.4</v>
+      </c>
+      <c r="L131">
+        <f t="shared" si="88"/>
+        <v>0.46500000000000002</v>
+      </c>
+      <c r="M131">
+        <v>0</v>
+      </c>
+      <c r="N131">
+        <v>0</v>
+      </c>
+      <c r="O131">
+        <v>102</v>
+      </c>
+      <c r="P131">
+        <v>1</v>
+      </c>
+      <c r="R131" t="str">
+        <f t="shared" ref="R131:R132" si="89">"("&amp;G131&amp;",'"&amp;H131&amp;"',"&amp;I131&amp;","&amp;J131&amp;","&amp;K131&amp;","&amp;L131&amp;","&amp;M131&amp;","&amp;N131&amp;","&amp;O131&amp;","&amp;P131&amp;"),"</f>
+        <v>(130,'',10,8,0.4,0.465,0,0,102,1),</v>
+      </c>
+    </row>
+    <row r="132" spans="2:18">
+      <c r="B132" t="s">
+        <v>116</v>
+      </c>
+      <c r="C132" s="1">
+        <v>515</v>
+      </c>
+      <c r="D132" s="1">
+        <v>465</v>
+      </c>
+      <c r="E132">
+        <f t="shared" si="83"/>
+        <v>0.51500000000000001</v>
+      </c>
+      <c r="F132">
+        <f t="shared" si="84"/>
+        <v>0.46500000000000002</v>
+      </c>
+      <c r="G132">
+        <v>131</v>
+      </c>
+      <c r="H132" t="str">
+        <f t="shared" si="85"/>
+        <v/>
+      </c>
+      <c r="I132">
+        <v>10</v>
+      </c>
+      <c r="J132">
+        <f t="shared" si="86"/>
+        <v>9</v>
+      </c>
+      <c r="K132">
+        <f t="shared" si="87"/>
+        <v>0.51500000000000001</v>
+      </c>
+      <c r="L132">
+        <f t="shared" si="88"/>
+        <v>0.46500000000000002</v>
+      </c>
+      <c r="M132">
+        <v>0</v>
+      </c>
+      <c r="N132">
+        <v>0</v>
+      </c>
+      <c r="O132">
+        <v>122</v>
+      </c>
+      <c r="P132">
+        <v>2</v>
+      </c>
+      <c r="R132" t="str">
+        <f t="shared" si="89"/>
+        <v>(131,'',10,9,0.515,0.465,0,0,122,2),</v>
       </c>
     </row>
   </sheetData>

--- a/model_position_data.xlsx
+++ b/model_position_data.xlsx
@@ -749,7 +749,7 @@
   <dimension ref="A1:F71"/>
   <sheetViews>
     <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="B67" sqref="B67"/>
+      <selection activeCell="C57" sqref="C57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1908,7 +1908,7 @@
         <v>570</v>
       </c>
       <c r="C57" s="1">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="D57" s="1">
         <f t="shared" si="22"/>
@@ -1916,11 +1916,11 @@
       </c>
       <c r="E57" s="1">
         <f t="shared" si="23"/>
-        <v>0.44</v>
+        <v>0.44500000000000001</v>
       </c>
       <c r="F57" s="1" t="str">
         <f t="shared" si="24"/>
-        <v>[0.57,0.44],</v>
+        <v>[0.57,0.445],</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -2091,14 +2091,14 @@
         <v>4</v>
       </c>
       <c r="B66" s="1">
-        <v>135</v>
+        <v>110</v>
       </c>
       <c r="C66" s="1">
         <v>530</v>
       </c>
       <c r="D66" s="1">
         <f t="shared" ref="D66:D71" si="28">B66/1000</f>
-        <v>0.13500000000000001</v>
+        <v>0.11</v>
       </c>
       <c r="E66" s="1">
         <f t="shared" ref="E66:E71" si="29">C66/1000</f>
@@ -2106,7 +2106,7 @@
       </c>
       <c r="F66" s="1" t="str">
         <f t="shared" ref="F66:F71" si="30">"["&amp;D66&amp;","&amp;E66&amp;"],"</f>
-        <v>[0.135,0.53],</v>
+        <v>[0.11,0.53],</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2220,8 +2220,8 @@
   <dimension ref="A1:R132"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A100" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P127" sqref="P127"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2790,7 +2790,7 @@
         <v>580</v>
       </c>
       <c r="D11">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="E11">
         <f t="shared" si="0"/>
@@ -2798,7 +2798,7 @@
       </c>
       <c r="F11">
         <f t="shared" si="1"/>
-        <v>0.44</v>
+        <v>0.44500000000000001</v>
       </c>
       <c r="G11">
         <v>10</v>
@@ -2820,10 +2820,10 @@
       </c>
       <c r="L11">
         <f t="shared" si="5"/>
-        <v>0.44</v>
+        <v>0.44500000000000001</v>
       </c>
       <c r="M11">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -2837,7 +2837,7 @@
       </c>
       <c r="R11" t="str">
         <f t="shared" si="6"/>
-        <v>(10,'Keyword Research',1,10,0.58,0.44,0.005,0,10,0),</v>
+        <v>(10,'Keyword Research',1,10,0.58,0.445,0.01,0,10,0),</v>
       </c>
     </row>
     <row r="12" spans="1:18">
@@ -2884,7 +2884,7 @@
         <v>-5.0000000000000001E-3</v>
       </c>
       <c r="N12">
-        <v>1.4999999999999999E-2</v>
+        <v>0.02</v>
       </c>
       <c r="O12">
         <f t="shared" si="7"/>
@@ -2895,7 +2895,7 @@
       </c>
       <c r="R12" t="str">
         <f t="shared" si="6"/>
-        <v>(11,'Organic Traffic',1,11,0.44,0.325,-0.005,0.015,11,0),</v>
+        <v>(11,'Organic Traffic',1,11,0.44,0.325,-0.005,0.02,11,0),</v>
       </c>
     </row>
     <row r="13" spans="1:18">
@@ -4458,11 +4458,11 @@
         <v>507</v>
       </c>
       <c r="E40">
-        <f t="shared" ref="E40:E48" si="20">C40/1000</f>
+        <f t="shared" ref="E40:E47" si="20">C40/1000</f>
         <v>0.745</v>
       </c>
       <c r="F40">
-        <f t="shared" ref="F40:F48" si="21">D40/1000</f>
+        <f t="shared" ref="F40:F47" si="21">D40/1000</f>
         <v>0.50700000000000001</v>
       </c>
       <c r="G40">
@@ -4921,7 +4921,7 @@
         <v>0.70750000000000002</v>
       </c>
       <c r="F48">
-        <f t="shared" ref="F48:F62" si="24">D48/1000</f>
+        <f t="shared" ref="F48:F61" si="24">D48/1000</f>
         <v>0.17449999999999999</v>
       </c>
       <c r="G48">
@@ -5949,11 +5949,11 @@
         <v>223</v>
       </c>
       <c r="E66">
-        <f t="shared" ref="E66:E75" si="32">C66/1000</f>
+        <f t="shared" ref="E66:E74" si="32">C66/1000</f>
         <v>0.79600000000000004</v>
       </c>
       <c r="F66">
-        <f t="shared" ref="F66:F75" si="33">D66/1000</f>
+        <f t="shared" ref="F66:F74" si="33">D66/1000</f>
         <v>0.223</v>
       </c>
       <c r="G66">
@@ -5971,11 +5971,11 @@
         <v>3</v>
       </c>
       <c r="K66">
-        <f t="shared" ref="K66:K75" si="34">E66</f>
+        <f t="shared" ref="K66:K74" si="34">E66</f>
         <v>0.79600000000000004</v>
       </c>
       <c r="L66">
-        <f t="shared" ref="L66:L75" si="35">F66</f>
+        <f t="shared" ref="L66:L74" si="35">F66</f>
         <v>0.223</v>
       </c>
       <c r="M66">
@@ -6359,14 +6359,14 @@
         <v>72</v>
       </c>
       <c r="H73" t="str">
-        <f t="shared" ref="H73:H75" si="37">IF(P73=0,B73,"")</f>
+        <f t="shared" ref="H73:H74" si="37">IF(P73=0,B73,"")</f>
         <v>Conversion Tracking</v>
       </c>
       <c r="I73">
         <v>6</v>
       </c>
       <c r="J73">
-        <f t="shared" ref="J73:J75" si="38">IF(I73=I72,J72+1,1)</f>
+        <f t="shared" ref="J73:J74" si="38">IF(I73=I72,J72+1,1)</f>
         <v>10</v>
       </c>
       <c r="K73">
@@ -6462,18 +6462,18 @@
         <v>325</v>
       </c>
       <c r="E75">
-        <f t="shared" ref="E75:E79" si="39">C75/1000</f>
+        <f t="shared" ref="E75:E76" si="39">C75/1000</f>
         <v>0.66</v>
       </c>
       <c r="F75">
-        <f t="shared" ref="F75:F79" si="40">D75/1000</f>
+        <f t="shared" ref="F75:F76" si="40">D75/1000</f>
         <v>0.32500000000000001</v>
       </c>
       <c r="G75">
         <v>74</v>
       </c>
       <c r="H75" t="str">
-        <f t="shared" ref="H75:H77" si="41">IF(P75=0,B75,"")</f>
+        <f t="shared" ref="H75:H76" si="41">IF(P75=0,B75,"")</f>
         <v>Paid Traffic</v>
       </c>
       <c r="I75">
@@ -6484,18 +6484,18 @@
         <v>12</v>
       </c>
       <c r="K75">
-        <f t="shared" ref="K75:K79" si="43">E75</f>
+        <f t="shared" ref="K75:K77" si="43">E75</f>
         <v>0.66</v>
       </c>
       <c r="L75">
-        <f t="shared" ref="L75:L79" si="44">F75</f>
+        <f t="shared" ref="L75:L77" si="44">F75</f>
         <v>0.32500000000000001</v>
       </c>
       <c r="M75">
         <v>0</v>
       </c>
       <c r="N75">
-        <v>1.4999999999999999E-2</v>
+        <v>0.02</v>
       </c>
       <c r="O75">
         <v>74</v>
@@ -6505,7 +6505,7 @@
       </c>
       <c r="R75" t="str">
         <f t="shared" si="36"/>
-        <v>(74,'Paid Traffic',6,12,0.66,0.325,0,0.015,74,0),</v>
+        <v>(74,'Paid Traffic',6,12,0.66,0.325,0,0.02,74,0),</v>
       </c>
     </row>
     <row r="76" spans="1:18">
@@ -6552,7 +6552,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="N76">
-        <v>0.01</v>
+        <v>-0.01</v>
       </c>
       <c r="O76">
         <v>75</v>
@@ -6562,7 +6562,7 @@
       </c>
       <c r="R76" t="str">
         <f t="shared" si="36"/>
-        <v>(75,'Mobile Advertising',6,13,0.58,0.325,0.005,0.01,75,0),</v>
+        <v>(75,'Mobile Advertising',6,13,0.58,0.325,0.005,-0.01,75,0),</v>
       </c>
     </row>
     <row r="77" spans="1:18">
@@ -6576,11 +6576,11 @@
         <v>420</v>
       </c>
       <c r="E77">
-        <f t="shared" ref="E77:E84" si="45">C77/1000</f>
+        <f t="shared" ref="E77:E82" si="45">C77/1000</f>
         <v>0.63500000000000001</v>
       </c>
       <c r="F77">
-        <f t="shared" ref="F77:F84" si="46">D77/1000</f>
+        <f t="shared" ref="F77:F82" si="46">D77/1000</f>
         <v>0.42</v>
       </c>
       <c r="G77">
@@ -6658,11 +6658,11 @@
         <v>1</v>
       </c>
       <c r="K78">
-        <f t="shared" ref="K78:K84" si="49">E78</f>
+        <f t="shared" ref="K78:K82" si="49">E78</f>
         <v>0.28499999999999998</v>
       </c>
       <c r="L78">
-        <f t="shared" ref="L78:L84" si="50">F78</f>
+        <f t="shared" ref="L78:L82" si="50">F78</f>
         <v>0.18</v>
       </c>
       <c r="M78">
@@ -6915,18 +6915,18 @@
         <v>98</v>
       </c>
       <c r="C83">
-        <v>460</v>
+        <v>473.5</v>
       </c>
       <c r="D83">
-        <v>195</v>
+        <v>209.5</v>
       </c>
       <c r="E83">
         <f t="shared" ref="E83:E86" si="51">C83/1000</f>
-        <v>0.46</v>
+        <v>0.47349999999999998</v>
       </c>
       <c r="F83">
         <f t="shared" ref="F83:F86" si="52">D83/1000</f>
-        <v>0.19500000000000001</v>
+        <v>0.20949999999999999</v>
       </c>
       <c r="G83">
         <v>82</v>
@@ -6944,11 +6944,11 @@
       </c>
       <c r="K83">
         <f t="shared" ref="K83:K86" si="55">E83</f>
-        <v>0.46</v>
+        <v>0.47349999999999998</v>
       </c>
       <c r="L83">
         <f t="shared" ref="L83:L86" si="56">F83</f>
-        <v>0.19500000000000001</v>
+        <v>0.20949999999999999</v>
       </c>
       <c r="M83">
         <v>-1.4999999999999999E-2</v>
@@ -6964,7 +6964,7 @@
       </c>
       <c r="R83" t="str">
         <f t="shared" si="36"/>
-        <v>(82,'Text Messaging',7,6,0.46,0.195,-0.015,0,0,0),</v>
+        <v>(82,'Text Messaging',7,6,0.4735,0.2095,-0.015,0,0,0),</v>
       </c>
     </row>
     <row r="84" spans="1:18">
@@ -6972,18 +6972,18 @@
         <v>99</v>
       </c>
       <c r="C84">
-        <v>473.5</v>
+        <v>493.25</v>
       </c>
       <c r="D84">
-        <v>209.5</v>
+        <v>231.25</v>
       </c>
       <c r="E84">
         <f t="shared" si="51"/>
-        <v>0.47349999999999998</v>
+        <v>0.49325000000000002</v>
       </c>
       <c r="F84">
         <f t="shared" si="52"/>
-        <v>0.20949999999999999</v>
+        <v>0.23125000000000001</v>
       </c>
       <c r="G84">
         <v>83</v>
@@ -7001,11 +7001,11 @@
       </c>
       <c r="K84">
         <f t="shared" si="55"/>
-        <v>0.47349999999999998</v>
+        <v>0.49325000000000002</v>
       </c>
       <c r="L84">
         <f t="shared" si="56"/>
-        <v>0.20949999999999999</v>
+        <v>0.23125000000000001</v>
       </c>
       <c r="M84">
         <v>-1.4999999999999999E-2</v>
@@ -7021,7 +7021,7 @@
       </c>
       <c r="R84" t="str">
         <f t="shared" si="36"/>
-        <v>(83,'Click to Cal',7,7,0.4735,0.2095,-0.015,0,0,0),</v>
+        <v>(83,'Click to Cal',7,7,0.49325,0.23125,-0.015,0,0,0),</v>
       </c>
     </row>
     <row r="85" spans="1:18">
@@ -7029,18 +7029,18 @@
         <v>100</v>
       </c>
       <c r="C85">
-        <v>487</v>
+        <v>513</v>
       </c>
       <c r="D85">
-        <v>224</v>
+        <v>253</v>
       </c>
       <c r="E85">
         <f t="shared" si="51"/>
-        <v>0.48699999999999999</v>
+        <v>0.51300000000000001</v>
       </c>
       <c r="F85">
         <f t="shared" si="52"/>
-        <v>0.224</v>
+        <v>0.253</v>
       </c>
       <c r="G85">
         <v>84</v>
@@ -7058,11 +7058,11 @@
       </c>
       <c r="K85">
         <f t="shared" si="55"/>
-        <v>0.48699999999999999</v>
+        <v>0.51300000000000001</v>
       </c>
       <c r="L85">
         <f t="shared" si="56"/>
-        <v>0.224</v>
+        <v>0.253</v>
       </c>
       <c r="M85">
         <v>-1.4999999999999999E-2</v>
@@ -7078,7 +7078,7 @@
       </c>
       <c r="R85" t="str">
         <f t="shared" si="36"/>
-        <v>(84,'Mobile Commerce',7,8,0.487,0.224,-0.015,0,0,0),</v>
+        <v>(84,'Mobile Commerce',7,8,0.513,0.253,-0.015,0,0,0),</v>
       </c>
     </row>
     <row r="86" spans="1:18">
@@ -7086,18 +7086,18 @@
         <v>101</v>
       </c>
       <c r="C86">
-        <v>500.5</v>
+        <v>532.75</v>
       </c>
       <c r="D86">
-        <v>238.5</v>
+        <v>274.75</v>
       </c>
       <c r="E86">
         <f t="shared" si="51"/>
-        <v>0.50049999999999994</v>
+        <v>0.53274999999999995</v>
       </c>
       <c r="F86">
         <f t="shared" si="52"/>
-        <v>0.23849999999999999</v>
+        <v>0.27474999999999999</v>
       </c>
       <c r="G86">
         <v>85</v>
@@ -7115,11 +7115,11 @@
       </c>
       <c r="K86">
         <f t="shared" si="55"/>
-        <v>0.50049999999999994</v>
+        <v>0.53274999999999995</v>
       </c>
       <c r="L86">
         <f t="shared" si="56"/>
-        <v>0.23849999999999999</v>
+        <v>0.27474999999999999</v>
       </c>
       <c r="M86">
         <v>-1.4999999999999999E-2</v>
@@ -7135,7 +7135,7 @@
       </c>
       <c r="R86" t="str">
         <f t="shared" si="36"/>
-        <v>(85,'SMS Marketing',7,9,0.5005,0.2385,-0.015,0,0,0),</v>
+        <v>(85,'SMS Marketing',7,9,0.53275,0.27475,-0.015,0,0,0),</v>
       </c>
     </row>
     <row r="87" spans="1:18">
@@ -7153,7 +7153,7 @@
         <v>0.57999999999999996</v>
       </c>
       <c r="F87">
-        <f t="shared" ref="F87:F95" si="58">D87/1000</f>
+        <f t="shared" ref="F87:F91" si="58">D87/1000</f>
         <v>0.32500000000000001</v>
       </c>
       <c r="G87">
@@ -7175,7 +7175,7 @@
         <v>0.57999999999999996</v>
       </c>
       <c r="L87">
-        <f t="shared" ref="L87:L95" si="61">F87</f>
+        <f t="shared" ref="L87:L93" si="61">F87</f>
         <v>0.32500000000000001</v>
       </c>
       <c r="M87">
@@ -7239,7 +7239,7 @@
         <v>0</v>
       </c>
       <c r="N88">
-        <v>1.4999999999999999E-2</v>
+        <v>0.02</v>
       </c>
       <c r="O88">
         <v>87</v>
@@ -7249,7 +7249,7 @@
       </c>
       <c r="R88" t="str">
         <f t="shared" si="36"/>
-        <v>(87,'Call Tracking',7,11,0.5,0.325,0,0.015,87,0),</v>
+        <v>(87,'Call Tracking',7,11,0.5,0.325,0,0.02,87,0),</v>
       </c>
     </row>
     <row r="89" spans="1:18">
@@ -7551,7 +7551,7 @@
         <v>300</v>
       </c>
       <c r="E94">
-        <f t="shared" ref="E94:E107" si="69">C94/1000</f>
+        <f t="shared" ref="E94:E105" si="69">C94/1000</f>
         <v>0.25</v>
       </c>
       <c r="F94">
@@ -7562,7 +7562,7 @@
         <v>93</v>
       </c>
       <c r="H94" t="str">
-        <f t="shared" ref="H94:H129" si="71">IF(P94=0,B94,"")</f>
+        <f t="shared" ref="H94:H123" si="71">IF(P94=0,B94,"")</f>
         <v>Legal Compliance</v>
       </c>
       <c r="I94">
@@ -7573,7 +7573,7 @@
         <v>3</v>
       </c>
       <c r="K94">
-        <f t="shared" ref="K94:K107" si="73">E94</f>
+        <f t="shared" ref="K94:K105" si="73">E94</f>
         <v>0.25</v>
       </c>
       <c r="L94">
@@ -8097,7 +8097,7 @@
         <v>0</v>
       </c>
       <c r="N103">
-        <v>-1.4999999999999999E-2</v>
+        <v>-0.02</v>
       </c>
       <c r="O103">
         <v>102</v>
@@ -8107,7 +8107,7 @@
       </c>
       <c r="R103" t="str">
         <f t="shared" si="36"/>
-        <v>(102,'Site Structure',8,12,0.4,0.465,0,-0.015,102,0),</v>
+        <v>(102,'Site Structure',8,12,0.4,0.465,0,-0.02,102,0),</v>
       </c>
     </row>
     <row r="104" spans="1:18">
@@ -8175,7 +8175,7 @@
         <v>570</v>
       </c>
       <c r="D105" s="1">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="E105">
         <f t="shared" si="69"/>
@@ -8183,7 +8183,7 @@
       </c>
       <c r="F105">
         <f t="shared" si="70"/>
-        <v>0.44</v>
+        <v>0.44500000000000001</v>
       </c>
       <c r="G105">
         <v>104</v>
@@ -8205,7 +8205,7 @@
       </c>
       <c r="L105">
         <f t="shared" si="74"/>
-        <v>0.44</v>
+        <v>0.44500000000000001</v>
       </c>
       <c r="M105">
         <v>0</v>
@@ -8221,7 +8221,7 @@
       </c>
       <c r="R105" t="str">
         <f t="shared" si="36"/>
-        <v>(104,'',8,14,0.57,0.44,0,0,10,1),</v>
+        <v>(104,'',8,14,0.57,0.445,0,0,10,1),</v>
       </c>
     </row>
     <row r="106" spans="1:18">
@@ -8238,7 +8238,7 @@
         <v>455</v>
       </c>
       <c r="E106">
-        <f t="shared" ref="E106:E129" si="75">C106/1000</f>
+        <f t="shared" ref="E106:E123" si="75">C106/1000</f>
         <v>0.11</v>
       </c>
       <c r="F106">
@@ -9229,7 +9229,7 @@
         <v>18</v>
       </c>
       <c r="K123">
-        <f t="shared" ref="K123:K129" si="81">E123</f>
+        <f t="shared" ref="K123" si="81">E123</f>
         <v>0.51500000000000001</v>
       </c>
       <c r="L123">
@@ -9240,7 +9240,7 @@
         <v>0</v>
       </c>
       <c r="N123">
-        <v>-2.5000000000000001E-2</v>
+        <v>-0.03</v>
       </c>
       <c r="O123">
         <v>122</v>
@@ -9250,7 +9250,7 @@
       </c>
       <c r="R123" t="str">
         <f t="shared" si="36"/>
-        <v>(122,'Webmaster Tools',9,18,0.515,0.475,0,-0.025,122,0),</v>
+        <v>(122,'Webmaster Tools',9,18,0.515,0.475,0,-0.03,122,0),</v>
       </c>
     </row>
     <row r="124" spans="1:18">
@@ -9261,14 +9261,14 @@
         <v>126</v>
       </c>
       <c r="C124">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="D124" s="1">
         <v>530</v>
       </c>
       <c r="E124">
         <f t="shared" ref="E124:E132" si="83">C124/1000</f>
-        <v>0.17499999999999999</v>
+        <v>0.16500000000000001</v>
       </c>
       <c r="F124">
         <f t="shared" ref="F124:F132" si="84">D124/1000</f>
@@ -9290,7 +9290,7 @@
       </c>
       <c r="K124">
         <f t="shared" ref="K124:K132" si="87">E124</f>
-        <v>0.17499999999999999</v>
+        <v>0.16500000000000001</v>
       </c>
       <c r="L124">
         <f t="shared" ref="L124:L132" si="88">F124</f>
@@ -9310,7 +9310,7 @@
       </c>
       <c r="R124" t="str">
         <f t="shared" si="36"/>
-        <v>(123,'On Page Factors',10,1,0.175,0.53,0,-0.01,0,0),</v>
+        <v>(123,'On Page Factors',10,1,0.165,0.53,0,-0.01,0,0),</v>
       </c>
     </row>
     <row r="125" spans="1:18">
@@ -9318,14 +9318,14 @@
         <v>127</v>
       </c>
       <c r="C125">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="D125" s="1">
         <v>530</v>
       </c>
       <c r="E125">
         <f t="shared" si="83"/>
-        <v>0.19500000000000001</v>
+        <v>0.19</v>
       </c>
       <c r="F125">
         <f t="shared" si="84"/>
@@ -9347,7 +9347,7 @@
       </c>
       <c r="K125">
         <f t="shared" si="87"/>
-        <v>0.19500000000000001</v>
+        <v>0.19</v>
       </c>
       <c r="L125">
         <f t="shared" si="88"/>
@@ -9367,7 +9367,7 @@
       </c>
       <c r="R125" t="str">
         <f t="shared" si="36"/>
-        <v>(124,'schema.org',10,2,0.195,0.53,0,0.01,0,0),</v>
+        <v>(124,'schema.org',10,2,0.19,0.53,0,0.01,0,0),</v>
       </c>
     </row>
     <row r="126" spans="1:18">
@@ -9663,7 +9663,7 @@
         <v>400</v>
       </c>
       <c r="D131" s="1">
-        <v>465</v>
+        <v>455</v>
       </c>
       <c r="E131">
         <f t="shared" si="83"/>
@@ -9671,7 +9671,7 @@
       </c>
       <c r="F131">
         <f t="shared" si="84"/>
-        <v>0.46500000000000002</v>
+        <v>0.45500000000000002</v>
       </c>
       <c r="G131">
         <v>130</v>
@@ -9693,7 +9693,7 @@
       </c>
       <c r="L131">
         <f t="shared" si="88"/>
-        <v>0.46500000000000002</v>
+        <v>0.45500000000000002</v>
       </c>
       <c r="M131">
         <v>0</v>
@@ -9709,7 +9709,7 @@
       </c>
       <c r="R131" t="str">
         <f t="shared" ref="R131:R132" si="89">"("&amp;G131&amp;",'"&amp;H131&amp;"',"&amp;I131&amp;","&amp;J131&amp;","&amp;K131&amp;","&amp;L131&amp;","&amp;M131&amp;","&amp;N131&amp;","&amp;O131&amp;","&amp;P131&amp;"),"</f>
-        <v>(130,'',10,8,0.4,0.465,0,0,102,1),</v>
+        <v>(130,'',10,8,0.4,0.455,0,0,102,1),</v>
       </c>
     </row>
     <row r="132" spans="2:18">
@@ -9720,7 +9720,7 @@
         <v>515</v>
       </c>
       <c r="D132" s="1">
-        <v>465</v>
+        <v>455</v>
       </c>
       <c r="E132">
         <f t="shared" si="83"/>
@@ -9728,7 +9728,7 @@
       </c>
       <c r="F132">
         <f t="shared" si="84"/>
-        <v>0.46500000000000002</v>
+        <v>0.45500000000000002</v>
       </c>
       <c r="G132">
         <v>131</v>
@@ -9750,7 +9750,7 @@
       </c>
       <c r="L132">
         <f t="shared" si="88"/>
-        <v>0.46500000000000002</v>
+        <v>0.45500000000000002</v>
       </c>
       <c r="M132">
         <v>0</v>
@@ -9766,7 +9766,7 @@
       </c>
       <c r="R132" t="str">
         <f t="shared" si="89"/>
-        <v>(131,'',10,9,0.515,0.465,0,0,122,2),</v>
+        <v>(131,'',10,9,0.515,0.455,0,0,122,2),</v>
       </c>
     </row>
   </sheetData>

--- a/model_position_data.xlsx
+++ b/model_position_data.xlsx
@@ -2220,8 +2220,8 @@
   <dimension ref="A1:R132"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
+      <pane ySplit="1" topLeftCell="A101" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J129" sqref="J129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9432,18 +9432,18 @@
         <v>129</v>
       </c>
       <c r="C127">
-        <v>236.3</v>
+        <v>241.3</v>
       </c>
       <c r="D127" s="1">
-        <v>520</v>
+        <v>515</v>
       </c>
       <c r="E127">
         <f t="shared" si="83"/>
-        <v>0.23630000000000001</v>
+        <v>0.24130000000000001</v>
       </c>
       <c r="F127">
         <f t="shared" si="84"/>
-        <v>0.52</v>
+        <v>0.51500000000000001</v>
       </c>
       <c r="G127">
         <v>126</v>
@@ -9461,11 +9461,11 @@
       </c>
       <c r="K127">
         <f t="shared" si="87"/>
-        <v>0.23630000000000001</v>
+        <v>0.24130000000000001</v>
       </c>
       <c r="L127">
         <f t="shared" si="88"/>
-        <v>0.52</v>
+        <v>0.51500000000000001</v>
       </c>
       <c r="M127">
         <v>1.4999999999999999E-2</v>
@@ -9481,7 +9481,7 @@
       </c>
       <c r="R127" t="str">
         <f t="shared" si="36"/>
-        <v>(126,'Technical Audit',10,4,0.2363,0.52,0.015,0,0,0),</v>
+        <v>(126,'Technical Audit',10,4,0.2413,0.515,0.015,0,0,0),</v>
       </c>
     </row>
     <row r="128" spans="1:18">
@@ -9489,18 +9489,18 @@
         <v>130</v>
       </c>
       <c r="C128">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="D128" s="1">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="E128">
         <f t="shared" si="83"/>
-        <v>0.25900000000000001</v>
+        <v>0.26400000000000001</v>
       </c>
       <c r="F128">
         <f t="shared" si="84"/>
-        <v>0.5</v>
+        <v>0.495</v>
       </c>
       <c r="G128">
         <v>127</v>
@@ -9518,11 +9518,11 @@
       </c>
       <c r="K128">
         <f t="shared" si="87"/>
-        <v>0.25900000000000001</v>
+        <v>0.26400000000000001</v>
       </c>
       <c r="L128">
         <f t="shared" si="88"/>
-        <v>0.5</v>
+        <v>0.495</v>
       </c>
       <c r="M128">
         <v>1.4999999999999999E-2</v>
@@ -9538,7 +9538,7 @@
       </c>
       <c r="R128" t="str">
         <f t="shared" si="36"/>
-        <v>(127,'International SEO',10,5,0.259,0.5,0.015,0,0,0),</v>
+        <v>(127,'International SEO',10,5,0.264,0.495,0.015,0,0,0),</v>
       </c>
     </row>
     <row r="129" spans="2:18">
@@ -9546,18 +9546,18 @@
         <v>131</v>
       </c>
       <c r="C129">
-        <v>281.60000000000002</v>
+        <v>286.60000000000002</v>
       </c>
       <c r="D129" s="1">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="E129">
         <f t="shared" si="83"/>
-        <v>0.28160000000000002</v>
+        <v>0.28660000000000002</v>
       </c>
       <c r="F129">
         <f t="shared" si="84"/>
-        <v>0.48</v>
+        <v>0.47499999999999998</v>
       </c>
       <c r="G129">
         <v>128</v>
@@ -9575,11 +9575,11 @@
       </c>
       <c r="K129">
         <f t="shared" si="87"/>
-        <v>0.28160000000000002</v>
+        <v>0.28660000000000002</v>
       </c>
       <c r="L129">
         <f t="shared" si="88"/>
-        <v>0.48</v>
+        <v>0.47499999999999998</v>
       </c>
       <c r="M129">
         <v>1.4999999999999999E-2</v>
@@ -9595,7 +9595,7 @@
       </c>
       <c r="R129" t="str">
         <f t="shared" si="36"/>
-        <v>(128,'robots.txt',10,6,0.2816,0.48,0.015,0,0,0),</v>
+        <v>(128,'robots.txt',10,6,0.2866,0.475,0.015,0,0,0),</v>
       </c>
     </row>
     <row r="130" spans="2:18">
